--- a/Dashboards-test/Clan Leaderboard.xlsx
+++ b/Dashboards-test/Clan Leaderboard.xlsx
@@ -101,18 +101,18 @@
     <x:t>RP</x:t>
   </x:si>
   <x:si>
+    <x:t>SKILL</x:t>
+  </x:si>
+  <x:si>
     <x:t>DID</x:t>
   </x:si>
   <x:si>
+    <x:t>BANANA</x:t>
+  </x:si>
+  <x:si>
     <x:t>GQ</x:t>
   </x:si>
   <x:si>
-    <x:t>SKILL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BANANA</x:t>
-  </x:si>
-  <x:si>
     <x:t>FOLDIN</x:t>
   </x:si>
   <x:si>
@@ -131,45 +131,48 @@
     <x:t>JSK</x:t>
   </x:si>
   <x:si>
+    <x:t>GUNDAM</x:t>
+  </x:si>
+  <x:si>
     <x:t>ARCTIC</x:t>
   </x:si>
   <x:si>
-    <x:t>GUNDAM</x:t>
-  </x:si>
-  <x:si>
     <x:t>LUCK</x:t>
   </x:si>
   <x:si>
+    <x:t>FINAL</x:t>
+  </x:si>
+  <x:si>
     <x:t>RIOT2</x:t>
   </x:si>
   <x:si>
-    <x:t>FINAL</x:t>
+    <x:t>TS12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IRIS</x:t>
   </x:si>
   <x:si>
     <x:t>GHOSTS</x:t>
   </x:si>
   <x:si>
+    <x:t>C00L</x:t>
+  </x:si>
+  <x:si>
     <x:t>FUTURE</x:t>
   </x:si>
   <x:si>
-    <x:t>IRIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TS12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C00L</x:t>
+    <x:t>VOX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPACE2</x:t>
   </x:si>
   <x:si>
     <x:t>UNIONS</x:t>
   </x:si>
   <x:si>
-    <x:t>SPACE2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOW</x:t>
-  </x:si>
-  <x:si>
     <x:t>POTATO</x:t>
   </x:si>
   <x:si>
@@ -179,49 +182,49 @@
     <x:t>RIES</x:t>
   </x:si>
   <x:si>
-    <x:t>VOX</x:t>
+    <x:t>SV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOAH</x:t>
   </x:si>
   <x:si>
     <x:t>KIL</x:t>
   </x:si>
   <x:si>
-    <x:t>SV</x:t>
-  </x:si>
-  <x:si>
     <x:t>MOON</x:t>
   </x:si>
   <x:si>
+    <x:t>JKRZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEESH</x:t>
+  </x:si>
+  <x:si>
     <x:t>SPACE</x:t>
   </x:si>
   <x:si>
-    <x:t>NOAH</x:t>
-  </x:si>
-  <x:si>
     <x:t>MERCX</x:t>
   </x:si>
   <x:si>
-    <x:t>JKRZ</x:t>
-  </x:si>
-  <x:si>
     <x:t>FLOOFY</x:t>
   </x:si>
   <x:si>
-    <x:t>MEESH</x:t>
+    <x:t>ACTION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COYOTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAVERA</x:t>
   </x:si>
   <x:si>
     <x:t>KRYPTO</x:t>
   </x:si>
   <x:si>
-    <x:t>IQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAVERA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COYOTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ACTION</x:t>
+    <x:t>CIWS</x:t>
   </x:si>
   <x:si>
     <x:t>AMBUSH</x:t>
@@ -230,69 +233,66 @@
     <x:t>SENTRY</x:t>
   </x:si>
   <x:si>
-    <x:t>CIWS</x:t>
+    <x:t>GOD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DRONE</x:t>
   </x:si>
   <x:si>
     <x:t>NOVA</x:t>
   </x:si>
   <x:si>
-    <x:t>DRONE</x:t>
+    <x:t>UDUZAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZR2</x:t>
   </x:si>
   <x:si>
     <x:t>CORONA</x:t>
   </x:si>
   <x:si>
-    <x:t>GOD</x:t>
-  </x:si>
-  <x:si>
     <x:t>ROUGE</x:t>
   </x:si>
   <x:si>
-    <x:t>ZR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UDUZAL</x:t>
-  </x:si>
-  <x:si>
     <x:t>VIBIN</x:t>
   </x:si>
   <x:si>
+    <x:t>ELITES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCHYPX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAGUAR</x:t>
+  </x:si>
+  <x:si>
     <x:t>PIXEL</x:t>
   </x:si>
   <x:si>
     <x:t>PBTG</x:t>
   </x:si>
   <x:si>
-    <x:t>MCHYPX</x:t>
-  </x:si>
-  <x:si>
     <x:t>3ANANA</x:t>
   </x:si>
   <x:si>
-    <x:t>JAGUAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ELITES</x:t>
-  </x:si>
-  <x:si>
     <x:t>BLESS</x:t>
   </x:si>
   <x:si>
-    <x:t>PRO</x:t>
+    <x:t>ZERO</x:t>
   </x:si>
   <x:si>
     <x:t>OWO</x:t>
   </x:si>
   <x:si>
+    <x:t>INQ</x:t>
+  </x:si>
+  <x:si>
     <x:t>MC</x:t>
   </x:si>
   <x:si>
-    <x:t>ZERO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INQ</x:t>
-  </x:si>
-  <x:si>
     <x:t>WAR</x:t>
   </x:si>
   <x:si>
@@ -302,6 +302,9 @@
     <x:t>POG</x:t>
   </x:si>
   <x:si>
+    <x:t>BENDY</x:t>
+  </x:si>
+  <x:si>
     <x:t>TDK</x:t>
   </x:si>
   <x:si>
@@ -317,13 +320,13 @@
     <x:t>MEX</x:t>
   </x:si>
   <x:si>
+    <x:t>JID</x:t>
+  </x:si>
+  <x:si>
     <x:t>LUC43R</x:t>
   </x:si>
   <x:si>
-    <x:t>BENDY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JID</x:t>
+    <x:t>IMBAD</x:t>
   </x:si>
   <x:si>
     <x:t>TOXIC</x:t>
@@ -341,21 +344,18 @@
     <x:t>GOLDEN</x:t>
   </x:si>
   <x:si>
-    <x:t>IMBAD</x:t>
-  </x:si>
-  <x:si>
     <x:t>BLOB</x:t>
   </x:si>
   <x:si>
+    <x:t>IMPRO</x:t>
+  </x:si>
+  <x:si>
     <x:t>CRAZED</x:t>
   </x:si>
   <x:si>
     <x:t>VENOM</x:t>
   </x:si>
   <x:si>
-    <x:t>IMPRO</x:t>
-  </x:si>
-  <x:si>
     <x:t>SUSHIZ</x:t>
   </x:si>
   <x:si>
@@ -380,169 +380,169 @@
     <x:t>LOKERS</x:t>
   </x:si>
   <x:si>
+    <x:t>LEADER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LGND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MTR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUGGS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ULTRAZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TWEEE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SWEATS</x:t>
+  </x:si>
+  <x:si>
     <x:t>DEFAUL</x:t>
   </x:si>
   <x:si>
-    <x:t>LGND</x:t>
+    <x:t>2006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CYBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NIGHT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BITE87</x:t>
   </x:si>
   <x:si>
     <x:t>TDK2</x:t>
   </x:si>
   <x:si>
-    <x:t>NUGGS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ULTRAZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TWEEE</x:t>
+    <x:t>HALLO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CLUTCH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MANDOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICYYY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USMC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NARUTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OPCLAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23WINS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COSMIC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BHM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GINGER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OWLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOOBVN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHAMMM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GANG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WARIOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PEACE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DRAGON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WOOGS</x:t>
   </x:si>
   <x:si>
     <x:t>TANKER</x:t>
   </x:si>
   <x:si>
-    <x:t>WOOGS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HALLO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CYBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ICYYY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BITE87</x:t>
-  </x:si>
-  <x:si>
     <x:t>CGANG</x:t>
   </x:si>
   <x:si>
-    <x:t>COSMIC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RIP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MANDOS</x:t>
+    <x:t>DARK</x:t>
   </x:si>
   <x:si>
     <x:t>DODGE</x:t>
   </x:si>
   <x:si>
+    <x:t>KOA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANG7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOMS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KHAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIGERS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAGEN</x:t>
+  </x:si>
+  <x:si>
     <x:t>MORT</x:t>
   </x:si>
   <x:si>
-    <x:t>GANG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23WINS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LEADER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOMS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ML</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAGEN</x:t>
-  </x:si>
-  <x:si>
     <x:t>GANG3</x:t>
   </x:si>
   <x:si>
     <x:t>THEPRO</x:t>
   </x:si>
   <x:si>
-    <x:t>NOOBVN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHAMMM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OPCLAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MTR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NIGHT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PEACE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NARUTO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CLUTCH</x:t>
+    <x:t>DR0NE</x:t>
   </x:si>
   <x:si>
     <x:t>GFB</x:t>
   </x:si>
   <x:si>
+    <x:t>INQ2</x:t>
+  </x:si>
+  <x:si>
     <x:t>STC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DARK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KOA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FBI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANG7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DR0NE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KHAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USMC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIGERS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BHM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INQ2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GINGER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SWEATS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DRAGON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WARIOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OWLC</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1010,10 +1010,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="11" t="n">
-        <x:v>171373.25586905</x:v>
+        <x:v>197330.038108632</x:v>
       </x:c>
       <x:c r="D2" s="11" t="n">
-        <x:v>14207540.4976043</x:v>
+        <x:v>14570935.4489585</x:v>
       </x:c>
       <x:c r="E2" s="11" t="s"/>
       <x:c r="F2" s="12" t="n">
@@ -1053,10 +1053,10 @@
         <x:v>309942.010520834</x:v>
       </x:c>
       <x:c r="R2" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>317980.955520812</x:v>
       </x:c>
       <x:c r="S2" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>45413.9958333336</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -1064,13 +1064,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="11" t="n">
-        <x:v>109023.653934521</x:v>
+        <x:v>125819.640229163</x:v>
       </x:c>
       <x:c r="D3" s="11" t="n">
-        <x:v>15020451.7344791</x:v>
+        <x:v>15255595.5426041</x:v>
       </x:c>
       <x:c r="E3" s="11" t="n">
-        <x:v>12.1066714959818</x:v>
+        <x:v>9.04635376304931</x:v>
       </x:c>
       <x:c r="F3" s="12" t="n">
         <x:v>0</x:v>
@@ -1109,10 +1109,10 @@
         <x:v>110603.440249993</x:v>
       </x:c>
       <x:c r="R3" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>196811.97116665</x:v>
       </x:c>
       <x:c r="S3" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>38331.8369583376</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -1120,13 +1120,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="11" t="n">
-        <x:v>100512.569522323</x:v>
+        <x:v>113494.181144348</x:v>
       </x:c>
       <x:c r="D4" s="11" t="n">
-        <x:v>14779838.8765625</x:v>
+        <x:v>14961581.4392708</x:v>
       </x:c>
       <x:c r="E4" s="11" t="n">
-        <x:v>7.49950290797351</x:v>
+        <x:v>4.29620710790101</x:v>
       </x:c>
       <x:c r="F4" s="12" t="n">
         <x:v>0</x:v>
@@ -1165,10 +1165,10 @@
         <x:v>161754.917104179</x:v>
       </x:c>
       <x:c r="R4" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>134251.174437506</x:v>
       </x:c>
       <x:c r="S4" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>47491.3882708456</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -1176,10 +1176,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="11" t="n">
-        <x:v>81540.8967827383</x:v>
+        <x:v>92770.709165179</x:v>
       </x:c>
       <x:c r="D5" s="11" t="n">
-        <x:v>6962694.41112501</x:v>
+        <x:v>7119911.78447918</x:v>
       </x:c>
       <x:c r="E5" s="11" t="s"/>
       <x:c r="F5" s="12" t="n">
@@ -1219,10 +1219,10 @@
         <x:v>83222.8918333361</x:v>
       </x:c>
       <x:c r="R5" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>103797.39404167</x:v>
       </x:c>
       <x:c r="S5" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>53419.9793124991</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:146">
@@ -1230,10 +1230,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C6" s="11" t="n">
-        <x:v>77110.9100267867</x:v>
+        <x:v>89546.2452172628</x:v>
       </x:c>
       <x:c r="D6" s="11" t="n">
-        <x:v>6549127.56433335</x:v>
+        <x:v>6723222.25700001</x:v>
       </x:c>
       <x:c r="E6" s="11" t="s"/>
       <x:c r="F6" s="12" t="n">
@@ -1273,10 +1273,10 @@
         <x:v>49438.8447291693</x:v>
       </x:c>
       <x:c r="R6" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>114109.561979162</x:v>
       </x:c>
       <x:c r="S6" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>59985.1306875022</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:146">
@@ -1284,10 +1284,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C7" s="11" t="n">
-        <x:v>50890.2715312485</x:v>
+        <x:v>61319.1146964275</x:v>
       </x:c>
       <x:c r="D7" s="11" t="n">
-        <x:v>5239070.64185417</x:v>
+        <x:v>5385074.44616668</x:v>
       </x:c>
       <x:c r="E7" s="11" t="s"/>
       <x:c r="F7" s="12" t="n">
@@ -1327,10 +1327,10 @@
         <x:v>71016.3946041586</x:v>
       </x:c>
       <x:c r="R7" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>93669.7896458376</x:v>
       </x:c>
       <x:c r="S7" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>52334.0146666672</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -1338,10 +1338,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="11" t="n">
-        <x:v>47741.1497931543</x:v>
+        <x:v>50377.2920803567</x:v>
       </x:c>
       <x:c r="D8" s="11" t="n">
-        <x:v>1718490.89122915</x:v>
+        <x:v>1755396.88324999</x:v>
       </x:c>
       <x:c r="E8" s="11" t="s"/>
       <x:c r="F8" s="12" t="n">
@@ -1381,10 +1381,10 @@
         <x:v>51528.8900416652</x:v>
       </x:c>
       <x:c r="R8" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>32071.7629166665</x:v>
       </x:c>
       <x:c r="S8" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4834.22910416662</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
@@ -1392,10 +1392,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="11" t="n">
-        <x:v>38251.92440625</x:v>
+        <x:v>46834.5407589286</x:v>
       </x:c>
       <x:c r="D9" s="11" t="n">
-        <x:v>1028093.97235416</x:v>
+        <x:v>1148250.60129166</x:v>
       </x:c>
       <x:c r="E9" s="11" t="s"/>
       <x:c r="F9" s="12" t="n">
@@ -1435,10 +1435,10 @@
         <x:v>67741.9970624996</x:v>
       </x:c>
       <x:c r="R9" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>71374.4294375005</x:v>
       </x:c>
       <x:c r="S9" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>48782.1995000003</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:146">
@@ -1446,10 +1446,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="11" t="n">
-        <x:v>34575.9084508926</x:v>
+        <x:v>40319.882084821</x:v>
       </x:c>
       <x:c r="D10" s="11" t="n">
-        <x:v>2173749.41429166</x:v>
+        <x:v>1721890.739375</x:v>
       </x:c>
       <x:c r="E10" s="11" t="s"/>
       <x:c r="F10" s="12" t="n">
@@ -1459,40 +1459,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="12" t="n">
-        <x:v>13161.7466666668</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I10" s="12" t="n">
-        <x:v>88447.8294583324</x:v>
+        <x:v>27959.5794166676</x:v>
       </x:c>
       <x:c r="J10" s="12" t="n">
-        <x:v>37992.4548750003</x:v>
+        <x:v>13298.5273750003</x:v>
       </x:c>
       <x:c r="K10" s="12" t="n">
-        <x:v>72245.3512916651</x:v>
+        <x:v>72647.9262499993</x:v>
       </x:c>
       <x:c r="L10" s="12" t="n">
-        <x:v>56155.6420625017</x:v>
+        <x:v>101724.243291666</x:v>
       </x:c>
       <x:c r="M10" s="12" t="n">
-        <x:v>14173.6220416666</x:v>
+        <x:v>28429.2546874993</x:v>
       </x:c>
       <x:c r="N10" s="12" t="n">
-        <x:v>42548.5633125012</x:v>
+        <x:v>59631.457145832</x:v>
       </x:c>
       <x:c r="O10" s="12" t="n">
-        <x:v>63075.3419166657</x:v>
+        <x:v>22404.8666041661</x:v>
       </x:c>
       <x:c r="P10" s="12" t="n">
-        <x:v>47330.7123749999</x:v>
+        <x:v>19006.1783333335</x:v>
       </x:c>
       <x:c r="Q10" s="12" t="n">
-        <x:v>48931.4543124973</x:v>
+        <x:v>75048.7824166669</x:v>
       </x:c>
       <x:c r="R10" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>127296.633562496</x:v>
       </x:c>
       <x:c r="S10" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>17030.9001041665</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:146">
@@ -1500,10 +1500,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C11" s="11" t="n">
-        <x:v>30316.6867053567</x:v>
+        <x:v>38847.6854241068</x:v>
       </x:c>
       <x:c r="D11" s="11" t="n">
-        <x:v>1679341.27454166</x:v>
+        <x:v>2233554.29191666</x:v>
       </x:c>
       <x:c r="E11" s="11" t="s"/>
       <x:c r="F11" s="12" t="n">
@@ -1513,40 +1513,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H11" s="12" t="n">
-        <x:v>27546.4376666667</x:v>
+        <x:v>13161.7466666668</x:v>
       </x:c>
       <x:c r="I11" s="12" t="n">
-        <x:v>72324.665208332</x:v>
+        <x:v>88447.8294583324</x:v>
       </x:c>
       <x:c r="J11" s="12" t="n">
-        <x:v>6777.31000000006</x:v>
+        <x:v>37992.4548750003</x:v>
       </x:c>
       <x:c r="K11" s="12" t="n">
-        <x:v>41109.6131250008</x:v>
+        <x:v>72245.3512916651</x:v>
       </x:c>
       <x:c r="L11" s="12" t="n">
-        <x:v>59780.6666041648</x:v>
+        <x:v>56155.6420625017</x:v>
       </x:c>
       <x:c r="M11" s="12" t="n">
-        <x:v>45731.5740624999</x:v>
+        <x:v>14173.6220416666</x:v>
       </x:c>
       <x:c r="N11" s="12" t="n">
-        <x:v>39923.7750624979</x:v>
+        <x:v>42548.5633125012</x:v>
       </x:c>
       <x:c r="O11" s="12" t="n">
-        <x:v>48125.8626041661</x:v>
+        <x:v>63075.3419166657</x:v>
       </x:c>
       <x:c r="P11" s="12" t="n">
-        <x:v>43550.4288333328</x:v>
+        <x:v>47330.7123749999</x:v>
       </x:c>
       <x:c r="Q11" s="12" t="n">
-        <x:v>39563.280708333</x:v>
+        <x:v>48931.4543124973</x:v>
       </x:c>
       <x:c r="R11" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>59162.4622916654</x:v>
       </x:c>
       <x:c r="S11" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>642.41533333296</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:146">
@@ -1554,10 +1554,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C12" s="11" t="n">
-        <x:v>30010.7725372022</x:v>
+        <x:v>35398.9740625003</x:v>
       </x:c>
       <x:c r="D12" s="11" t="n">
-        <x:v>1577563.20570833</x:v>
+        <x:v>2679817.23960417</x:v>
       </x:c>
       <x:c r="E12" s="11" t="s"/>
       <x:c r="F12" s="12" t="n">
@@ -1567,40 +1567,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>9270.08120833244</x:v>
       </x:c>
       <x:c r="I12" s="12" t="n">
-        <x:v>27959.5794166676</x:v>
+        <x:v>35575.44325</x:v>
       </x:c>
       <x:c r="J12" s="12" t="n">
-        <x:v>13298.5273750003</x:v>
+        <x:v>32328.0278958338</x:v>
       </x:c>
       <x:c r="K12" s="12" t="n">
-        <x:v>72647.9262499993</x:v>
+        <x:v>48896.1927499985</x:v>
       </x:c>
       <x:c r="L12" s="12" t="n">
-        <x:v>101724.243291666</x:v>
+        <x:v>79983.2053124993</x:v>
       </x:c>
       <x:c r="M12" s="12" t="n">
-        <x:v>28429.2546874993</x:v>
+        <x:v>10679.5040208343</x:v>
       </x:c>
       <x:c r="N12" s="12" t="n">
-        <x:v>59631.457145832</x:v>
+        <x:v>20280.8700833339</x:v>
       </x:c>
       <x:c r="O12" s="12" t="n">
-        <x:v>22404.8666041661</x:v>
+        <x:v>51943.8026041677</x:v>
       </x:c>
       <x:c r="P12" s="12" t="n">
-        <x:v>19006.1783333335</x:v>
+        <x:v>46997.4247916667</x:v>
       </x:c>
       <x:c r="Q12" s="12" t="n">
-        <x:v>75048.7824166669</x:v>
+        <x:v>54314.2102708346</x:v>
       </x:c>
       <x:c r="R12" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>84614.0060833362</x:v>
       </x:c>
       <x:c r="S12" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>20702.8686041664</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:146">
@@ -1608,10 +1608,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C13" s="11" t="n">
-        <x:v>27876.3401562501</x:v>
+        <x:v>34216.1861473209</x:v>
       </x:c>
       <x:c r="D13" s="11" t="n">
-        <x:v>2574500.36491667</x:v>
+        <x:v>1733934.26672916</x:v>
       </x:c>
       <x:c r="E13" s="11" t="s"/>
       <x:c r="F13" s="12" t="n">
@@ -1621,40 +1621,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H13" s="12" t="n">
-        <x:v>9270.08120833244</x:v>
+        <x:v>27546.4376666667</x:v>
       </x:c>
       <x:c r="I13" s="12" t="n">
-        <x:v>35575.44325</x:v>
+        <x:v>72324.665208332</x:v>
       </x:c>
       <x:c r="J13" s="12" t="n">
-        <x:v>32328.0278958338</x:v>
+        <x:v>6777.31000000006</x:v>
       </x:c>
       <x:c r="K13" s="12" t="n">
-        <x:v>48896.1927499985</x:v>
+        <x:v>41109.6131250008</x:v>
       </x:c>
       <x:c r="L13" s="12" t="n">
-        <x:v>79983.2053124993</x:v>
+        <x:v>59780.6666041648</x:v>
       </x:c>
       <x:c r="M13" s="12" t="n">
-        <x:v>10679.5040208343</x:v>
+        <x:v>45731.5740624999</x:v>
       </x:c>
       <x:c r="N13" s="12" t="n">
-        <x:v>20280.8700833339</x:v>
+        <x:v>39923.7750624979</x:v>
       </x:c>
       <x:c r="O13" s="12" t="n">
-        <x:v>51943.8026041677</x:v>
+        <x:v>48125.8626041661</x:v>
       </x:c>
       <x:c r="P13" s="12" t="n">
-        <x:v>46997.4247916667</x:v>
+        <x:v>43550.4288333328</x:v>
       </x:c>
       <x:c r="Q13" s="12" t="n">
-        <x:v>54314.2102708346</x:v>
+        <x:v>39563.280708333</x:v>
       </x:c>
       <x:c r="R13" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>50706.7102708321</x:v>
       </x:c>
       <x:c r="S13" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3886.28191666678</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:146">
@@ -1662,10 +1662,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C14" s="11" t="n">
-        <x:v>23441.0026458333</x:v>
+        <x:v>32202.7017470228</x:v>
       </x:c>
       <x:c r="D14" s="11" t="n">
-        <x:v>7809742.34127085</x:v>
+        <x:v>7932406.1286875</x:v>
       </x:c>
       <x:c r="E14" s="11" t="s"/>
       <x:c r="F14" s="12" t="n">
@@ -1705,10 +1705,10 @@
         <x:v>36373.2961666603</x:v>
       </x:c>
       <x:c r="R14" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>76329.7847083276</x:v>
       </x:c>
       <x:c r="S14" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>46334.0027083252</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:146">
@@ -1716,10 +1716,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C15" s="11" t="n">
-        <x:v>21955.7179642857</x:v>
+        <x:v>30650.4691904759</x:v>
       </x:c>
       <x:c r="D15" s="11" t="n">
-        <x:v>1181674.57335416</x:v>
+        <x:v>1303401.09052082</x:v>
       </x:c>
       <x:c r="E15" s="11" t="s"/>
       <x:c r="F15" s="12" t="n">
@@ -1759,10 +1759,10 @@
         <x:v>42661.7969374994</x:v>
       </x:c>
       <x:c r="R15" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>94114.3351041649</x:v>
       </x:c>
       <x:c r="S15" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>27612.182062499</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:146">
@@ -1770,10 +1770,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C16" s="11" t="n">
-        <x:v>20665.8734151787</x:v>
+        <x:v>26173.0686934525</x:v>
       </x:c>
       <x:c r="D16" s="11" t="n">
-        <x:v>932420.765270833</x:v>
+        <x:v>1009521.49916667</x:v>
       </x:c>
       <x:c r="E16" s="11" t="s"/>
       <x:c r="F16" s="12" t="n">
@@ -1813,10 +1813,10 @@
         <x:v>31849.4786666667</x:v>
       </x:c>
       <x:c r="R16" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>47225.9149375004</x:v>
       </x:c>
       <x:c r="S16" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>29874.8189583323</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:146">
@@ -1824,10 +1824,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C17" s="11" t="n">
-        <x:v>20297.8839404761</x:v>
+        <x:v>24340.2564181547</x:v>
       </x:c>
       <x:c r="D17" s="11" t="n">
-        <x:v>2506949.04764584</x:v>
+        <x:v>2563542.26233334</x:v>
       </x:c>
       <x:c r="E17" s="11" t="s"/>
       <x:c r="F17" s="12" t="n">
@@ -1867,10 +1867,10 @@
         <x:v>33360.9084999999</x:v>
       </x:c>
       <x:c r="R17" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>46740.6914999979</x:v>
       </x:c>
       <x:c r="S17" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>9852.52318750229</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:146">
@@ -1878,10 +1878,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C18" s="11" t="n">
-        <x:v>18764.7726592261</x:v>
+        <x:v>21105.3101874999</x:v>
       </x:c>
       <x:c r="D18" s="11" t="n">
-        <x:v>627052.672416666</x:v>
+        <x:v>659820.197812499</x:v>
       </x:c>
       <x:c r="E18" s="11" t="s"/>
       <x:c r="F18" s="12" t="n">
@@ -1921,7 +1921,7 @@
         <x:v>31426.709583333</x:v>
       </x:c>
       <x:c r="R18" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>32767.525395833</x:v>
       </x:c>
       <x:c r="S18" s="12" t="n">
         <x:v>0</x:v>
@@ -1932,10 +1932,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C19" s="11" t="n">
-        <x:v>17902.3595788691</x:v>
+        <x:v>20266.2802842263</x:v>
       </x:c>
       <x:c r="D19" s="11" t="n">
-        <x:v>1406348.05035416</x:v>
+        <x:v>1439442.94022916</x:v>
       </x:c>
       <x:c r="E19" s="11" t="s"/>
       <x:c r="F19" s="12" t="n">
@@ -1975,10 +1975,10 @@
         <x:v>14307.8614166677</x:v>
       </x:c>
       <x:c r="R19" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>16601.1952916679</x:v>
       </x:c>
       <x:c r="S19" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>16493.6945833329</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:146">
@@ -1986,10 +1986,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C20" s="11" t="n">
-        <x:v>16467.4723943451</x:v>
+        <x:v>17906.1913630952</x:v>
       </x:c>
       <x:c r="D20" s="11" t="n">
-        <x:v>1847162.05308333</x:v>
+        <x:v>2153389.87235417</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s"/>
       <x:c r="F20" s="12" t="n">
@@ -1999,40 +1999,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="12" t="n">
-        <x:v>16993.4594166658</x:v>
+        <x:v>11313.0418541669</x:v>
       </x:c>
       <x:c r="I20" s="12" t="n">
-        <x:v>33286.536916666</x:v>
+        <x:v>18098.6459374996</x:v>
       </x:c>
       <x:c r="J20" s="12" t="n">
-        <x:v>18709.6128958326</x:v>
+        <x:v>2084.16237500007</x:v>
       </x:c>
       <x:c r="K20" s="12" t="n">
-        <x:v>27958.7224583325</x:v>
+        <x:v>16661.3028333334</x:v>
       </x:c>
       <x:c r="L20" s="12" t="n">
-        <x:v>40005.3885833337</x:v>
+        <x:v>7745.82812499953</x:v>
       </x:c>
       <x:c r="M20" s="12" t="n">
-        <x:v>9660.90345833334</x:v>
+        <x:v>13667.8945625003</x:v>
       </x:c>
       <x:c r="N20" s="12" t="n">
-        <x:v>14666.9197291664</x:v>
+        <x:v>9882.7274583336</x:v>
       </x:c>
       <x:c r="O20" s="12" t="n">
-        <x:v>25971.2244583345</x:v>
+        <x:v>24887.5859166663</x:v>
       </x:c>
       <x:c r="P20" s="12" t="n">
-        <x:v>18764.6664166665</x:v>
+        <x:v>69733.2666249995</x:v>
       </x:c>
       <x:c r="Q20" s="12" t="n">
-        <x:v>24527.1791875004</x:v>
+        <x:v>47719.3392291653</x:v>
       </x:c>
       <x:c r="R20" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>10257.8752708351</x:v>
       </x:c>
       <x:c r="S20" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>18635.0088958326</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:146">
@@ -2040,10 +2040,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C21" s="11" t="n">
-        <x:v>15842.4139226189</x:v>
+        <x:v>17837.1746845237</x:v>
       </x:c>
       <x:c r="D21" s="11" t="n">
-        <x:v>2124496.9881875</x:v>
+        <x:v>1866337.88514583</x:v>
       </x:c>
       <x:c r="E21" s="11" t="s"/>
       <x:c r="F21" s="12" t="n">
@@ -2053,40 +2053,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="12" t="n">
-        <x:v>11313.0418541669</x:v>
+        <x:v>16993.4594166658</x:v>
       </x:c>
       <x:c r="I21" s="12" t="n">
-        <x:v>18098.6459374996</x:v>
+        <x:v>33286.536916666</x:v>
       </x:c>
       <x:c r="J21" s="12" t="n">
-        <x:v>2084.16237500007</x:v>
+        <x:v>18709.6128958326</x:v>
       </x:c>
       <x:c r="K21" s="12" t="n">
-        <x:v>16661.3028333334</x:v>
+        <x:v>27958.7224583325</x:v>
       </x:c>
       <x:c r="L21" s="12" t="n">
-        <x:v>7745.82812499953</x:v>
+        <x:v>40005.3885833337</x:v>
       </x:c>
       <x:c r="M21" s="12" t="n">
-        <x:v>13667.8945625003</x:v>
+        <x:v>9660.90345833334</x:v>
       </x:c>
       <x:c r="N21" s="12" t="n">
-        <x:v>9882.7274583336</x:v>
+        <x:v>14666.9197291664</x:v>
       </x:c>
       <x:c r="O21" s="12" t="n">
-        <x:v>24887.5859166663</x:v>
+        <x:v>25971.2244583345</x:v>
       </x:c>
       <x:c r="P21" s="12" t="n">
-        <x:v>69733.2666249995</x:v>
+        <x:v>18764.6664166665</x:v>
       </x:c>
       <x:c r="Q21" s="12" t="n">
-        <x:v>47719.3392291653</x:v>
+        <x:v>24527.1791875004</x:v>
       </x:c>
       <x:c r="R21" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>17944.2088125001</x:v>
       </x:c>
       <x:c r="S21" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1231.62324999995</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:146">
@@ -2094,10 +2094,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C22" s="11" t="n">
-        <x:v>12227.2811860119</x:v>
+        <x:v>14289.3798050596</x:v>
       </x:c>
       <x:c r="D22" s="11" t="n">
-        <x:v>1405439.94199999</x:v>
+        <x:v>1434309.32266666</x:v>
       </x:c>
       <x:c r="E22" s="11" t="s"/>
       <x:c r="F22" s="12" t="n">
@@ -2137,10 +2137,10 @@
         <x:v>7915.92045833333</x:v>
       </x:c>
       <x:c r="R22" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>25872.3437083347</x:v>
       </x:c>
       <x:c r="S22" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2997.03695833357</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:146">
@@ -2148,10 +2148,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C23" s="11" t="n">
-        <x:v>10148.6132872022</x:v>
+        <x:v>12298.9069107143</x:v>
       </x:c>
       <x:c r="D23" s="11" t="n">
-        <x:v>1472973.79006249</x:v>
+        <x:v>560689.969666667</x:v>
       </x:c>
       <x:c r="E23" s="11" t="s"/>
       <x:c r="F23" s="12" t="n">
@@ -2161,40 +2161,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="12" t="n">
-        <x:v>9254.45320833288</x:v>
+        <x:v>4911.43289583368</x:v>
       </x:c>
       <x:c r="I23" s="12" t="n">
-        <x:v>9795.38499999908</x:v>
+        <x:v>21275.4090833332</x:v>
       </x:c>
       <x:c r="J23" s="12" t="n">
-        <x:v>11025.2707499999</x:v>
+        <x:v>5683.33354166656</x:v>
       </x:c>
       <x:c r="K23" s="12" t="n">
-        <x:v>12384.6560625001</x:v>
+        <x:v>13890.0002708333</x:v>
       </x:c>
       <x:c r="L23" s="12" t="n">
-        <x:v>7495.40020833351</x:v>
+        <x:v>18254.1820625</x:v>
       </x:c>
       <x:c r="M23" s="12" t="n">
-        <x:v>4512.93018749985</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N23" s="12" t="n">
-        <x:v>18911.1298958333</x:v>
+        <x:v>12711.9329583334</x:v>
       </x:c>
       <x:c r="O23" s="12" t="n">
-        <x:v>37136.8363958327</x:v>
+        <x:v>30072.9061666667</x:v>
       </x:c>
       <x:c r="P23" s="12" t="n">
-        <x:v>21324.2036458326</x:v>
+        <x:v>18715.5796041667</x:v>
       </x:c>
       <x:c r="Q23" s="12" t="n">
-        <x:v>10240.3206666668</x:v>
+        <x:v>12867.8741666665</x:v>
       </x:c>
       <x:c r="R23" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>23694.8718333333</x:v>
       </x:c>
       <x:c r="S23" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>10107.1741666667</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:146">
@@ -2202,10 +2202,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C24" s="11" t="n">
-        <x:v>9884.47505357143</x:v>
+        <x:v>11254.5128199403</x:v>
       </x:c>
       <x:c r="D24" s="11" t="n">
-        <x:v>526887.923666667</x:v>
+        <x:v>1488456.38352083</x:v>
       </x:c>
       <x:c r="E24" s="11" t="s"/>
       <x:c r="F24" s="12" t="n">
@@ -2215,40 +2215,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="12" t="n">
-        <x:v>4911.43289583368</x:v>
+        <x:v>9254.45320833288</x:v>
       </x:c>
       <x:c r="I24" s="12" t="n">
-        <x:v>21275.4090833332</x:v>
+        <x:v>9795.38499999908</x:v>
       </x:c>
       <x:c r="J24" s="12" t="n">
-        <x:v>5683.33354166656</x:v>
+        <x:v>11025.2707499999</x:v>
       </x:c>
       <x:c r="K24" s="12" t="n">
-        <x:v>13890.0002708333</x:v>
+        <x:v>12384.6560625001</x:v>
       </x:c>
       <x:c r="L24" s="12" t="n">
-        <x:v>18254.1820625</x:v>
+        <x:v>7495.40020833351</x:v>
       </x:c>
       <x:c r="M24" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4512.93018749985</x:v>
       </x:c>
       <x:c r="N24" s="12" t="n">
-        <x:v>12711.9329583334</x:v>
+        <x:v>18911.1298958333</x:v>
       </x:c>
       <x:c r="O24" s="12" t="n">
-        <x:v>30072.9061666667</x:v>
+        <x:v>37136.8363958327</x:v>
       </x:c>
       <x:c r="P24" s="12" t="n">
-        <x:v>18715.5796041667</x:v>
+        <x:v>21324.2036458326</x:v>
       </x:c>
       <x:c r="Q24" s="12" t="n">
-        <x:v>12867.8741666665</x:v>
+        <x:v>10240.3206666668</x:v>
       </x:c>
       <x:c r="R24" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>14469.1669583339</x:v>
       </x:c>
       <x:c r="S24" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1013.42650000006</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:146">
@@ -2256,10 +2256,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C25" s="11" t="n">
-        <x:v>9499.65517708347</x:v>
+        <x:v>11007.4405297618</x:v>
       </x:c>
       <x:c r="D25" s="11" t="n">
-        <x:v>1470239.4635</x:v>
+        <x:v>3646317.79802081</x:v>
       </x:c>
       <x:c r="E25" s="11" t="s"/>
       <x:c r="F25" s="12" t="n">
@@ -2269,40 +2269,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="12" t="n">
-        <x:v>732.299958333373</x:v>
+        <x:v>8672.28545833426</x:v>
       </x:c>
       <x:c r="I25" s="12" t="n">
-        <x:v>29702.8584166677</x:v>
+        <x:v>10483.215458334</x:v>
       </x:c>
       <x:c r="J25" s="12" t="n">
-        <x:v>13841.3792083333</x:v>
+        <x:v>4336.61758333305</x:v>
       </x:c>
       <x:c r="K25" s="12" t="n">
-        <x:v>19664.8180833333</x:v>
+        <x:v>14787.6834791652</x:v>
       </x:c>
       <x:c r="L25" s="12" t="n">
-        <x:v>26146.9872083343</x:v>
+        <x:v>13304.514208334</x:v>
       </x:c>
       <x:c r="M25" s="12" t="n">
-        <x:v>11308.5185833329</x:v>
+        <x:v>15349.9919791678</x:v>
       </x:c>
       <x:c r="N25" s="12" t="n">
-        <x:v>11182.9201458332</x:v>
+        <x:v>14491.4098541657</x:v>
       </x:c>
       <x:c r="O25" s="12" t="n">
-        <x:v>5290.98133333353</x:v>
+        <x:v>10845.1532916664</x:v>
       </x:c>
       <x:c r="P25" s="12" t="n">
-        <x:v>7589.39293750026</x:v>
+        <x:v>12751.3860000013</x:v>
       </x:c>
       <x:c r="Q25" s="12" t="n">
-        <x:v>7535.01660416671</x:v>
+        <x:v>15080.5675833295</x:v>
       </x:c>
       <x:c r="R25" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>20281.0407708343</x:v>
       </x:c>
       <x:c r="S25" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>13720.3017499992</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:146">
@@ -2310,10 +2310,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C26" s="11" t="n">
-        <x:v>9360.13529464265</x:v>
+        <x:v>10664.9478764881</x:v>
       </x:c>
       <x:c r="D26" s="11" t="n">
-        <x:v>1262709.36572916</x:v>
+        <x:v>528991.020208333</x:v>
       </x:c>
       <x:c r="E26" s="11" t="s"/>
       <x:c r="F26" s="12" t="n">
@@ -2323,40 +2323,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="12" t="n">
-        <x:v>4342.0658124995</x:v>
+        <x:v>14305.5609374998</x:v>
       </x:c>
       <x:c r="I26" s="12" t="n">
-        <x:v>40314.0469791659</x:v>
+        <x:v>16864.9268125002</x:v>
       </x:c>
       <x:c r="J26" s="12" t="n">
-        <x:v>14320.2808541665</x:v>
+        <x:v>11563.1854583333</x:v>
       </x:c>
       <x:c r="K26" s="12" t="n">
-        <x:v>14650.075916667</x:v>
+        <x:v>13946.2456041666</x:v>
       </x:c>
       <x:c r="L26" s="12" t="n">
-        <x:v>31972.2535416665</x:v>
+        <x:v>565.915166666615</x:v>
       </x:c>
       <x:c r="M26" s="12" t="n">
-        <x:v>8302.63183333306</x:v>
+        <x:v>11329.1681666668</x:v>
       </x:c>
       <x:c r="N26" s="12" t="n">
-        <x:v>4199.26337499986</x:v>
+        <x:v>5747.11993749999</x:v>
       </x:c>
       <x:c r="O26" s="12" t="n">
-        <x:v>3378.1384166663</x:v>
+        <x:v>11625.3698125001</x:v>
       </x:c>
       <x:c r="P26" s="12" t="n">
-        <x:v>2436.37504166621</x:v>
+        <x:v>14472.4513750001</x:v>
       </x:c>
       <x:c r="Q26" s="12" t="n">
-        <x:v>7126.76235416625</x:v>
+        <x:v>14717.417</x:v>
       </x:c>
       <x:c r="R26" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>18424.9274375002</x:v>
       </x:c>
       <x:c r="S26" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>15746.9825625002</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:146">
@@ -2364,10 +2364,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C27" s="11" t="n">
-        <x:v>8890.97268005948</x:v>
+        <x:v>10406.9948348213</x:v>
       </x:c>
       <x:c r="D27" s="11" t="n">
-        <x:v>1224103.52314583</x:v>
+        <x:v>1245327.83331249</x:v>
       </x:c>
       <x:c r="E27" s="11" t="s"/>
       <x:c r="F27" s="12" t="n">
@@ -2407,10 +2407,10 @@
         <x:v>20400.5566250002</x:v>
       </x:c>
       <x:c r="R27" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7314.81514583295</x:v>
       </x:c>
       <x:c r="S27" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>13909.4950208331</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:146">
@@ -2418,10 +2418,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C28" s="11" t="n">
-        <x:v>8578.77320684508</x:v>
+        <x:v>10275.812514881</x:v>
       </x:c>
       <x:c r="D28" s="11" t="n">
-        <x:v>3612316.45549997</x:v>
+        <x:v>1481105.66622917</x:v>
       </x:c>
       <x:c r="E28" s="11" t="s"/>
       <x:c r="F28" s="12" t="n">
@@ -2431,40 +2431,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="12" t="n">
-        <x:v>8672.28545833426</x:v>
+        <x:v>732.299958333373</x:v>
       </x:c>
       <x:c r="I28" s="12" t="n">
-        <x:v>10483.215458334</x:v>
+        <x:v>29702.8584166677</x:v>
       </x:c>
       <x:c r="J28" s="12" t="n">
-        <x:v>4336.61758333305</x:v>
+        <x:v>13841.3792083333</x:v>
       </x:c>
       <x:c r="K28" s="12" t="n">
-        <x:v>14787.6834791652</x:v>
+        <x:v>19664.8180833333</x:v>
       </x:c>
       <x:c r="L28" s="12" t="n">
-        <x:v>13304.514208334</x:v>
+        <x:v>26146.9872083343</x:v>
       </x:c>
       <x:c r="M28" s="12" t="n">
-        <x:v>15349.9919791678</x:v>
+        <x:v>11308.5185833329</x:v>
       </x:c>
       <x:c r="N28" s="12" t="n">
-        <x:v>14491.4098541657</x:v>
+        <x:v>11182.9201458332</x:v>
       </x:c>
       <x:c r="O28" s="12" t="n">
-        <x:v>10845.1532916664</x:v>
+        <x:v>5290.98133333353</x:v>
       </x:c>
       <x:c r="P28" s="12" t="n">
-        <x:v>12751.3860000013</x:v>
+        <x:v>7589.39293750026</x:v>
       </x:c>
       <x:c r="Q28" s="12" t="n">
-        <x:v>15080.5675833295</x:v>
+        <x:v>7535.01660416671</x:v>
       </x:c>
       <x:c r="R28" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>10851.2200624992</x:v>
       </x:c>
       <x:c r="S28" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>14.9826666666195</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:146">
@@ -2472,10 +2472,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C29" s="11" t="n">
-        <x:v>8513.56661458331</x:v>
+        <x:v>10054.5716681547</x:v>
       </x:c>
       <x:c r="D29" s="11" t="n">
-        <x:v>479458.469937499</x:v>
+        <x:v>501032.540687498</x:v>
       </x:c>
       <x:c r="E29" s="11" t="s"/>
       <x:c r="F29" s="12" t="n">
@@ -2515,10 +2515,10 @@
         <x:v>16067.6930833333</x:v>
       </x:c>
       <x:c r="R29" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>21368.3802083333</x:v>
       </x:c>
       <x:c r="S29" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>205.690541666641</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:146">
@@ -2526,10 +2526,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C30" s="11" t="n">
-        <x:v>8371.97648958328</x:v>
+        <x:v>9529.95891517835</x:v>
       </x:c>
       <x:c r="D30" s="11" t="n">
-        <x:v>501615.273791665</x:v>
+        <x:v>1265086.89641666</x:v>
       </x:c>
       <x:c r="E30" s="11" t="s"/>
       <x:c r="F30" s="12" t="n">
@@ -2539,37 +2539,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H30" s="12" t="n">
-        <x:v>1549.00258333329</x:v>
+        <x:v>4342.0658124995</x:v>
       </x:c>
       <x:c r="I30" s="12" t="n">
-        <x:v>6989.41874999984</x:v>
+        <x:v>40314.0469791659</x:v>
       </x:c>
       <x:c r="J30" s="12" t="n">
-        <x:v>1683.69195833331</x:v>
+        <x:v>14320.2808541665</x:v>
       </x:c>
       <x:c r="K30" s="12" t="n">
-        <x:v>4760.4725833332</x:v>
+        <x:v>14650.075916667</x:v>
       </x:c>
       <x:c r="L30" s="12" t="n">
-        <x:v>39459.8252083331</x:v>
+        <x:v>31972.2535416665</x:v>
       </x:c>
       <x:c r="M30" s="12" t="n">
-        <x:v>6862.41689583327</x:v>
+        <x:v>8302.63183333306</x:v>
       </x:c>
       <x:c r="N30" s="12" t="n">
-        <x:v>27451.9777291666</x:v>
+        <x:v>4199.26337499986</x:v>
       </x:c>
       <x:c r="O30" s="12" t="n">
-        <x:v>17437.9522083332</x:v>
+        <x:v>3378.1384166663</x:v>
       </x:c>
       <x:c r="P30" s="12" t="n">
-        <x:v>8257.19031250005</x:v>
+        <x:v>2436.37504166621</x:v>
       </x:c>
       <x:c r="Q30" s="12" t="n">
-        <x:v>2755.72262500005</x:v>
+        <x:v>7126.76235416625</x:v>
       </x:c>
       <x:c r="R30" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2377.53068749979</x:v>
       </x:c>
       <x:c r="S30" s="12" t="n">
         <x:v>0</x:v>
@@ -2580,10 +2580,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C31" s="11" t="n">
-        <x:v>8228.88455357154</x:v>
+        <x:v>9442.3648377975</x:v>
       </x:c>
       <x:c r="D31" s="11" t="n">
-        <x:v>1714182.6120625</x:v>
+        <x:v>803470.850833331</x:v>
       </x:c>
       <x:c r="E31" s="11" t="s"/>
       <x:c r="F31" s="12" t="n">
@@ -2593,40 +2593,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H31" s="12" t="n">
-        <x:v>9732.46597916656</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I31" s="12" t="n">
-        <x:v>22204.7203750005</x:v>
+        <x:v>2847.51785416657</x:v>
       </x:c>
       <x:c r="J31" s="12" t="n">
-        <x:v>3577.32870833366</x:v>
+        <x:v>7828.14545833331</x:v>
       </x:c>
       <x:c r="K31" s="12" t="n">
-        <x:v>6525.34758333303</x:v>
+        <x:v>20274.589979166</x:v>
       </x:c>
       <x:c r="L31" s="12" t="n">
-        <x:v>26917.5850625013</x:v>
+        <x:v>4810.8227499997</x:v>
       </x:c>
       <x:c r="M31" s="12" t="n">
-        <x:v>15370.4033125001</x:v>
+        <x:v>4192.08239583333</x:v>
       </x:c>
       <x:c r="N31" s="12" t="n">
-        <x:v>15563.5558958338</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O31" s="12" t="n">
-        <x:v>1315.56162499986</x:v>
+        <x:v>15648.9509583332</x:v>
       </x:c>
       <x:c r="P31" s="12" t="n">
-        <x:v>12192.7743749996</x:v>
+        <x:v>7773.06637500017</x:v>
       </x:c>
       <x:c r="Q31" s="12" t="n">
-        <x:v>1804.64083333313</x:v>
+        <x:v>24225.4505833329</x:v>
       </x:c>
       <x:c r="R31" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>38184.9171041668</x:v>
       </x:c>
       <x:c r="S31" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6407.56427083304</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:146">
@@ -2634,10 +2634,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C32" s="11" t="n">
-        <x:v>8224.09716220239</x:v>
+        <x:v>8914.21832142863</x:v>
       </x:c>
       <x:c r="D32" s="11" t="n">
-        <x:v>494819.110208333</x:v>
+        <x:v>1723777.28481249</x:v>
       </x:c>
       <x:c r="E32" s="11" t="s"/>
       <x:c r="F32" s="12" t="n">
@@ -2647,37 +2647,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H32" s="12" t="n">
-        <x:v>14305.5609374998</x:v>
+        <x:v>9732.46597916656</x:v>
       </x:c>
       <x:c r="I32" s="12" t="n">
-        <x:v>16864.9268125002</x:v>
+        <x:v>22204.7203750005</x:v>
       </x:c>
       <x:c r="J32" s="12" t="n">
-        <x:v>11563.1854583333</x:v>
+        <x:v>3577.32870833366</x:v>
       </x:c>
       <x:c r="K32" s="12" t="n">
-        <x:v>13946.2456041666</x:v>
+        <x:v>6525.34758333303</x:v>
       </x:c>
       <x:c r="L32" s="12" t="n">
-        <x:v>565.915166666615</x:v>
+        <x:v>26917.5850625013</x:v>
       </x:c>
       <x:c r="M32" s="12" t="n">
-        <x:v>11329.1681666668</x:v>
+        <x:v>15370.4033125001</x:v>
       </x:c>
       <x:c r="N32" s="12" t="n">
-        <x:v>5747.11993749999</x:v>
+        <x:v>15563.5558958338</x:v>
       </x:c>
       <x:c r="O32" s="12" t="n">
-        <x:v>11625.3698125001</x:v>
+        <x:v>1315.56162499986</x:v>
       </x:c>
       <x:c r="P32" s="12" t="n">
-        <x:v>14472.4513750001</x:v>
+        <x:v>12192.7743749996</x:v>
       </x:c>
       <x:c r="Q32" s="12" t="n">
-        <x:v>14717.417</x:v>
+        <x:v>1804.64083333313</x:v>
       </x:c>
       <x:c r="R32" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>9594.67274999921</x:v>
       </x:c>
       <x:c r="S32" s="12" t="n">
         <x:v>0</x:v>
@@ -2688,10 +2688,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C33" s="11" t="n">
-        <x:v>7922.76304315458</x:v>
+        <x:v>8891.41601636901</x:v>
       </x:c>
       <x:c r="D33" s="11" t="n">
-        <x:v>1536725.07452083</x:v>
+        <x:v>508887.427166666</x:v>
       </x:c>
       <x:c r="E33" s="11" t="s"/>
       <x:c r="F33" s="12" t="n">
@@ -2701,40 +2701,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H33" s="12" t="n">
-        <x:v>819.423041666392</x:v>
+        <x:v>1549.00258333329</x:v>
       </x:c>
       <x:c r="I33" s="12" t="n">
-        <x:v>13915.513666667</x:v>
+        <x:v>6989.41874999984</x:v>
       </x:c>
       <x:c r="J33" s="12" t="n">
-        <x:v>2855.97120833304</x:v>
+        <x:v>1683.69195833331</x:v>
       </x:c>
       <x:c r="K33" s="12" t="n">
-        <x:v>13389.5320000004</x:v>
+        <x:v>4760.4725833332</x:v>
       </x:c>
       <x:c r="L33" s="12" t="n">
-        <x:v>30098.016083332</x:v>
+        <x:v>39459.8252083331</x:v>
       </x:c>
       <x:c r="M33" s="12" t="n">
-        <x:v>16306.2189583334</x:v>
+        <x:v>6862.41689583327</x:v>
       </x:c>
       <x:c r="N33" s="12" t="n">
-        <x:v>12096.111041666</x:v>
+        <x:v>27451.9777291666</x:v>
       </x:c>
       <x:c r="O33" s="12" t="n">
-        <x:v>4774.58870833274</x:v>
+        <x:v>17437.9522083332</x:v>
       </x:c>
       <x:c r="P33" s="12" t="n">
-        <x:v>7431.50135416584</x:v>
+        <x:v>8257.19031250005</x:v>
       </x:c>
       <x:c r="Q33" s="12" t="n">
-        <x:v>9231.80654166732</x:v>
+        <x:v>2755.72262500005</x:v>
       </x:c>
       <x:c r="R33" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5430.17966666678</x:v>
       </x:c>
       <x:c r="S33" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1841.97370833339</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:146">
@@ -2742,10 +2742,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C34" s="11" t="n">
-        <x:v>7585.32591964282</x:v>
+        <x:v>8561.03823363083</x:v>
       </x:c>
       <x:c r="D34" s="11" t="n">
-        <x:v>559246.451104165</x:v>
+        <x:v>1545660.92718749</x:v>
       </x:c>
       <x:c r="E34" s="11" t="s"/>
       <x:c r="F34" s="12" t="n">
@@ -2755,40 +2755,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="12" t="n">
-        <x:v>8821.18995833339</x:v>
+        <x:v>819.423041666392</x:v>
       </x:c>
       <x:c r="I34" s="12" t="n">
-        <x:v>19912.4649791667</x:v>
+        <x:v>13915.513666667</x:v>
       </x:c>
       <x:c r="J34" s="12" t="n">
-        <x:v>12462.2353541667</x:v>
+        <x:v>2855.97120833304</x:v>
       </x:c>
       <x:c r="K34" s="12" t="n">
-        <x:v>17098.7373541667</x:v>
+        <x:v>13389.5320000004</x:v>
       </x:c>
       <x:c r="L34" s="12" t="n">
-        <x:v>15730.9890208332</x:v>
+        <x:v>30098.016083332</x:v>
       </x:c>
       <x:c r="M34" s="12" t="n">
-        <x:v>4361.54710416635</x:v>
+        <x:v>16306.2189583334</x:v>
       </x:c>
       <x:c r="N34" s="12" t="n">
-        <x:v>12580.002</x:v>
+        <x:v>12096.111041666</x:v>
       </x:c>
       <x:c r="O34" s="12" t="n">
-        <x:v>3857.58033333335</x:v>
+        <x:v>4774.58870833274</x:v>
       </x:c>
       <x:c r="P34" s="12" t="n">
-        <x:v>3746.72308333335</x:v>
+        <x:v>7431.50135416584</x:v>
       </x:c>
       <x:c r="Q34" s="12" t="n">
-        <x:v>7623.09368749976</x:v>
+        <x:v>9231.80654166732</x:v>
       </x:c>
       <x:c r="R34" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8094.94575000065</x:v>
       </x:c>
       <x:c r="S34" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>840.906916666776</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:146">
@@ -2796,10 +2796,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C35" s="11" t="n">
-        <x:v>7276.617813988</x:v>
+        <x:v>7921.04721428567</x:v>
       </x:c>
       <x:c r="D35" s="11" t="n">
-        <x:v>1461302.12806249</x:v>
+        <x:v>563946.549229165</x:v>
       </x:c>
       <x:c r="E35" s="11" t="s"/>
       <x:c r="F35" s="12" t="n">
@@ -2809,40 +2809,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H35" s="12" t="n">
-        <x:v>394.713791666785</x:v>
+        <x:v>8821.18995833339</x:v>
       </x:c>
       <x:c r="I35" s="12" t="n">
-        <x:v>19348.1846666671</x:v>
+        <x:v>19912.4649791667</x:v>
       </x:c>
       <x:c r="J35" s="12" t="n">
-        <x:v>487.310000000056</x:v>
+        <x:v>12462.2353541667</x:v>
       </x:c>
       <x:c r="K35" s="12" t="n">
-        <x:v>8270.98072916619</x:v>
+        <x:v>17098.7373541667</x:v>
       </x:c>
       <x:c r="L35" s="12" t="n">
-        <x:v>16071.0310416662</x:v>
+        <x:v>15730.9890208332</x:v>
       </x:c>
       <x:c r="M35" s="12" t="n">
-        <x:v>18442.6275208336</x:v>
+        <x:v>4361.54710416635</x:v>
       </x:c>
       <x:c r="N35" s="12" t="n">
-        <x:v>8553.54974999977</x:v>
+        <x:v>12580.002</x:v>
       </x:c>
       <x:c r="O35" s="12" t="n">
-        <x:v>1184.04616666632</x:v>
+        <x:v>3857.58033333335</x:v>
       </x:c>
       <x:c r="P35" s="12" t="n">
-        <x:v>10576.9007916662</x:v>
+        <x:v>3746.72308333335</x:v>
       </x:c>
       <x:c r="Q35" s="12" t="n">
-        <x:v>18543.3049374998</x:v>
+        <x:v>7623.09368749976</x:v>
       </x:c>
       <x:c r="R35" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>829.620166666573</x:v>
       </x:c>
       <x:c r="S35" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3870.47795833333</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:146">
@@ -2850,10 +2850,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C36" s="11" t="n">
-        <x:v>6257.18759672608</x:v>
+        <x:v>7897.89215773796</x:v>
       </x:c>
       <x:c r="D36" s="11" t="n">
-        <x:v>758878.369458331</x:v>
+        <x:v>1469999.96887499</x:v>
       </x:c>
       <x:c r="E36" s="11" t="s"/>
       <x:c r="F36" s="12" t="n">
@@ -2863,40 +2863,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>394.713791666785</x:v>
       </x:c>
       <x:c r="I36" s="12" t="n">
-        <x:v>2847.51785416657</x:v>
+        <x:v>19348.1846666671</x:v>
       </x:c>
       <x:c r="J36" s="12" t="n">
-        <x:v>7828.14545833331</x:v>
+        <x:v>487.310000000056</x:v>
       </x:c>
       <x:c r="K36" s="12" t="n">
-        <x:v>20274.589979166</x:v>
+        <x:v>8270.98072916619</x:v>
       </x:c>
       <x:c r="L36" s="12" t="n">
-        <x:v>4810.8227499997</x:v>
+        <x:v>16071.0310416662</x:v>
       </x:c>
       <x:c r="M36" s="12" t="n">
-        <x:v>4192.08239583333</x:v>
+        <x:v>18442.6275208336</x:v>
       </x:c>
       <x:c r="N36" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8553.54974999977</x:v>
       </x:c>
       <x:c r="O36" s="12" t="n">
-        <x:v>15648.9509583332</x:v>
+        <x:v>1184.04616666632</x:v>
       </x:c>
       <x:c r="P36" s="12" t="n">
-        <x:v>7773.06637500017</x:v>
+        <x:v>10576.9007916662</x:v>
       </x:c>
       <x:c r="Q36" s="12" t="n">
-        <x:v>24225.4505833329</x:v>
+        <x:v>18543.3049374998</x:v>
       </x:c>
       <x:c r="R36" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7812.0390624993</x:v>
       </x:c>
       <x:c r="S36" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>885.801750000101</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:146">
@@ -2904,10 +2904,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C37" s="11" t="n">
-        <x:v>6080.47912053576</x:v>
+        <x:v>6556.67004017857</x:v>
       </x:c>
       <x:c r="D37" s="11" t="n">
-        <x:v>844912.963708331</x:v>
+        <x:v>513915.549374998</x:v>
       </x:c>
       <x:c r="E37" s="11" t="s"/>
       <x:c r="F37" s="12" t="n">
@@ -2917,40 +2917,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="12" t="n">
-        <x:v>4784.17806250008</x:v>
+        <x:v>7.47766666667303</x:v>
       </x:c>
       <x:c r="I37" s="12" t="n">
-        <x:v>62403.7733125009</x:v>
+        <x:v>1358.76712499995</x:v>
       </x:c>
       <x:c r="J37" s="12" t="n">
-        <x:v>17938.7563124996</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K37" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>15923.0426666667</x:v>
       </x:c>
       <x:c r="L37" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>13680.1365208333</x:v>
       </x:c>
       <x:c r="M37" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8017.09866666648</x:v>
       </x:c>
       <x:c r="N37" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>12185.818875</x:v>
       </x:c>
       <x:c r="O37" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5570.92393750011</x:v>
       </x:c>
       <x:c r="P37" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>15493.4363541666</x:v>
       </x:c>
       <x:c r="Q37" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8665.13524999999</x:v>
       </x:c>
       <x:c r="R37" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6642.97495833348</x:v>
       </x:c>
       <x:c r="S37" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4248.56854166667</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:146">
@@ -2958,10 +2958,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C38" s="11" t="n">
-        <x:v>5778.70264732142</x:v>
+        <x:v>6145.68923363089</x:v>
       </x:c>
       <x:c r="D38" s="11" t="n">
-        <x:v>503024.005874998</x:v>
+        <x:v>814985.07877083</x:v>
       </x:c>
       <x:c r="E38" s="11" t="s"/>
       <x:c r="F38" s="12" t="n">
@@ -2971,40 +2971,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="12" t="n">
-        <x:v>7.47766666667303</x:v>
+        <x:v>861.30154166685</x:v>
       </x:c>
       <x:c r="I38" s="12" t="n">
-        <x:v>1358.76712499995</x:v>
+        <x:v>8106.69512500009</x:v>
       </x:c>
       <x:c r="J38" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2005.63699999987</x:v>
       </x:c>
       <x:c r="K38" s="12" t="n">
-        <x:v>15923.0426666667</x:v>
+        <x:v>2999.63802083302</x:v>
       </x:c>
       <x:c r="L38" s="12" t="n">
-        <x:v>13680.1365208333</x:v>
+        <x:v>3670.13474999985</x:v>
       </x:c>
       <x:c r="M38" s="12" t="n">
-        <x:v>8017.09866666648</x:v>
+        <x:v>2573.72229166655</x:v>
       </x:c>
       <x:c r="N38" s="12" t="n">
-        <x:v>12185.818875</x:v>
+        <x:v>748.884583333391</x:v>
       </x:c>
       <x:c r="O38" s="12" t="n">
-        <x:v>5570.92393750011</x:v>
+        <x:v>3155.64316666662</x:v>
       </x:c>
       <x:c r="P38" s="12" t="n">
-        <x:v>15493.4363541666</x:v>
+        <x:v>11900.8887291662</x:v>
       </x:c>
       <x:c r="Q38" s="12" t="n">
-        <x:v>8665.13524999999</x:v>
+        <x:v>22916.5249166668</x:v>
       </x:c>
       <x:c r="R38" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>24556.1797916667</x:v>
       </x:c>
       <x:c r="S38" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2544.39935416658</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:146">
@@ -3012,10 +3012,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C39" s="11" t="n">
-        <x:v>4493.80169345237</x:v>
+        <x:v>6080.47912053576</x:v>
       </x:c>
       <x:c r="D39" s="11" t="n">
-        <x:v>548847.345145832</x:v>
+        <x:v>844912.963708331</x:v>
       </x:c>
       <x:c r="E39" s="11" t="s"/>
       <x:c r="F39" s="12" t="n">
@@ -3025,34 +3025,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H39" s="12" t="n">
-        <x:v>2126.95166666666</x:v>
+        <x:v>4784.17806250008</x:v>
       </x:c>
       <x:c r="I39" s="12" t="n">
-        <x:v>4780.60041666665</x:v>
+        <x:v>62403.7733125009</x:v>
       </x:c>
       <x:c r="J39" s="12" t="n">
-        <x:v>2620.9915</x:v>
+        <x:v>17938.7563124996</x:v>
       </x:c>
       <x:c r="K39" s="12" t="n">
-        <x:v>3681.08475000004</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L39" s="12" t="n">
-        <x:v>11261.0748541667</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M39" s="12" t="n">
-        <x:v>7411.16135416669</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N39" s="12" t="n">
-        <x:v>2721.84052083333</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O39" s="12" t="n">
-        <x:v>19978.9982916662</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P39" s="12" t="n">
-        <x:v>2782.64179166674</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q39" s="12" t="n">
-        <x:v>5547.87856250023</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R39" s="12" t="n">
         <x:v>0</x:v>
@@ -3066,10 +3066,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C40" s="11" t="n">
-        <x:v>4340.75649851181</x:v>
+        <x:v>5201.53858035713</x:v>
       </x:c>
       <x:c r="D40" s="11" t="n">
-        <x:v>6189570.58768744</x:v>
+        <x:v>558755.661562498</x:v>
       </x:c>
       <x:c r="E40" s="11" t="s"/>
       <x:c r="F40" s="12" t="n">
@@ -3079,40 +3079,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="12" t="n">
-        <x:v>15312.1585208327</x:v>
+        <x:v>2126.95166666666</x:v>
       </x:c>
       <x:c r="I40" s="12" t="n">
-        <x:v>45458.4324583327</x:v>
+        <x:v>4780.60041666665</x:v>
       </x:c>
       <x:c r="J40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2620.9915</x:v>
       </x:c>
       <x:c r="K40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3681.08475000004</x:v>
       </x:c>
       <x:c r="L40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>11261.0748541667</x:v>
       </x:c>
       <x:c r="M40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7411.16135416669</x:v>
       </x:c>
       <x:c r="N40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2721.84052083333</x:v>
       </x:c>
       <x:c r="O40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>19978.9982916662</x:v>
       </x:c>
       <x:c r="P40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2782.64179166674</x:v>
       </x:c>
       <x:c r="Q40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5547.87856250023</x:v>
       </x:c>
       <x:c r="R40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8712.25245833327</x:v>
       </x:c>
       <x:c r="S40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1196.06395833334</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:146">
@@ -3120,10 +3120,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C41" s="11" t="n">
-        <x:v>4209.93358035709</x:v>
+        <x:v>4821.92648660711</x:v>
       </x:c>
       <x:c r="D41" s="11" t="n">
-        <x:v>787884.499624997</x:v>
+        <x:v>905137.14447916</x:v>
       </x:c>
       <x:c r="E41" s="11" t="s"/>
       <x:c r="F41" s="12" t="n">
@@ -3133,40 +3133,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="12" t="n">
-        <x:v>861.30154166685</x:v>
+        <x:v>4217.42033333331</x:v>
       </x:c>
       <x:c r="I41" s="12" t="n">
-        <x:v>8106.69512500009</x:v>
+        <x:v>9760.5664583334</x:v>
       </x:c>
       <x:c r="J41" s="12" t="n">
-        <x:v>2005.63699999987</x:v>
+        <x:v>1939.350125</x:v>
       </x:c>
       <x:c r="K41" s="12" t="n">
-        <x:v>2999.63802083302</x:v>
+        <x:v>3908.71129166649</x:v>
       </x:c>
       <x:c r="L41" s="12" t="n">
-        <x:v>3670.13474999985</x:v>
+        <x:v>3521.75531249982</x:v>
       </x:c>
       <x:c r="M41" s="12" t="n">
-        <x:v>2573.72229166655</x:v>
+        <x:v>5742.9271458335</x:v>
       </x:c>
       <x:c r="N41" s="12" t="n">
-        <x:v>748.884583333391</x:v>
+        <x:v>4616.2686458336</x:v>
       </x:c>
       <x:c r="O41" s="12" t="n">
-        <x:v>3155.64316666662</x:v>
+        <x:v>6466.98818750016</x:v>
       </x:c>
       <x:c r="P41" s="12" t="n">
-        <x:v>11900.8887291662</x:v>
+        <x:v>10872.2043541666</x:v>
       </x:c>
       <x:c r="Q41" s="12" t="n">
-        <x:v>22916.5249166668</x:v>
+        <x:v>3785.21712499973</x:v>
       </x:c>
       <x:c r="R41" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8851.92035416642</x:v>
       </x:c>
       <x:c r="S41" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3823.64147916657</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:146">
@@ -3174,10 +3174,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C42" s="11" t="n">
-        <x:v>4148.08860267859</x:v>
+        <x:v>4778.39543898805</x:v>
       </x:c>
       <x:c r="D42" s="11" t="n">
-        <x:v>425018.451854165</x:v>
+        <x:v>536259.229874997</x:v>
       </x:c>
       <x:c r="E42" s="11" t="s"/>
       <x:c r="F42" s="12" t="n">
@@ -3187,40 +3187,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1474.48800000001</x:v>
       </x:c>
       <x:c r="I42" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6813.03729166661</x:v>
       </x:c>
       <x:c r="J42" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6223.26808333333</x:v>
       </x:c>
       <x:c r="K42" s="12" t="n">
-        <x:v>1758.55950000009</x:v>
+        <x:v>5170.74208333326</x:v>
       </x:c>
       <x:c r="L42" s="12" t="n">
-        <x:v>30269.9976666665</x:v>
+        <x:v>18346.7848958333</x:v>
       </x:c>
       <x:c r="M42" s="12" t="n">
-        <x:v>2853.37645833328</x:v>
+        <x:v>4483.2643333333</x:v>
       </x:c>
       <x:c r="N42" s="12" t="n">
-        <x:v>9745.63645833347</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O42" s="12" t="n">
-        <x:v>4024.61216666701</x:v>
+        <x:v>3884.5521666666</x:v>
       </x:c>
       <x:c r="P42" s="12" t="n">
-        <x:v>8729.21985416661</x:v>
+        <x:v>3006.8094583333</x:v>
       </x:c>
       <x:c r="Q42" s="12" t="n">
-        <x:v>691.838333333319</x:v>
+        <x:v>2295.64174999995</x:v>
       </x:c>
       <x:c r="R42" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>12332.9350833331</x:v>
       </x:c>
       <x:c r="S42" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2866.01299999992</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:146">
@@ -3228,10 +3228,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="C43" s="11" t="n">
-        <x:v>3916.52921279761</x:v>
+        <x:v>4340.75649851181</x:v>
       </x:c>
       <x:c r="D43" s="11" t="n">
-        <x:v>892461.582645827</x:v>
+        <x:v>6189570.58768744</x:v>
       </x:c>
       <x:c r="E43" s="11" t="s"/>
       <x:c r="F43" s="12" t="n">
@@ -3241,34 +3241,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H43" s="12" t="n">
-        <x:v>4217.42033333331</x:v>
+        <x:v>15312.1585208327</x:v>
       </x:c>
       <x:c r="I43" s="12" t="n">
-        <x:v>9760.5664583334</x:v>
+        <x:v>45458.4324583327</x:v>
       </x:c>
       <x:c r="J43" s="12" t="n">
-        <x:v>1939.350125</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K43" s="12" t="n">
-        <x:v>3908.71129166649</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L43" s="12" t="n">
-        <x:v>3521.75531249982</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M43" s="12" t="n">
-        <x:v>5742.9271458335</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N43" s="12" t="n">
-        <x:v>4616.2686458336</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O43" s="12" t="n">
-        <x:v>6466.98818750016</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P43" s="12" t="n">
-        <x:v>10872.2043541666</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q43" s="12" t="n">
-        <x:v>3785.21712499973</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R43" s="12" t="n">
         <x:v>0</x:v>
@@ -3282,10 +3282,10 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C44" s="11" t="n">
-        <x:v>3886.18434226188</x:v>
+        <x:v>4268.86220386907</x:v>
       </x:c>
       <x:c r="D44" s="11" t="n">
-        <x:v>417925.244499998</x:v>
+        <x:v>426709.282270832</x:v>
       </x:c>
       <x:c r="E44" s="11" t="s"/>
       <x:c r="F44" s="12" t="n">
@@ -3301,31 +3301,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J44" s="12" t="n">
-        <x:v>3200.59910416673</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K44" s="12" t="n">
-        <x:v>22668.8557708331</x:v>
+        <x:v>1758.55950000009</x:v>
       </x:c>
       <x:c r="L44" s="12" t="n">
-        <x:v>14514.1606874999</x:v>
+        <x:v>30269.9976666665</x:v>
       </x:c>
       <x:c r="M44" s="12" t="n">
-        <x:v>1072.33741666668</x:v>
+        <x:v>2853.37645833328</x:v>
       </x:c>
       <x:c r="N44" s="12" t="n">
-        <x:v>4472.2799583333</x:v>
+        <x:v>9745.63645833347</x:v>
       </x:c>
       <x:c r="O44" s="12" t="n">
-        <x:v>2900.29887500004</x:v>
+        <x:v>4024.61216666701</x:v>
       </x:c>
       <x:c r="P44" s="12" t="n">
-        <x:v>2679.18345833331</x:v>
+        <x:v>8729.21985416661</x:v>
       </x:c>
       <x:c r="Q44" s="12" t="n">
-        <x:v>2898.86552083329</x:v>
+        <x:v>691.838333333319</x:v>
       </x:c>
       <x:c r="R44" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1690.83041666669</x:v>
       </x:c>
       <x:c r="S44" s="12" t="n">
         <x:v>0</x:v>
@@ -3336,10 +3336,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="C45" s="11" t="n">
-        <x:v>3692.75629017855</x:v>
+        <x:v>4227.70369345236</x:v>
       </x:c>
       <x:c r="D45" s="11" t="n">
-        <x:v>521060.281791664</x:v>
+        <x:v>422706.515416664</x:v>
       </x:c>
       <x:c r="E45" s="11" t="s"/>
       <x:c r="F45" s="12" t="n">
@@ -3349,40 +3349,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="12" t="n">
-        <x:v>1474.48800000001</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I45" s="12" t="n">
-        <x:v>6813.03729166661</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J45" s="12" t="n">
-        <x:v>6223.26808333333</x:v>
+        <x:v>3200.59910416673</x:v>
       </x:c>
       <x:c r="K45" s="12" t="n">
-        <x:v>5170.74208333326</x:v>
+        <x:v>22668.8557708331</x:v>
       </x:c>
       <x:c r="L45" s="12" t="n">
-        <x:v>18346.7848958333</x:v>
+        <x:v>14514.1606874999</x:v>
       </x:c>
       <x:c r="M45" s="12" t="n">
-        <x:v>4483.2643333333</x:v>
+        <x:v>1072.33741666668</x:v>
       </x:c>
       <x:c r="N45" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4472.2799583333</x:v>
       </x:c>
       <x:c r="O45" s="12" t="n">
-        <x:v>3884.5521666666</x:v>
+        <x:v>2900.29887500004</x:v>
       </x:c>
       <x:c r="P45" s="12" t="n">
-        <x:v>3006.8094583333</x:v>
+        <x:v>2679.18345833331</x:v>
       </x:c>
       <x:c r="Q45" s="12" t="n">
-        <x:v>2295.64174999995</x:v>
+        <x:v>2898.86552083329</x:v>
       </x:c>
       <x:c r="R45" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2426.91949999996</x:v>
       </x:c>
       <x:c r="S45" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2354.35141666676</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:146">
@@ -3390,10 +3390,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C46" s="11" t="n">
-        <x:v>3483.89117261928</x:v>
+        <x:v>4020.90578571432</x:v>
       </x:c>
       <x:c r="D46" s="11" t="n">
-        <x:v>4667294.72591671</x:v>
+        <x:v>1059853.68695833</x:v>
       </x:c>
       <x:c r="E46" s="11" t="s"/>
       <x:c r="F46" s="12" t="n">
@@ -3406,37 +3406,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I46" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6582.47391666705</x:v>
       </x:c>
       <x:c r="J46" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2550.8298333335</x:v>
       </x:c>
       <x:c r="K46" s="12" t="n">
-        <x:v>1224.04299999867</x:v>
+        <x:v>10179.8319999999</x:v>
       </x:c>
       <x:c r="L46" s="12" t="n">
-        <x:v>10381.0451666676</x:v>
+        <x:v>4033.01737500005</x:v>
       </x:c>
       <x:c r="M46" s="12" t="n">
-        <x:v>18345.3424166674</x:v>
+        <x:v>63.3433333333815</x:v>
       </x:c>
       <x:c r="N46" s="12" t="n">
-        <x:v>10792.5332500022</x:v>
+        <x:v>1200.02512500004</x:v>
       </x:c>
       <x:c r="O46" s="12" t="n">
-        <x:v>3907.25487500057</x:v>
+        <x:v>4337.10397916636</x:v>
       </x:c>
       <x:c r="P46" s="12" t="n">
-        <x:v>2380.20116666704</x:v>
+        <x:v>11764.7589791669</x:v>
       </x:c>
       <x:c r="Q46" s="12" t="n">
-        <x:v>1744.05654166639</x:v>
+        <x:v>57.3741666666465</x:v>
       </x:c>
       <x:c r="R46" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>11975.0438749999</x:v>
       </x:c>
       <x:c r="S46" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3548.87841666676</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:146">
@@ -3444,10 +3444,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="C47" s="11" t="n">
-        <x:v>3210.59721577384</x:v>
+        <x:v>3811.14808035709</x:v>
       </x:c>
       <x:c r="D47" s="11" t="n">
-        <x:v>856511.874583333</x:v>
+        <x:v>1536373.115875</x:v>
       </x:c>
       <x:c r="E47" s="11" t="s"/>
       <x:c r="F47" s="12" t="n">
@@ -3457,37 +3457,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="12" t="n">
-        <x:v>6096.1385833337</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I47" s="12" t="n">
-        <x:v>8437.24433333392</x:v>
+        <x:v>1301.22800000012</x:v>
       </x:c>
       <x:c r="J47" s="12" t="n">
-        <x:v>3336.25058333331</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K47" s="12" t="n">
-        <x:v>2547.93845833337</x:v>
+        <x:v>2354.87345833355</x:v>
       </x:c>
       <x:c r="L47" s="12" t="n">
-        <x:v>7173.42764583358</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M47" s="12" t="n">
-        <x:v>170.835666666622</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N47" s="12" t="n">
-        <x:v>3088.51924999966</x:v>
+        <x:v>832.002749999752</x:v>
       </x:c>
       <x:c r="O47" s="12" t="n">
-        <x:v>3064.44195833325</x:v>
+        <x:v>3210.73025000002</x:v>
       </x:c>
       <x:c r="P47" s="12" t="n">
-        <x:v>4780.61816666648</x:v>
+        <x:v>24485.943541666</x:v>
       </x:c>
       <x:c r="Q47" s="12" t="n">
-        <x:v>6252.94637499994</x:v>
+        <x:v>11137.4875833332</x:v>
       </x:c>
       <x:c r="R47" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>10033.8075416666</x:v>
       </x:c>
       <x:c r="S47" s="12" t="n">
         <x:v>0</x:v>
@@ -3498,10 +3498,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C48" s="11" t="n">
-        <x:v>3125.71460267858</x:v>
+        <x:v>3704.53349255953</x:v>
       </x:c>
       <x:c r="D48" s="11" t="n">
-        <x:v>3918257.21445831</x:v>
+        <x:v>863426.982458333</x:v>
       </x:c>
       <x:c r="E48" s="11" t="s"/>
       <x:c r="F48" s="12" t="n">
@@ -3511,40 +3511,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="12" t="n">
-        <x:v>363.981583333574</x:v>
+        <x:v>6096.1385833337</x:v>
       </x:c>
       <x:c r="I48" s="12" t="n">
-        <x:v>12974.2840624996</x:v>
+        <x:v>8437.24433333392</x:v>
       </x:c>
       <x:c r="J48" s="12" t="n">
-        <x:v>846.188750000205</x:v>
+        <x:v>3336.25058333331</x:v>
       </x:c>
       <x:c r="K48" s="12" t="n">
-        <x:v>1379.18583333353</x:v>
+        <x:v>2547.93845833337</x:v>
       </x:c>
       <x:c r="L48" s="12" t="n">
-        <x:v>7026.05912499968</x:v>
+        <x:v>7173.42764583358</x:v>
       </x:c>
       <x:c r="M48" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>170.835666666622</x:v>
       </x:c>
       <x:c r="N48" s="12" t="n">
-        <x:v>5529.42641666625</x:v>
+        <x:v>3088.51924999966</x:v>
       </x:c>
       <x:c r="O48" s="12" t="n">
-        <x:v>9277.66933333315</x:v>
+        <x:v>3064.44195833325</x:v>
       </x:c>
       <x:c r="P48" s="12" t="n">
-        <x:v>638.299833333585</x:v>
+        <x:v>4780.61816666648</x:v>
       </x:c>
       <x:c r="Q48" s="12" t="n">
-        <x:v>5724.90950000053</x:v>
+        <x:v>6252.94637499994</x:v>
       </x:c>
       <x:c r="R48" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4005.2023333332</x:v>
       </x:c>
       <x:c r="S48" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2909.90554166643</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:146">
@@ -3552,10 +3552,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C49" s="11" t="n">
-        <x:v>3094.44754166662</x:v>
+        <x:v>3576.930983631</x:v>
       </x:c>
       <x:c r="D49" s="11" t="n">
-        <x:v>1526339.30833334</x:v>
+        <x:v>3924574.24379165</x:v>
       </x:c>
       <x:c r="E49" s="11" t="s"/>
       <x:c r="F49" s="12" t="n">
@@ -3565,40 +3565,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>363.981583333574</x:v>
       </x:c>
       <x:c r="I49" s="12" t="n">
-        <x:v>1301.22800000012</x:v>
+        <x:v>12974.2840624996</x:v>
       </x:c>
       <x:c r="J49" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>846.188750000205</x:v>
       </x:c>
       <x:c r="K49" s="12" t="n">
-        <x:v>2354.87345833355</x:v>
+        <x:v>1379.18583333353</x:v>
       </x:c>
       <x:c r="L49" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7026.05912499968</x:v>
       </x:c>
       <x:c r="M49" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N49" s="12" t="n">
-        <x:v>832.002749999752</x:v>
+        <x:v>5529.42641666625</x:v>
       </x:c>
       <x:c r="O49" s="12" t="n">
-        <x:v>3210.73025000002</x:v>
+        <x:v>9277.66933333315</x:v>
       </x:c>
       <x:c r="P49" s="12" t="n">
-        <x:v>24485.943541666</x:v>
+        <x:v>638.299833333585</x:v>
       </x:c>
       <x:c r="Q49" s="12" t="n">
-        <x:v>11137.4875833332</x:v>
+        <x:v>5724.90950000053</x:v>
       </x:c>
       <x:c r="R49" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4252.80425000098</x:v>
       </x:c>
       <x:c r="S49" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2064.22508333297</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:146">
@@ -3606,10 +3606,10 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C50" s="11" t="n">
-        <x:v>2912.05419345242</x:v>
+        <x:v>3542.42905357175</x:v>
       </x:c>
       <x:c r="D50" s="11" t="n">
-        <x:v>1044329.76466666</x:v>
+        <x:v>4668114.25625005</x:v>
       </x:c>
       <x:c r="E50" s="11" t="s"/>
       <x:c r="F50" s="12" t="n">
@@ -3622,34 +3622,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I50" s="12" t="n">
-        <x:v>6582.47391666705</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J50" s="12" t="n">
-        <x:v>2550.8298333335</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K50" s="12" t="n">
-        <x:v>10179.8319999999</x:v>
+        <x:v>1224.04299999867</x:v>
       </x:c>
       <x:c r="L50" s="12" t="n">
-        <x:v>4033.01737500005</x:v>
+        <x:v>10381.0451666676</x:v>
       </x:c>
       <x:c r="M50" s="12" t="n">
-        <x:v>63.3433333333815</x:v>
+        <x:v>18345.3424166674</x:v>
       </x:c>
       <x:c r="N50" s="12" t="n">
-        <x:v>1200.02512500004</x:v>
+        <x:v>10792.5332500022</x:v>
       </x:c>
       <x:c r="O50" s="12" t="n">
-        <x:v>4337.10397916636</x:v>
+        <x:v>3907.25487500057</x:v>
       </x:c>
       <x:c r="P50" s="12" t="n">
-        <x:v>11764.7589791669</x:v>
+        <x:v>2380.20116666704</x:v>
       </x:c>
       <x:c r="Q50" s="12" t="n">
-        <x:v>57.3741666666465</x:v>
+        <x:v>1744.05654166639</x:v>
       </x:c>
       <x:c r="R50" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>819.53033333458</x:v>
       </x:c>
       <x:c r="S50" s="12" t="n">
         <x:v>0</x:v>
@@ -3660,10 +3660,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="C51" s="11" t="n">
-        <x:v>2785.7611175595</x:v>
+        <x:v>3239.87919047619</x:v>
       </x:c>
       <x:c r="D51" s="11" t="n">
-        <x:v>476499.805020833</x:v>
+        <x:v>521772.738124999</x:v>
       </x:c>
       <x:c r="E51" s="11" t="s"/>
       <x:c r="F51" s="12" t="n">
@@ -3673,40 +3673,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2969.35941666662</x:v>
       </x:c>
       <x:c r="I51" s="12" t="n">
-        <x:v>2394.17129166663</x:v>
+        <x:v>1272.76633333333</x:v>
       </x:c>
       <x:c r="J51" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2797.73416666675</x:v>
       </x:c>
       <x:c r="K51" s="12" t="n">
-        <x:v>6454.63099999999</x:v>
+        <x:v>1424.42450000002</x:v>
       </x:c>
       <x:c r="L51" s="12" t="n">
-        <x:v>10397.0358124999</x:v>
+        <x:v>1321.77491666668</x:v>
       </x:c>
       <x:c r="M51" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>961.433499999985</x:v>
       </x:c>
       <x:c r="N51" s="12" t="n">
-        <x:v>4449.34079166653</x:v>
+        <x:v>724.376916666515</x:v>
       </x:c>
       <x:c r="O51" s="12" t="n">
-        <x:v>7610.31997916661</x:v>
+        <x:v>13276.9074166665</x:v>
       </x:c>
       <x:c r="P51" s="12" t="n">
-        <x:v>3023.47291666659</x:v>
+        <x:v>1672.80350000004</x:v>
       </x:c>
       <x:c r="Q51" s="12" t="n">
-        <x:v>4671.68385416671</x:v>
+        <x:v>3079.86433333333</x:v>
       </x:c>
       <x:c r="R51" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>9675.06516666681</x:v>
       </x:c>
       <x:c r="S51" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6181.79850000015</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:146">
@@ -3714,10 +3714,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C52" s="11" t="n">
-        <x:v>2349.98247470241</x:v>
+        <x:v>3117.16672767854</x:v>
       </x:c>
       <x:c r="D52" s="11" t="n">
-        <x:v>3584709.05135419</x:v>
+        <x:v>481139.483562499</x:v>
       </x:c>
       <x:c r="E52" s="11" t="s"/>
       <x:c r="F52" s="12" t="n">
@@ -3727,37 +3727,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="12" t="n">
-        <x:v>1699.4735208326</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I52" s="12" t="n">
-        <x:v>9026.57664583344</x:v>
+        <x:v>2394.17129166663</x:v>
       </x:c>
       <x:c r="J52" s="12" t="n">
-        <x:v>5223.3977083331</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K52" s="12" t="n">
-        <x:v>5881.63772916794</x:v>
+        <x:v>6454.63099999999</x:v>
       </x:c>
       <x:c r="L52" s="12" t="n">
-        <x:v>4495.16691666655</x:v>
+        <x:v>10397.0358124999</x:v>
       </x:c>
       <x:c r="M52" s="12" t="n">
-        <x:v>2342.83074999973</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N52" s="12" t="n">
-        <x:v>3497.47937500011</x:v>
+        <x:v>4449.34079166653</x:v>
       </x:c>
       <x:c r="O52" s="12" t="n">
-        <x:v>394.415833333507</x:v>
+        <x:v>7610.31997916661</x:v>
       </x:c>
       <x:c r="P52" s="12" t="n">
-        <x:v>30.9356666668318</x:v>
+        <x:v>3023.47291666659</x:v>
       </x:c>
       <x:c r="Q52" s="12" t="n">
-        <x:v>307.840499999933</x:v>
+        <x:v>4671.68385416671</x:v>
       </x:c>
       <x:c r="R52" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4639.67854166665</x:v>
       </x:c>
       <x:c r="S52" s="12" t="n">
         <x:v>0</x:v>
@@ -3768,10 +3768,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C53" s="11" t="n">
-        <x:v>2107.24607142855</x:v>
+        <x:v>2831.39103422617</x:v>
       </x:c>
       <x:c r="D53" s="11" t="n">
-        <x:v>505915.874458332</x:v>
+        <x:v>3591448.77118752</x:v>
       </x:c>
       <x:c r="E53" s="11" t="s"/>
       <x:c r="F53" s="12" t="n">
@@ -3781,40 +3781,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H53" s="12" t="n">
-        <x:v>2969.35941666662</x:v>
+        <x:v>1699.4735208326</x:v>
       </x:c>
       <x:c r="I53" s="12" t="n">
-        <x:v>1272.76633333333</x:v>
+        <x:v>9026.57664583344</x:v>
       </x:c>
       <x:c r="J53" s="12" t="n">
-        <x:v>2797.73416666675</x:v>
+        <x:v>5223.3977083331</x:v>
       </x:c>
       <x:c r="K53" s="12" t="n">
-        <x:v>1424.42450000002</x:v>
+        <x:v>5881.63772916794</x:v>
       </x:c>
       <x:c r="L53" s="12" t="n">
-        <x:v>1321.77491666668</x:v>
+        <x:v>4495.16691666655</x:v>
       </x:c>
       <x:c r="M53" s="12" t="n">
-        <x:v>961.433499999985</x:v>
+        <x:v>2342.83074999973</x:v>
       </x:c>
       <x:c r="N53" s="12" t="n">
-        <x:v>724.376916666515</x:v>
+        <x:v>3497.47937500011</x:v>
       </x:c>
       <x:c r="O53" s="12" t="n">
-        <x:v>13276.9074166665</x:v>
+        <x:v>394.415833333507</x:v>
       </x:c>
       <x:c r="P53" s="12" t="n">
-        <x:v>1672.80350000004</x:v>
+        <x:v>30.9356666668318</x:v>
       </x:c>
       <x:c r="Q53" s="12" t="n">
-        <x:v>3079.86433333333</x:v>
+        <x:v>307.840499999933</x:v>
       </x:c>
       <x:c r="R53" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5863.5679999995</x:v>
       </x:c>
       <x:c r="S53" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>876.151833333075</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:146">
@@ -3822,10 +3822,10 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C54" s="11" t="n">
-        <x:v>1681.75673065468</x:v>
+        <x:v>2379.4382142857</x:v>
       </x:c>
       <x:c r="D54" s="11" t="n">
-        <x:v>1187075.13722916</x:v>
+        <x:v>767733.150208334</x:v>
       </x:c>
       <x:c r="E54" s="11" t="s"/>
       <x:c r="F54" s="12" t="n">
@@ -3835,22 +3835,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="12" t="n">
-        <x:v>2443.4916041668</x:v>
+        <x:v>114.908666666714</x:v>
       </x:c>
       <x:c r="I54" s="12" t="n">
-        <x:v>7021.16054166644</x:v>
+        <x:v>1063.14233333315</x:v>
       </x:c>
       <x:c r="J54" s="12" t="n">
-        <x:v>1008.41962499986</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K54" s="12" t="n">
-        <x:v>3941.21933333296</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L54" s="12" t="n">
-        <x:v>562.055291666882</x:v>
+        <x:v>9963.36512500001</x:v>
       </x:c>
       <x:c r="M54" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5023.42937499995</x:v>
       </x:c>
       <x:c r="N54" s="12" t="n">
         <x:v>0</x:v>
@@ -3859,16 +3859,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P54" s="12" t="n">
-        <x:v>4624.09137499961</x:v>
+        <x:v>117.349666666705</x:v>
       </x:c>
       <x:c r="Q54" s="12" t="n">
-        <x:v>3944.1564583329</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R54" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>11171.5588333332</x:v>
       </x:c>
       <x:c r="S54" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5858.38100000005</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:146">
@@ -3876,10 +3876,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C55" s="11" t="n">
-        <x:v>1566.21961011904</x:v>
+        <x:v>1958.55675297616</x:v>
       </x:c>
       <x:c r="D55" s="11" t="n">
-        <x:v>4249007.84183338</x:v>
+        <x:v>4254500.56183338</x:v>
       </x:c>
       <x:c r="E55" s="11" t="s"/>
       <x:c r="F55" s="12" t="n">
@@ -3919,7 +3919,7 @@
         <x:v>4953.23870833311</x:v>
       </x:c>
       <x:c r="R55" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5492.71999999974</x:v>
       </x:c>
       <x:c r="S55" s="12" t="n">
         <x:v>0</x:v>
@@ -3930,10 +3930,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C56" s="11" t="n">
-        <x:v>1188.44261160706</x:v>
+        <x:v>1950.85884226185</x:v>
       </x:c>
       <x:c r="D56" s="11" t="n">
-        <x:v>1658123.94097917</x:v>
+        <x:v>1190842.56679166</x:v>
       </x:c>
       <x:c r="E56" s="11" t="s"/>
       <x:c r="F56" s="12" t="n">
@@ -3943,37 +3943,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H56" s="12" t="n">
-        <x:v>798.896999999881</x:v>
+        <x:v>2443.4916041668</x:v>
       </x:c>
       <x:c r="I56" s="12" t="n">
-        <x:v>388.553499999922</x:v>
+        <x:v>7021.16054166644</x:v>
       </x:c>
       <x:c r="J56" s="12" t="n">
-        <x:v>3005.84914583387</x:v>
+        <x:v>1008.41962499986</x:v>
       </x:c>
       <x:c r="K56" s="12" t="n">
-        <x:v>870.140208333265</x:v>
+        <x:v>3941.21933333296</x:v>
       </x:c>
       <x:c r="L56" s="12" t="n">
-        <x:v>2068.39558333275</x:v>
+        <x:v>562.055291666882</x:v>
       </x:c>
       <x:c r="M56" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N56" s="12" t="n">
-        <x:v>65.3000000000466</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O56" s="12" t="n">
-        <x:v>1534.8441666665</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P56" s="12" t="n">
-        <x:v>4158.85145833367</x:v>
+        <x:v>4624.09137499961</x:v>
       </x:c>
       <x:c r="Q56" s="12" t="n">
-        <x:v>3747.36549999891</x:v>
+        <x:v>3944.1564583329</x:v>
       </x:c>
       <x:c r="R56" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3767.42956250045</x:v>
       </x:c>
       <x:c r="S56" s="12" t="n">
         <x:v>0</x:v>
@@ -3984,10 +3984,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="C57" s="11" t="n">
-        <x:v>1163.01394047618</x:v>
+        <x:v>1393.98264285714</x:v>
       </x:c>
       <x:c r="D57" s="11" t="n">
-        <x:v>750703.210375001</x:v>
+        <x:v>1275791.84691667</x:v>
       </x:c>
       <x:c r="E57" s="11" t="s"/>
       <x:c r="F57" s="12" t="n">
@@ -3997,10 +3997,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H57" s="12" t="n">
-        <x:v>114.908666666714</x:v>
+        <x:v>470.280687500024</x:v>
       </x:c>
       <x:c r="I57" s="12" t="n">
-        <x:v>1063.14233333315</x:v>
+        <x:v>866.954583333572</x:v>
       </x:c>
       <x:c r="J57" s="12" t="n">
         <x:v>0</x:v>
@@ -4009,28 +4009,28 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L57" s="12" t="n">
-        <x:v>9963.36512500001</x:v>
+        <x:v>8604.24883333314</x:v>
       </x:c>
       <x:c r="M57" s="12" t="n">
-        <x:v>5023.42937499995</x:v>
+        <x:v>1996.15999999992</x:v>
       </x:c>
       <x:c r="N57" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O57" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>56.283000000054</x:v>
       </x:c>
       <x:c r="P57" s="12" t="n">
-        <x:v>117.349666666705</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q57" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R57" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>869.848249999806</x:v>
       </x:c>
       <x:c r="S57" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6651.98164583347</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:146">
@@ -4038,10 +4038,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="C58" s="11" t="n">
-        <x:v>1143.63215178571</x:v>
+        <x:v>1209.96719345239</x:v>
       </x:c>
       <x:c r="D58" s="11" t="n">
-        <x:v>560231.104020832</x:v>
+        <x:v>754877.298708331</x:v>
       </x:c>
       <x:c r="E58" s="11" t="s"/>
       <x:c r="F58" s="12" t="n">
@@ -4051,40 +4051,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H58" s="12" t="n">
-        <x:v>3273.5189583333</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I58" s="12" t="n">
-        <x:v>3333.82949999999</x:v>
+        <x:v>166.695500000031</x:v>
       </x:c>
       <x:c r="J58" s="12" t="n">
-        <x:v>2197.52216666669</x:v>
+        <x:v>4886.88987500011</x:v>
       </x:c>
       <x:c r="K58" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1543.08562499995</x:v>
       </x:c>
       <x:c r="L58" s="12" t="n">
-        <x:v>876.691749999998</x:v>
+        <x:v>991.193833333091</x:v>
       </x:c>
       <x:c r="M58" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4269.21133333351</x:v>
       </x:c>
       <x:c r="N58" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>270.681416666717</x:v>
       </x:c>
       <x:c r="O58" s="12" t="n">
-        <x:v>2452.61641666654</x:v>
+        <x:v>1071.36025000003</x:v>
       </x:c>
       <x:c r="P58" s="12" t="n">
-        <x:v>216.835833333316</x:v>
+        <x:v>1269.99820833327</x:v>
       </x:c>
       <x:c r="Q58" s="12" t="n">
-        <x:v>3659.83550000004</x:v>
+        <x:v>89.9675000000279</x:v>
       </x:c>
       <x:c r="R58" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1414.2062916666</x:v>
       </x:c>
       <x:c r="S58" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>966.250875000143</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:146">
@@ -4092,10 +4092,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C59" s="11" t="n">
-        <x:v>1039.93453869048</x:v>
+        <x:v>1188.44261160706</x:v>
       </x:c>
       <x:c r="D59" s="11" t="n">
-        <x:v>752496.841541664</x:v>
+        <x:v>1658123.94097917</x:v>
       </x:c>
       <x:c r="E59" s="11" t="s"/>
       <x:c r="F59" s="12" t="n">
@@ -4105,34 +4105,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H59" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>798.896999999881</x:v>
       </x:c>
       <x:c r="I59" s="12" t="n">
-        <x:v>166.695500000031</x:v>
+        <x:v>388.553499999922</x:v>
       </x:c>
       <x:c r="J59" s="12" t="n">
-        <x:v>4886.88987500011</x:v>
+        <x:v>3005.84914583387</x:v>
       </x:c>
       <x:c r="K59" s="12" t="n">
-        <x:v>1543.08562499995</x:v>
+        <x:v>870.140208333265</x:v>
       </x:c>
       <x:c r="L59" s="12" t="n">
-        <x:v>991.193833333091</x:v>
+        <x:v>2068.39558333275</x:v>
       </x:c>
       <x:c r="M59" s="12" t="n">
-        <x:v>4269.21133333351</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N59" s="12" t="n">
-        <x:v>270.681416666717</x:v>
+        <x:v>65.3000000000466</x:v>
       </x:c>
       <x:c r="O59" s="12" t="n">
-        <x:v>1071.36025000003</x:v>
+        <x:v>1534.8441666665</x:v>
       </x:c>
       <x:c r="P59" s="12" t="n">
-        <x:v>1269.99820833327</x:v>
+        <x:v>4158.85145833367</x:v>
       </x:c>
       <x:c r="Q59" s="12" t="n">
-        <x:v>89.9675000000279</x:v>
+        <x:v>3747.36549999891</x:v>
       </x:c>
       <x:c r="R59" s="12" t="n">
         <x:v>0</x:v>
@@ -4146,10 +4146,10 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C60" s="11" t="n">
-        <x:v>856.709078869051</x:v>
+        <x:v>1170.82291964285</x:v>
       </x:c>
       <x:c r="D60" s="11" t="n">
-        <x:v>1268270.01702084</x:v>
+        <x:v>560611.774770832</x:v>
       </x:c>
       <x:c r="E60" s="11" t="s"/>
       <x:c r="F60" s="12" t="n">
@@ -4159,37 +4159,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="12" t="n">
-        <x:v>470.280687500024</x:v>
+        <x:v>3273.5189583333</x:v>
       </x:c>
       <x:c r="I60" s="12" t="n">
-        <x:v>866.954583333572</x:v>
+        <x:v>3333.82949999999</x:v>
       </x:c>
       <x:c r="J60" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2197.52216666669</x:v>
       </x:c>
       <x:c r="K60" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L60" s="12" t="n">
-        <x:v>8604.24883333314</x:v>
+        <x:v>876.691749999998</x:v>
       </x:c>
       <x:c r="M60" s="12" t="n">
-        <x:v>1996.15999999992</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N60" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O60" s="12" t="n">
-        <x:v>56.283000000054</x:v>
+        <x:v>2452.61641666654</x:v>
       </x:c>
       <x:c r="P60" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>216.835833333316</x:v>
       </x:c>
       <x:c r="Q60" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3659.83550000004</x:v>
       </x:c>
       <x:c r="R60" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>380.670750000048</x:v>
       </x:c>
       <x:c r="S60" s="12" t="n">
         <x:v>0</x:v>
@@ -4200,10 +4200,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C61" s="11" t="n">
-        <x:v>815.700211309528</x:v>
+        <x:v>1152.16057440478</x:v>
       </x:c>
       <x:c r="D61" s="11" t="n">
-        <x:v>718244.172749996</x:v>
+        <x:v>722954.61783333</x:v>
       </x:c>
       <x:c r="E61" s="11" t="s"/>
       <x:c r="F61" s="12" t="n">
@@ -4243,7 +4243,7 @@
         <x:v>3350.05024999985</x:v>
       </x:c>
       <x:c r="R61" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4710.44508333353</x:v>
       </x:c>
       <x:c r="S61" s="12" t="n">
         <x:v>0</x:v>
@@ -4254,10 +4254,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C62" s="11" t="n">
-        <x:v>738.280354166636</x:v>
+        <x:v>993.509016369004</x:v>
       </x:c>
       <x:c r="D62" s="11" t="n">
-        <x:v>725447.087250001</x:v>
+        <x:v>2176064.39141666</x:v>
       </x:c>
       <x:c r="E62" s="11" t="s"/>
       <x:c r="F62" s="12" t="n">
@@ -4270,37 +4270,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I62" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8.64850000012666</x:v>
       </x:c>
       <x:c r="J62" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K62" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>807.938791666646</x:v>
       </x:c>
       <x:c r="L62" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>819.055291667115</x:v>
       </x:c>
       <x:c r="M62" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N62" s="12" t="n">
-        <x:v>16.2543333333451</x:v>
+        <x:v>2320.57379166642</x:v>
       </x:c>
       <x:c r="O62" s="12" t="n">
-        <x:v>1216.42558333336</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P62" s="12" t="n">
-        <x:v>3405.48699999996</x:v>
+        <x:v>2082.52014583349</x:v>
       </x:c>
       <x:c r="Q62" s="12" t="n">
-        <x:v>5697.75804166624</x:v>
+        <x:v>1344.68349999981</x:v>
       </x:c>
       <x:c r="R62" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6315.53495833231</x:v>
       </x:c>
       <x:c r="S62" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>210.17125000013</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:146">
@@ -4308,10 +4308,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="C63" s="11" t="n">
-        <x:v>704.160639880965</x:v>
+        <x:v>982.224485119039</x:v>
       </x:c>
       <x:c r="D63" s="11" t="n">
-        <x:v>922348.086708329</x:v>
+        <x:v>406098.140708333</x:v>
       </x:c>
       <x:c r="E63" s="11" t="s"/>
       <x:c r="F63" s="12" t="n">
@@ -4324,34 +4324,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I63" s="12" t="n">
-        <x:v>3793.97100000002</x:v>
+        <x:v>2980.36706249998</x:v>
       </x:c>
       <x:c r="J63" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>20.8979999999865</x:v>
       </x:c>
       <x:c r="K63" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>492.727666666673</x:v>
       </x:c>
       <x:c r="L63" s="12" t="n">
-        <x:v>998.458375000278</x:v>
+        <x:v>147.542333333287</x:v>
       </x:c>
       <x:c r="M63" s="12" t="n">
-        <x:v>47.2340000000549</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N63" s="12" t="n">
-        <x:v>89.0961666667135</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O63" s="12" t="n">
-        <x:v>3510.90766666667</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P63" s="12" t="n">
-        <x:v>711.415083333384</x:v>
+        <x:v>3262.37370833335</x:v>
       </x:c>
       <x:c r="Q63" s="12" t="n">
-        <x:v>707.166666666395</x:v>
+        <x:v>2339.1045833333</x:v>
       </x:c>
       <x:c r="R63" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4508.12943749997</x:v>
       </x:c>
       <x:c r="S63" s="12" t="n">
         <x:v>0</x:v>
@@ -4362,10 +4362,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="C64" s="11" t="n">
-        <x:v>660.215239583327</x:v>
+        <x:v>965.008184523987</x:v>
       </x:c>
       <x:c r="D64" s="11" t="n">
-        <x:v>401590.011270833</x:v>
+        <x:v>2881296.77422916</x:v>
       </x:c>
       <x:c r="E64" s="11" t="s"/>
       <x:c r="F64" s="12" t="n">
@@ -4378,34 +4378,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I64" s="12" t="n">
-        <x:v>2980.36706249998</x:v>
+        <x:v>4331.95787500171</x:v>
       </x:c>
       <x:c r="J64" s="12" t="n">
-        <x:v>20.8979999999865</x:v>
+        <x:v>42.7213333332911</x:v>
       </x:c>
       <x:c r="K64" s="12" t="n">
-        <x:v>492.727666666673</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L64" s="12" t="n">
-        <x:v>147.542333333287</x:v>
+        <x:v>618.995666666888</x:v>
       </x:c>
       <x:c r="M64" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>253.583000000101</x:v>
       </x:c>
       <x:c r="N64" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>699.325499999337</x:v>
       </x:c>
       <x:c r="O64" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>128.861666666809</x:v>
       </x:c>
       <x:c r="P64" s="12" t="n">
-        <x:v>3262.37370833335</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q64" s="12" t="n">
-        <x:v>2339.1045833333</x:v>
+        <x:v>96.3493333333172</x:v>
       </x:c>
       <x:c r="R64" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7338.32020833436</x:v>
       </x:c>
       <x:c r="S64" s="12" t="n">
         <x:v>0</x:v>
@@ -4416,10 +4416,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="C65" s="11" t="n">
-        <x:v>623.76640327382</x:v>
+        <x:v>864.073238095252</x:v>
       </x:c>
       <x:c r="D65" s="11" t="n">
-        <x:v>366327.898250001</x:v>
+        <x:v>374008.908833333</x:v>
       </x:c>
       <x:c r="E65" s="11" t="s"/>
       <x:c r="F65" s="12" t="n">
@@ -4438,10 +4438,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K65" s="12" t="n">
-        <x:v>45.2963333333028</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L65" s="12" t="n">
-        <x:v>4476.70425000018</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M65" s="12" t="n">
         <x:v>0</x:v>
@@ -4450,19 +4450,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O65" s="12" t="n">
-        <x:v>3859.84606249997</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P65" s="12" t="n">
-        <x:v>350.883000000031</x:v>
+        <x:v>2749.38083333336</x:v>
       </x:c>
       <x:c r="Q65" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5288.98012500023</x:v>
       </x:c>
       <x:c r="R65" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3842.81708333327</x:v>
       </x:c>
       <x:c r="S65" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>215.847291666665</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:146">
@@ -4470,10 +4470,10 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C66" s="11" t="n">
-        <x:v>574.168639880971</x:v>
+        <x:v>738.280354166636</x:v>
       </x:c>
       <x:c r="D66" s="11" t="n">
-        <x:v>369950.244458333</x:v>
+        <x:v>725447.087250001</x:v>
       </x:c>
       <x:c r="E66" s="11" t="s"/>
       <x:c r="F66" s="12" t="n">
@@ -4501,16 +4501,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N66" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>16.2543333333451</x:v>
       </x:c>
       <x:c r="O66" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1216.42558333336</x:v>
       </x:c>
       <x:c r="P66" s="12" t="n">
-        <x:v>2749.38083333336</x:v>
+        <x:v>3405.48699999996</x:v>
       </x:c>
       <x:c r="Q66" s="12" t="n">
-        <x:v>5288.98012500023</x:v>
+        <x:v>5697.75804166624</x:v>
       </x:c>
       <x:c r="R66" s="12" t="n">
         <x:v>0</x:v>
@@ -4524,10 +4524,10 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="C67" s="11" t="n">
-        <x:v>527.387144345258</x:v>
+        <x:v>712.538244047635</x:v>
       </x:c>
       <x:c r="D67" s="11" t="n">
-        <x:v>2169538.68520833</x:v>
+        <x:v>922465.373166662</x:v>
       </x:c>
       <x:c r="E67" s="11" t="s"/>
       <x:c r="F67" s="12" t="n">
@@ -4540,37 +4540,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I67" s="12" t="n">
-        <x:v>8.64850000012666</x:v>
+        <x:v>3793.97100000002</x:v>
       </x:c>
       <x:c r="J67" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K67" s="12" t="n">
-        <x:v>807.938791666646</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L67" s="12" t="n">
-        <x:v>819.055291667115</x:v>
+        <x:v>998.458375000278</x:v>
       </x:c>
       <x:c r="M67" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>47.2340000000549</x:v>
       </x:c>
       <x:c r="N67" s="12" t="n">
-        <x:v>2320.57379166642</x:v>
+        <x:v>89.0961666667135</x:v>
       </x:c>
       <x:c r="O67" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3510.90766666667</x:v>
       </x:c>
       <x:c r="P67" s="12" t="n">
-        <x:v>2082.52014583349</x:v>
+        <x:v>711.415083333384</x:v>
       </x:c>
       <x:c r="Q67" s="12" t="n">
-        <x:v>1344.68349999981</x:v>
+        <x:v>707.166666666395</x:v>
       </x:c>
       <x:c r="R67" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S67" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>117.286458333372</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:146">
@@ -4578,10 +4578,10 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C68" s="11" t="n">
-        <x:v>489.009693452357</x:v>
+        <x:v>623.76640327382</x:v>
       </x:c>
       <x:c r="D68" s="11" t="n">
-        <x:v>753310.454458333</x:v>
+        <x:v>366327.898250001</x:v>
       </x:c>
       <x:c r="E68" s="11" t="s"/>
       <x:c r="F68" s="12" t="n">
@@ -4591,34 +4591,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H68" s="12" t="n">
-        <x:v>774.450083333417</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I68" s="12" t="n">
-        <x:v>2719.86758333317</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J68" s="12" t="n">
-        <x:v>257.400000000023</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K68" s="12" t="n">
-        <x:v>1130.72716666653</x:v>
+        <x:v>45.2963333333028</x:v>
       </x:c>
       <x:c r="L68" s="12" t="n">
-        <x:v>85.0074999999488</x:v>
+        <x:v>4476.70425000018</x:v>
       </x:c>
       <x:c r="M68" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N68" s="12" t="n">
-        <x:v>1154.37474999996</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O68" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3859.84606249997</x:v>
       </x:c>
       <x:c r="P68" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>350.883000000031</x:v>
       </x:c>
       <x:c r="Q68" s="12" t="n">
-        <x:v>724.308624999947</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R68" s="12" t="n">
         <x:v>0</x:v>
@@ -4632,10 +4632,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C69" s="11" t="n">
-        <x:v>440.842455357247</x:v>
+        <x:v>570.797717261877</x:v>
       </x:c>
       <x:c r="D69" s="11" t="n">
-        <x:v>2873958.45402083</x:v>
+        <x:v>754455.486791667</x:v>
       </x:c>
       <x:c r="E69" s="11" t="s"/>
       <x:c r="F69" s="12" t="n">
@@ -4645,37 +4645,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H69" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>774.450083333417</x:v>
       </x:c>
       <x:c r="I69" s="12" t="n">
-        <x:v>4331.95787500171</x:v>
+        <x:v>2719.86758333317</x:v>
       </x:c>
       <x:c r="J69" s="12" t="n">
-        <x:v>42.7213333332911</x:v>
+        <x:v>257.400000000023</x:v>
       </x:c>
       <x:c r="K69" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1130.72716666653</x:v>
       </x:c>
       <x:c r="L69" s="12" t="n">
-        <x:v>618.995666666888</x:v>
+        <x:v>85.0074999999488</x:v>
       </x:c>
       <x:c r="M69" s="12" t="n">
-        <x:v>253.583000000101</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N69" s="12" t="n">
-        <x:v>699.325499999337</x:v>
+        <x:v>1154.37474999996</x:v>
       </x:c>
       <x:c r="O69" s="12" t="n">
-        <x:v>128.861666666809</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P69" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q69" s="12" t="n">
-        <x:v>96.3493333333172</x:v>
+        <x:v>724.308624999947</x:v>
       </x:c>
       <x:c r="R69" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1145.03233333328</x:v>
       </x:c>
       <x:c r="S69" s="12" t="n">
         <x:v>0</x:v>
@@ -4686,10 +4686,10 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="C70" s="11" t="n">
-        <x:v>406.559245535721</x:v>
+        <x:v>545.989077380975</x:v>
       </x:c>
       <x:c r="D70" s="11" t="n">
-        <x:v>1301174.10472917</x:v>
+        <x:v>711233.326520834</x:v>
       </x:c>
       <x:c r="E70" s="11" t="s"/>
       <x:c r="F70" s="12" t="n">
@@ -4702,37 +4702,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I70" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>448.034166666563</x:v>
       </x:c>
       <x:c r="J70" s="12" t="n">
-        <x:v>19.1125000000466</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K70" s="12" t="n">
-        <x:v>1869.02341666678</x:v>
+        <x:v>598.666625000071</x:v>
       </x:c>
       <x:c r="L70" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>570.564666666905</x:v>
       </x:c>
       <x:c r="M70" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>502.380666666781</x:v>
       </x:c>
       <x:c r="N70" s="12" t="n">
-        <x:v>1722.9651875</x:v>
+        <x:v>1616.2441250002</x:v>
       </x:c>
       <x:c r="O70" s="12" t="n">
-        <x:v>2080.72833333327</x:v>
+        <x:v>28.0528333333787</x:v>
       </x:c>
       <x:c r="P70" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>460.367666666512</x:v>
       </x:c>
       <x:c r="Q70" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>804.865916666808</x:v>
       </x:c>
       <x:c r="R70" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2391.36624999973</x:v>
       </x:c>
       <x:c r="S70" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>223.304166666698</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:146">
@@ -4740,10 +4740,10 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="C71" s="11" t="n">
-        <x:v>371.882476190487</x:v>
+        <x:v>406.845197916679</x:v>
       </x:c>
       <x:c r="D71" s="11" t="n">
-        <x:v>599240.500083329</x:v>
+        <x:v>1301178.1080625</x:v>
       </x:c>
       <x:c r="E71" s="11" t="s"/>
       <x:c r="F71" s="12" t="n">
@@ -4759,22 +4759,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J71" s="12" t="n">
-        <x:v>195.624166666646</x:v>
+        <x:v>19.1125000000466</x:v>
       </x:c>
       <x:c r="K71" s="12" t="n">
-        <x:v>481.558166666655</x:v>
+        <x:v>1869.02341666678</x:v>
       </x:c>
       <x:c r="L71" s="12" t="n">
-        <x:v>4529.17233333352</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M71" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N71" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1722.9651875</x:v>
       </x:c>
       <x:c r="O71" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2080.72833333327</x:v>
       </x:c>
       <x:c r="P71" s="12" t="n">
         <x:v>0</x:v>
@@ -4783,7 +4783,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R71" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4.00333333341405</x:v>
       </x:c>
       <x:c r="S71" s="12" t="n">
         <x:v>0</x:v>
@@ -4794,10 +4794,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="C72" s="11" t="n">
-        <x:v>359.226904761944</x:v>
+        <x:v>403.433681547609</x:v>
       </x:c>
       <x:c r="D72" s="11" t="n">
-        <x:v>708618.656104168</x:v>
+        <x:v>3973570.2341875</x:v>
       </x:c>
       <x:c r="E72" s="11" t="s"/>
       <x:c r="F72" s="12" t="n">
@@ -4810,37 +4810,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I72" s="12" t="n">
-        <x:v>448.034166666563</x:v>
+        <x:v>143.105666666757</x:v>
       </x:c>
       <x:c r="J72" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K72" s="12" t="n">
-        <x:v>598.666625000071</x:v>
+        <x:v>1919.40862499969</x:v>
       </x:c>
       <x:c r="L72" s="12" t="n">
-        <x:v>570.564666666905</x:v>
+        <x:v>617.128541666549</x:v>
       </x:c>
       <x:c r="M72" s="12" t="n">
-        <x:v>502.380666666781</x:v>
+        <x:v>57.3598333331756</x:v>
       </x:c>
       <x:c r="N72" s="12" t="n">
-        <x:v>1616.2441250002</x:v>
+        <x:v>20.2975000003353</x:v>
       </x:c>
       <x:c r="O72" s="12" t="n">
-        <x:v>28.0528333333787</x:v>
+        <x:v>26.1683333334513</x:v>
       </x:c>
       <x:c r="P72" s="12" t="n">
-        <x:v>460.367666666512</x:v>
+        <x:v>360.919916666579</x:v>
       </x:c>
       <x:c r="Q72" s="12" t="n">
-        <x:v>804.865916666808</x:v>
+        <x:v>1785.62058333308</x:v>
       </x:c>
       <x:c r="R72" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>63.6686666668393</x:v>
       </x:c>
       <x:c r="S72" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>654.393875000067</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:146">
@@ -4848,10 +4848,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="C73" s="11" t="n">
-        <x:v>352.143499999973</x:v>
+        <x:v>371.882476190487</x:v>
       </x:c>
       <x:c r="D73" s="11" t="n">
-        <x:v>3972852.17164584</x:v>
+        <x:v>599240.500083329</x:v>
       </x:c>
       <x:c r="E73" s="11" t="s"/>
       <x:c r="F73" s="12" t="n">
@@ -4864,31 +4864,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I73" s="12" t="n">
-        <x:v>143.105666666757</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J73" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>195.624166666646</x:v>
       </x:c>
       <x:c r="K73" s="12" t="n">
-        <x:v>1919.40862499969</x:v>
+        <x:v>481.558166666655</x:v>
       </x:c>
       <x:c r="L73" s="12" t="n">
-        <x:v>617.128541666549</x:v>
+        <x:v>4529.17233333352</x:v>
       </x:c>
       <x:c r="M73" s="12" t="n">
-        <x:v>57.3598333331756</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N73" s="12" t="n">
-        <x:v>20.2975000003353</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O73" s="12" t="n">
-        <x:v>26.1683333334513</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P73" s="12" t="n">
-        <x:v>360.919916666579</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q73" s="12" t="n">
-        <x:v>1785.62058333308</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R73" s="12" t="n">
         <x:v>0</x:v>
@@ -4956,10 +4956,10 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="C75" s="11" t="n">
-        <x:v>256.048224702369</x:v>
+        <x:v>290.849355654749</x:v>
       </x:c>
       <x:c r="D75" s="11" t="n">
-        <x:v>910537.584145834</x:v>
+        <x:v>911024.799979167</x:v>
       </x:c>
       <x:c r="E75" s="11" t="s"/>
       <x:c r="F75" s="12" t="n">
@@ -4999,7 +4999,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R75" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>487.215833333321</x:v>
       </x:c>
       <x:c r="S75" s="12" t="n">
         <x:v>0</x:v>
@@ -5064,10 +5064,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="C77" s="11" t="n">
-        <x:v>176.837008928597</x:v>
+        <x:v>181.321455357148</x:v>
       </x:c>
       <x:c r="D77" s="11" t="n">
-        <x:v>1337823.13570833</x:v>
+        <x:v>566396.190270833</x:v>
       </x:c>
       <x:c r="E77" s="11" t="s"/>
       <x:c r="F77" s="12" t="n">
@@ -5080,37 +5080,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I77" s="12" t="n">
-        <x:v>760.399833333446</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J77" s="12" t="n">
-        <x:v>66.0517083334271</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K77" s="12" t="n">
-        <x:v>229.237250000006</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L77" s="12" t="n">
-        <x:v>135.696500000078</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M77" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N77" s="12" t="n">
-        <x:v>591.898333333433</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O77" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P77" s="12" t="n">
-        <x:v>692.434499999974</x:v>
+        <x:v>325.425625000033</x:v>
       </x:c>
       <x:c r="Q77" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>374.344458333333</x:v>
       </x:c>
       <x:c r="R77" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1099.96929166676</x:v>
       </x:c>
       <x:c r="S77" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>738.76099999994</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:146">
@@ -5118,10 +5118,10 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="C78" s="11" t="n">
-        <x:v>176.397592261882</x:v>
+        <x:v>176.837008928597</x:v>
       </x:c>
       <x:c r="D78" s="11" t="n">
-        <x:v>1256394.079</x:v>
+        <x:v>1337823.13570833</x:v>
       </x:c>
       <x:c r="E78" s="11" t="s"/>
       <x:c r="F78" s="12" t="n">
@@ -5131,31 +5131,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H78" s="12" t="n">
-        <x:v>276.338666666532</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I78" s="12" t="n">
-        <x:v>4.9383333332371</x:v>
+        <x:v>760.399833333446</x:v>
       </x:c>
       <x:c r="J78" s="12" t="n">
-        <x:v>91.7523333332501</x:v>
+        <x:v>66.0517083334271</x:v>
       </x:c>
       <x:c r="K78" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>229.237250000006</x:v>
       </x:c>
       <x:c r="L78" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>135.696500000078</x:v>
       </x:c>
       <x:c r="M78" s="12" t="n">
-        <x:v>45.9769999999553</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N78" s="12" t="n">
-        <x:v>530.202000000048</x:v>
+        <x:v>591.898333333433</x:v>
       </x:c>
       <x:c r="O78" s="12" t="n">
-        <x:v>1520.35795833333</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P78" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>692.434499999974</x:v>
       </x:c>
       <x:c r="Q78" s="12" t="n">
         <x:v>0</x:v>
@@ -5172,10 +5172,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="C79" s="11" t="n">
-        <x:v>153.226796130945</x:v>
+        <x:v>176.397592261882</x:v>
       </x:c>
       <x:c r="D79" s="11" t="n">
-        <x:v>453053.558729167</x:v>
+        <x:v>1256394.079</x:v>
       </x:c>
       <x:c r="E79" s="11" t="s"/>
       <x:c r="F79" s="12" t="n">
@@ -5185,34 +5185,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H79" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>276.338666666532</x:v>
       </x:c>
       <x:c r="I79" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4.9383333332371</x:v>
       </x:c>
       <x:c r="J79" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>91.7523333332501</x:v>
       </x:c>
       <x:c r="K79" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L79" s="12" t="n">
-        <x:v>11.7346666666563</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M79" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>45.9769999999553</x:v>
       </x:c>
       <x:c r="N79" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>530.202000000048</x:v>
       </x:c>
       <x:c r="O79" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1520.35795833333</x:v>
       </x:c>
       <x:c r="P79" s="12" t="n">
-        <x:v>1922.32418749994</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q79" s="12" t="n">
-        <x:v>211.116291666636</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R79" s="12" t="n">
         <x:v>0</x:v>
@@ -5226,10 +5226,10 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="C80" s="11" t="n">
-        <x:v>137.36136904763</x:v>
+        <x:v>153.226796130945</x:v>
       </x:c>
       <x:c r="D80" s="11" t="n">
-        <x:v>685588.490416667</x:v>
+        <x:v>453053.558729167</x:v>
       </x:c>
       <x:c r="E80" s="11" t="s"/>
       <x:c r="F80" s="12" t="n">
@@ -5239,10 +5239,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H80" s="12" t="n">
-        <x:v>1545.69366666675</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I80" s="12" t="n">
-        <x:v>38.6639999999898</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J80" s="12" t="n">
         <x:v>0</x:v>
@@ -5251,7 +5251,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L80" s="12" t="n">
-        <x:v>1.40700000000652</x:v>
+        <x:v>11.7346666666563</x:v>
       </x:c>
       <x:c r="M80" s="12" t="n">
         <x:v>0</x:v>
@@ -5260,13 +5260,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O80" s="12" t="n">
-        <x:v>49.7214999999851</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P80" s="12" t="n">
-        <x:v>287.573000000091</x:v>
+        <x:v>1922.32418749994</x:v>
       </x:c>
       <x:c r="Q80" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>211.116291666636</x:v>
       </x:c>
       <x:c r="R80" s="12" t="n">
         <x:v>0</x:v>
@@ -5280,10 +5280,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="C81" s="11" t="n">
-        <x:v>85.1329404762031</x:v>
+        <x:v>137.36136904763</x:v>
       </x:c>
       <x:c r="D81" s="11" t="n">
-        <x:v>740996.170937495</x:v>
+        <x:v>685588.490416667</x:v>
       </x:c>
       <x:c r="E81" s="11" t="s"/>
       <x:c r="F81" s="12" t="n">
@@ -5293,19 +5293,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H81" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1545.69366666675</x:v>
       </x:c>
       <x:c r="I81" s="12" t="n">
-        <x:v>342.262833333341</x:v>
+        <x:v>38.6639999999898</x:v>
       </x:c>
       <x:c r="J81" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K81" s="12" t="n">
-        <x:v>23.6593333333731</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L81" s="12" t="n">
-        <x:v>814.36716666678</x:v>
+        <x:v>1.40700000000652</x:v>
       </x:c>
       <x:c r="M81" s="12" t="n">
         <x:v>0</x:v>
@@ -5314,13 +5314,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O81" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>49.7214999999851</x:v>
       </x:c>
       <x:c r="P81" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>287.573000000091</x:v>
       </x:c>
       <x:c r="Q81" s="12" t="n">
-        <x:v>11.5718333333498</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R81" s="12" t="n">
         <x:v>0</x:v>
@@ -5334,10 +5334,10 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="C82" s="11" t="n">
-        <x:v>61.2414017857102</x:v>
+        <x:v>88.8585357142978</x:v>
       </x:c>
       <x:c r="D82" s="11" t="n">
-        <x:v>359764.152291667</x:v>
+        <x:v>741048.329270829</x:v>
       </x:c>
       <x:c r="E82" s="11" t="s"/>
       <x:c r="F82" s="12" t="n">
@@ -5350,19 +5350,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I82" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>342.262833333341</x:v>
       </x:c>
       <x:c r="J82" s="12" t="n">
-        <x:v>0.852833333308809</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K82" s="12" t="n">
-        <x:v>24.7330000000075</x:v>
+        <x:v>23.6593333333731</x:v>
       </x:c>
       <x:c r="L82" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>814.36716666678</x:v>
       </x:c>
       <x:c r="M82" s="12" t="n">
-        <x:v>831.793791666627</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N82" s="12" t="n">
         <x:v>0</x:v>
@@ -5374,10 +5374,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q82" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>11.5718333333498</x:v>
       </x:c>
       <x:c r="R82" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>52.1583333333256</x:v>
       </x:c>
       <x:c r="S82" s="12" t="n">
         <x:v>0</x:v>
@@ -5388,10 +5388,10 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="C83" s="11" t="n">
-        <x:v>49.9835773809547</x:v>
+        <x:v>83.5781160714271</x:v>
       </x:c>
       <x:c r="D83" s="11" t="n">
-        <x:v>564557.459979166</x:v>
+        <x:v>627688.908166667</x:v>
       </x:c>
       <x:c r="E83" s="11" t="s"/>
       <x:c r="F83" s="12" t="n">
@@ -5404,7 +5404,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I83" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>177.379958333331</x:v>
       </x:c>
       <x:c r="J83" s="12" t="n">
         <x:v>0</x:v>
@@ -5419,19 +5419,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N83" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>426.428750000079</x:v>
       </x:c>
       <x:c r="O83" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P83" s="12" t="n">
-        <x:v>325.425625000033</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q83" s="12" t="n">
-        <x:v>374.344458333333</x:v>
+        <x:v>71.3726666666334</x:v>
       </x:c>
       <x:c r="R83" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>494.912249999936</x:v>
       </x:c>
       <x:c r="S83" s="12" t="n">
         <x:v>0</x:v>
@@ -5442,10 +5442,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C84" s="11" t="n">
-        <x:v>48.2272410714317</x:v>
+        <x:v>63.2123422619022</x:v>
       </x:c>
       <x:c r="D84" s="11" t="n">
-        <x:v>627193.995916667</x:v>
+        <x:v>359791.745458333</x:v>
       </x:c>
       <x:c r="E84" s="11" t="s"/>
       <x:c r="F84" s="12" t="n">
@@ -5458,22 +5458,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I84" s="12" t="n">
-        <x:v>177.379958333331</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J84" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>0.852833333308809</x:v>
       </x:c>
       <x:c r="K84" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>24.7330000000075</x:v>
       </x:c>
       <x:c r="L84" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M84" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>831.793791666627</x:v>
       </x:c>
       <x:c r="N84" s="12" t="n">
-        <x:v>426.428750000079</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O84" s="12" t="n">
         <x:v>0</x:v>
@@ -5482,13 +5482,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q84" s="12" t="n">
-        <x:v>71.3726666666334</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R84" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S84" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>27.5931666666875</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:146">
@@ -5496,10 +5496,10 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="C85" s="11" t="n">
-        <x:v>41.3480416666633</x:v>
+        <x:v>51.1797023809382</x:v>
       </x:c>
       <x:c r="D85" s="11" t="n">
-        <x:v>522882.308562498</x:v>
+        <x:v>1298171.54945833</x:v>
       </x:c>
       <x:c r="E85" s="11" t="s"/>
       <x:c r="F85" s="12" t="n">
@@ -5521,25 +5521,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L85" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>65.2574999998324</x:v>
       </x:c>
       <x:c r="M85" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N85" s="12" t="n">
-        <x:v>27.444375000021</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O85" s="12" t="n">
-        <x:v>551.428208333266</x:v>
+        <x:v>31.6314166667871</x:v>
       </x:c>
       <x:c r="P85" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q85" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>127.331499999855</x:v>
       </x:c>
       <x:c r="R85" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>492.29541666666</x:v>
       </x:c>
       <x:c r="S85" s="12" t="n">
         <x:v>0</x:v>
@@ -5550,10 +5550,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="C86" s="11" t="n">
-        <x:v>35.4047857142869</x:v>
+        <x:v>41.3480416666633</x:v>
       </x:c>
       <x:c r="D86" s="11" t="n">
-        <x:v>863959.061937498</x:v>
+        <x:v>522882.308562498</x:v>
       </x:c>
       <x:c r="E86" s="11" t="s"/>
       <x:c r="F86" s="12" t="n">
@@ -5566,7 +5566,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I86" s="12" t="n">
-        <x:v>383.436333333375</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J86" s="12" t="n">
         <x:v>0</x:v>
@@ -5575,16 +5575,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L86" s="12" t="n">
-        <x:v>112.230666666641</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M86" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N86" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>27.444375000021</x:v>
       </x:c>
       <x:c r="O86" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>551.428208333266</x:v>
       </x:c>
       <x:c r="P86" s="12" t="n">
         <x:v>0</x:v>
@@ -5604,10 +5604,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="C87" s="11" t="n">
-        <x:v>28.0193511904716</x:v>
+        <x:v>35.4047857142869</x:v>
       </x:c>
       <x:c r="D87" s="11" t="n">
-        <x:v>567285.914833335</x:v>
+        <x:v>863959.061937498</x:v>
       </x:c>
       <x:c r="E87" s="11" t="s"/>
       <x:c r="F87" s="12" t="n">
@@ -5617,10 +5617,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H87" s="12" t="n">
-        <x:v>101.795916666626</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I87" s="12" t="n">
-        <x:v>290.474999999977</x:v>
+        <x:v>383.436333333375</x:v>
       </x:c>
       <x:c r="J87" s="12" t="n">
         <x:v>0</x:v>
@@ -5629,7 +5629,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L87" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>112.230666666641</x:v>
       </x:c>
       <x:c r="M87" s="12" t="n">
         <x:v>0</x:v>
@@ -5658,10 +5658,10 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="C88" s="11" t="n">
-        <x:v>20.2425952380914</x:v>
+        <x:v>28.0193511904716</x:v>
       </x:c>
       <x:c r="D88" s="11" t="n">
-        <x:v>383000.369916667</x:v>
+        <x:v>567285.914833335</x:v>
       </x:c>
       <x:c r="E88" s="11" t="s"/>
       <x:c r="F88" s="12" t="n">
@@ -5671,13 +5671,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H88" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>101.795916666626</x:v>
       </x:c>
       <x:c r="I88" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>290.474999999977</x:v>
       </x:c>
       <x:c r="J88" s="12" t="n">
-        <x:v>266.867333333299</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K88" s="12" t="n">
         <x:v>0</x:v>
@@ -5698,7 +5698,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q88" s="12" t="n">
-        <x:v>16.5289999999804</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R88" s="12" t="n">
         <x:v>0</x:v>
@@ -5712,10 +5712,10 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="C89" s="11" t="n">
-        <x:v>16.315726190477</x:v>
+        <x:v>20.2425952380914</x:v>
       </x:c>
       <x:c r="D89" s="11" t="n">
-        <x:v>387099.9305</x:v>
+        <x:v>383000.369916667</x:v>
       </x:c>
       <x:c r="E89" s="11" t="s"/>
       <x:c r="F89" s="12" t="n">
@@ -5731,13 +5731,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J89" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>266.867333333299</x:v>
       </x:c>
       <x:c r="K89" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L89" s="12" t="n">
-        <x:v>228.420166666678</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M89" s="12" t="n">
         <x:v>0</x:v>
@@ -5752,7 +5752,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q89" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>16.5289999999804</x:v>
       </x:c>
       <x:c r="R89" s="12" t="n">
         <x:v>0</x:v>
@@ -5766,10 +5766,10 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="C90" s="11" t="n">
-        <x:v>16.0157440476053</x:v>
+        <x:v>16.315726190477</x:v>
       </x:c>
       <x:c r="D90" s="11" t="n">
-        <x:v>1297679.25404166</x:v>
+        <x:v>387099.9305</x:v>
       </x:c>
       <x:c r="E90" s="11" t="s"/>
       <x:c r="F90" s="12" t="n">
@@ -5791,7 +5791,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L90" s="12" t="n">
-        <x:v>65.2574999998324</x:v>
+        <x:v>228.420166666678</x:v>
       </x:c>
       <x:c r="M90" s="12" t="n">
         <x:v>0</x:v>
@@ -5800,13 +5800,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O90" s="12" t="n">
-        <x:v>31.6314166667871</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P90" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q90" s="12" t="n">
-        <x:v>127.331499999855</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R90" s="12" t="n">
         <x:v>0</x:v>
@@ -5874,10 +5874,10 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="C92" s="11" t="n">
-        <x:v>3.26822619047848</x:v>
+        <x:v>3.94388095237914</x:v>
       </x:c>
       <x:c r="D92" s="11" t="n">
-        <x:v>517145.847104166</x:v>
+        <x:v>1844692.98931251</x:v>
       </x:c>
       <x:c r="E92" s="11" t="s"/>
       <x:c r="F92" s="12" t="n">
@@ -5890,7 +5890,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I92" s="12" t="n">
-        <x:v>31.6833333333489</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J92" s="12" t="n">
         <x:v>0</x:v>
@@ -5899,7 +5899,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L92" s="12" t="n">
-        <x:v>14.0718333333498</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M92" s="12" t="n">
         <x:v>0</x:v>
@@ -5908,7 +5908,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O92" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1.04600000008941</x:v>
       </x:c>
       <x:c r="P92" s="12" t="n">
         <x:v>0</x:v>
@@ -5917,7 +5917,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R92" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>54.1683333332185</x:v>
       </x:c>
       <x:c r="S92" s="12" t="n">
         <x:v>0</x:v>
@@ -5928,10 +5928,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="C93" s="11" t="n">
-        <x:v>2.03842261905084</x:v>
+        <x:v>3.26822619047848</x:v>
       </x:c>
       <x:c r="D93" s="11" t="n">
-        <x:v>382952.942958333</x:v>
+        <x:v>517145.847104166</x:v>
       </x:c>
       <x:c r="E93" s="11" t="s"/>
       <x:c r="F93" s="12" t="n">
@@ -5944,16 +5944,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I93" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>31.6833333333489</x:v>
       </x:c>
       <x:c r="J93" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K93" s="12" t="n">
-        <x:v>28.5379166667117</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L93" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>14.0718333333498</x:v>
       </x:c>
       <x:c r="M93" s="12" t="n">
         <x:v>0</x:v>
@@ -5982,10 +5982,10 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="C94" s="11" t="n">
-        <x:v>0.0747142857206722</x:v>
+        <x:v>2.03842261905084</x:v>
       </x:c>
       <x:c r="D94" s="11" t="n">
-        <x:v>1844638.82097918</x:v>
+        <x:v>382952.942958333</x:v>
       </x:c>
       <x:c r="E94" s="11" t="s"/>
       <x:c r="F94" s="12" t="n">
@@ -6004,7 +6004,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K94" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>28.5379166667117</x:v>
       </x:c>
       <x:c r="L94" s="12" t="n">
         <x:v>0</x:v>
@@ -6016,7 +6016,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O94" s="12" t="n">
-        <x:v>1.04600000008941</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P94" s="12" t="n">
         <x:v>0</x:v>
@@ -6471,7 +6471,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D103" s="11" t="n">
-        <x:v>207138.622208333</x:v>
+        <x:v>403038.964833334</x:v>
       </x:c>
       <x:c r="E103" s="11" t="s"/>
       <x:c r="F103" s="12" t="n">
@@ -6579,7 +6579,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D105" s="11" t="n">
-        <x:v>466753.78125</x:v>
+        <x:v>475360.231166668</x:v>
       </x:c>
       <x:c r="E105" s="11" t="s"/>
       <x:c r="F105" s="12" t="n">
@@ -6795,7 +6795,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D109" s="11" t="n">
-        <x:v>174619.634833333</x:v>
+        <x:v>213039.1185</x:v>
       </x:c>
       <x:c r="E109" s="11" t="s"/>
       <x:c r="F109" s="12" t="n">
@@ -6849,7 +6849,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D110" s="11" t="n">
-        <x:v>308090.149</x:v>
+        <x:v>207138.622208333</x:v>
       </x:c>
       <x:c r="E110" s="11" t="s"/>
       <x:c r="F110" s="12" t="n">
@@ -6957,7 +6957,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D112" s="11" t="n">
-        <x:v>645304.742166665</x:v>
+        <x:v>209817.863833333</x:v>
       </x:c>
       <x:c r="E112" s="11" t="s"/>
       <x:c r="F112" s="12" t="n">
@@ -7065,7 +7065,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D114" s="11" t="n">
-        <x:v>193226.586125</x:v>
+        <x:v>210192.129916667</x:v>
       </x:c>
       <x:c r="E114" s="11" t="s"/>
       <x:c r="F114" s="12" t="n">
@@ -7173,7 +7173,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D116" s="11" t="n">
-        <x:v>283101.358541666</x:v>
+        <x:v>466753.78125</x:v>
       </x:c>
       <x:c r="E116" s="11" t="s"/>
       <x:c r="F116" s="12" t="n">
@@ -7227,7 +7227,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D117" s="11" t="n">
-        <x:v>257550.730166667</x:v>
+        <x:v>645304.742166665</x:v>
       </x:c>
       <x:c r="E117" s="11" t="s"/>
       <x:c r="F117" s="12" t="n">
@@ -7281,7 +7281,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D118" s="11" t="n">
-        <x:v>209817.863833333</x:v>
+        <x:v>260175.305666667</x:v>
       </x:c>
       <x:c r="E118" s="11" t="s"/>
       <x:c r="F118" s="12" t="n">
@@ -7389,7 +7389,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D120" s="11" t="n">
-        <x:v>324821.280791665</x:v>
+        <x:v>250958.370541667</x:v>
       </x:c>
       <x:c r="E120" s="11" t="s"/>
       <x:c r="F120" s="12" t="n">
@@ -7443,7 +7443,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D121" s="11" t="n">
-        <x:v>179109.026041667</x:v>
+        <x:v>193226.586125</x:v>
       </x:c>
       <x:c r="E121" s="11" t="s"/>
       <x:c r="F121" s="12" t="n">
@@ -7497,7 +7497,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D122" s="11" t="n">
-        <x:v>249042.324666667</x:v>
+        <x:v>227180.829625</x:v>
       </x:c>
       <x:c r="E122" s="11" t="s"/>
       <x:c r="F122" s="12" t="n">
@@ -7551,7 +7551,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D123" s="11" t="n">
-        <x:v>635415.365583332</x:v>
+        <x:v>255085.099375</x:v>
       </x:c>
       <x:c r="E123" s="11" t="s"/>
       <x:c r="F123" s="12" t="n">
@@ -7605,7 +7605,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D124" s="11" t="n">
-        <x:v>403038.964833334</x:v>
+        <x:v>246500.265375</x:v>
       </x:c>
       <x:c r="E124" s="11" t="s"/>
       <x:c r="F124" s="12" t="n">
@@ -7713,7 +7713,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D126" s="11" t="n">
-        <x:v>326939.018708334</x:v>
+        <x:v>270289.171875</x:v>
       </x:c>
       <x:c r="E126" s="11" t="s"/>
       <x:c r="F126" s="12" t="n">
@@ -7767,7 +7767,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D127" s="11" t="n">
-        <x:v>669595.484374998</x:v>
+        <x:v>253245.953458333</x:v>
       </x:c>
       <x:c r="E127" s="11" t="s"/>
       <x:c r="F127" s="12" t="n">
@@ -7821,7 +7821,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D128" s="11" t="n">
-        <x:v>292651.450083333</x:v>
+        <x:v>635415.365583332</x:v>
       </x:c>
       <x:c r="E128" s="11" t="s"/>
       <x:c r="F128" s="12" t="n">
@@ -7875,7 +7875,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D129" s="11" t="n">
-        <x:v>407859.607458333</x:v>
+        <x:v>257550.730166667</x:v>
       </x:c>
       <x:c r="E129" s="11" t="s"/>
       <x:c r="F129" s="12" t="n">
@@ -7929,7 +7929,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D130" s="11" t="n">
-        <x:v>461802.828666666</x:v>
+        <x:v>240044.163416667</x:v>
       </x:c>
       <x:c r="E130" s="11" t="s"/>
       <x:c r="F130" s="12" t="n">
@@ -7983,7 +7983,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D131" s="11" t="n">
-        <x:v>919064.963375</x:v>
+        <x:v>669595.484374998</x:v>
       </x:c>
       <x:c r="E131" s="11" t="s"/>
       <x:c r="F131" s="12" t="n">
@@ -8037,7 +8037,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D132" s="11" t="n">
-        <x:v>1100475.03258333</x:v>
+        <x:v>263387.075708333</x:v>
       </x:c>
       <x:c r="E132" s="11" t="s"/>
       <x:c r="F132" s="12" t="n">
@@ -8091,7 +8091,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D133" s="11" t="n">
-        <x:v>253245.953458333</x:v>
+        <x:v>440347.007958334</x:v>
       </x:c>
       <x:c r="E133" s="11" t="s"/>
       <x:c r="F133" s="12" t="n">
@@ -8145,7 +8145,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D134" s="11" t="n">
-        <x:v>475360.231166668</x:v>
+        <x:v>919064.963375</x:v>
       </x:c>
       <x:c r="E134" s="11" t="s"/>
       <x:c r="F134" s="12" t="n">
@@ -8199,7 +8199,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D135" s="11" t="n">
-        <x:v>210192.129916667</x:v>
+        <x:v>1100475.03258333</x:v>
       </x:c>
       <x:c r="E135" s="11" t="s"/>
       <x:c r="F135" s="12" t="n">
@@ -8253,7 +8253,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D136" s="11" t="n">
-        <x:v>873845.064708336</x:v>
+        <x:v>249042.324666667</x:v>
       </x:c>
       <x:c r="E136" s="11" t="s"/>
       <x:c r="F136" s="12" t="n">
@@ -8307,7 +8307,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D137" s="11" t="n">
-        <x:v>270289.171875</x:v>
+        <x:v>742793.818104166</x:v>
       </x:c>
       <x:c r="E137" s="11" t="s"/>
       <x:c r="F137" s="12" t="n">
@@ -8361,7 +8361,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D138" s="11" t="n">
-        <x:v>260175.305666667</x:v>
+        <x:v>873845.064708336</x:v>
       </x:c>
       <x:c r="E138" s="11" t="s"/>
       <x:c r="F138" s="12" t="n">
@@ -8415,7 +8415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D139" s="11" t="n">
-        <x:v>525375.975875</x:v>
+        <x:v>421523.763749999</x:v>
       </x:c>
       <x:c r="E139" s="11" t="s"/>
       <x:c r="F139" s="12" t="n">
@@ -8469,7 +8469,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D140" s="11" t="n">
-        <x:v>333598.190083334</x:v>
+        <x:v>308090.149</x:v>
       </x:c>
       <x:c r="E140" s="11" t="s"/>
       <x:c r="F140" s="12" t="n">
@@ -8523,7 +8523,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D141" s="11" t="n">
-        <x:v>250958.370541667</x:v>
+        <x:v>174619.634833333</x:v>
       </x:c>
       <x:c r="E141" s="11" t="s"/>
       <x:c r="F141" s="12" t="n">
@@ -8577,7 +8577,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D142" s="11" t="n">
-        <x:v>1087529.16483333</x:v>
+        <x:v>283101.358541666</x:v>
       </x:c>
       <x:c r="E142" s="11" t="s"/>
       <x:c r="F142" s="12" t="n">
@@ -8631,7 +8631,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D143" s="11" t="n">
-        <x:v>1266579.41916666</x:v>
+        <x:v>1087529.16483333</x:v>
       </x:c>
       <x:c r="E143" s="11" t="s"/>
       <x:c r="F143" s="12" t="n">
@@ -8685,7 +8685,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D144" s="11" t="n">
-        <x:v>227180.829625</x:v>
+        <x:v>324821.280791665</x:v>
       </x:c>
       <x:c r="E144" s="11" t="s"/>
       <x:c r="F144" s="12" t="n">
@@ -8739,7 +8739,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D145" s="11" t="n">
-        <x:v>1665655.5756875</x:v>
+        <x:v>1266579.41916666</x:v>
       </x:c>
       <x:c r="E145" s="11" t="s"/>
       <x:c r="F145" s="12" t="n">
@@ -8793,7 +8793,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D146" s="11" t="n">
-        <x:v>229525.470375</x:v>
+        <x:v>1665655.5756875</x:v>
       </x:c>
       <x:c r="E146" s="11" t="s"/>
       <x:c r="F146" s="12" t="n">
@@ -8847,7 +8847,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D147" s="11" t="n">
-        <x:v>1711238.508</x:v>
+        <x:v>326939.018708334</x:v>
       </x:c>
       <x:c r="E147" s="11" t="s"/>
       <x:c r="F147" s="12" t="n">
@@ -8901,7 +8901,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D148" s="11" t="n">
-        <x:v>255085.099375</x:v>
+        <x:v>1711238.508</x:v>
       </x:c>
       <x:c r="E148" s="11" t="s"/>
       <x:c r="F148" s="12" t="n">
@@ -9009,7 +9009,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D150" s="11" t="n">
-        <x:v>240044.163416667</x:v>
+        <x:v>292651.450083333</x:v>
       </x:c>
       <x:c r="E150" s="11" t="s"/>
       <x:c r="F150" s="12" t="n">
@@ -9063,7 +9063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D151" s="11" t="n">
-        <x:v>395588.127916667</x:v>
+        <x:v>179109.026041667</x:v>
       </x:c>
       <x:c r="E151" s="11" t="s"/>
       <x:c r="F151" s="12" t="n">
@@ -9117,7 +9117,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D152" s="11" t="n">
-        <x:v>263387.075708333</x:v>
+        <x:v>407859.607458333</x:v>
       </x:c>
       <x:c r="E152" s="11" t="s"/>
       <x:c r="F152" s="12" t="n">
@@ -9171,7 +9171,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D153" s="11" t="n">
-        <x:v>213039.1185</x:v>
+        <x:v>461802.828666666</x:v>
       </x:c>
       <x:c r="E153" s="11" t="s"/>
       <x:c r="F153" s="12" t="n">
@@ -9225,7 +9225,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D154" s="11" t="n">
-        <x:v>246500.265375</x:v>
+        <x:v>229525.470375</x:v>
       </x:c>
       <x:c r="E154" s="11" t="s"/>
       <x:c r="F154" s="12" t="n">
@@ -9279,7 +9279,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D155" s="11" t="n">
-        <x:v>421523.763749999</x:v>
+        <x:v>525375.975875</x:v>
       </x:c>
       <x:c r="E155" s="11" t="s"/>
       <x:c r="F155" s="12" t="n">
@@ -9333,7 +9333,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D156" s="11" t="n">
-        <x:v>742793.818104166</x:v>
+        <x:v>395588.127916667</x:v>
       </x:c>
       <x:c r="E156" s="11" t="s"/>
       <x:c r="F156" s="12" t="n">
@@ -9387,7 +9387,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D157" s="11" t="n">
-        <x:v>440347.007958334</x:v>
+        <x:v>333598.190083334</x:v>
       </x:c>
       <x:c r="E157" s="11" t="s"/>
       <x:c r="F157" s="12" t="n">

--- a/Dashboards-test/Clan Leaderboard.xlsx
+++ b/Dashboards-test/Clan Leaderboard.xlsx
@@ -16,7 +16,7 @@
     <x:sheet name="XP Per Day" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="Clans_tpl" localSheetId="0">'XP Per Day'!$A$2:$F$101</x:definedName>
+    <x:definedName name="Clans_tpl" localSheetId="0">'XP Per Day'!$A$2:$F$106</x:definedName>
     <x:definedName name="Clans_XP_tpl" localSheetId="0">'XP Per Day'!$F$2:$F$2</x:definedName>
     <x:definedName name="Dates_tpl" localSheetId="0">'XP Per Day'!$F$1:$F$1</x:definedName>
   </x:definedNames>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <x:si>
     <x:t>Clan</x:t>
   </x:si>
@@ -75,304 +75,319 @@
     <x:t>Days until catchup</x:t>
   </x:si>
   <x:si>
+    <x:t>DID</x:t>
+  </x:si>
+  <x:si>
     <x:t>RIOT</x:t>
   </x:si>
   <x:si>
     <x:t>MERC</x:t>
   </x:si>
   <x:si>
+    <x:t>STEVE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SIEGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VOX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LEGEND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUCK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AIE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MERC2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPEEDY</x:t>
+  </x:si>
+  <x:si>
     <x:t>ZR</x:t>
   </x:si>
   <x:si>
+    <x:t>SWEAT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOAH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARCTIC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RG4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARSNAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SKILL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POTATO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DRONE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIOT2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACTION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEESH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IRIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAGUAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DIDNOT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RP2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BRAVE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EARTH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROZE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELITES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GBB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GECKO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TANKE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARCEUS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STAIN</x:t>
+  </x:si>
+  <x:si>
     <x:t>FOLDIN</x:t>
   </x:si>
   <x:si>
-    <x:t>E8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SPEEDY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MERC2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SKILL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SIEGE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROZE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LUCK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RP</x:t>
-  </x:si>
-  <x:si>
     <x:t>KRYPTO</x:t>
   </x:si>
   <x:si>
-    <x:t>DRONE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>STEVE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INQ</x:t>
+    <x:t>BLESS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MERCX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1BOMB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GUNDAM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SICK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SV</x:t>
   </x:si>
   <x:si>
     <x:t>SENTRY</x:t>
   </x:si>
   <x:si>
-    <x:t>AIE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GUNDAM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RP2</x:t>
+    <x:t>WARCAT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELTIMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S0NG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3ANANA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIYS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JKRZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCHYPX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IMPRO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BANANA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DUMDUM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GHOSTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6B</x:t>
   </x:si>
   <x:si>
     <x:t>ZEMFR</x:t>
   </x:si>
   <x:si>
-    <x:t>ARCTIC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BANANA</x:t>
+    <x:t>LATAM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOLD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COYOTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TDK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CRACKS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PBTG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OWO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LESSGO</x:t>
   </x:si>
   <x:si>
     <x:t>CAVERA</x:t>
   </x:si>
   <x:si>
-    <x:t>VOX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ACTION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RIOT2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SWEAT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FAST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GBB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POTATO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GHOSTS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ELITES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S0NG</x:t>
+    <x:t>PIXEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUNS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FANART</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BENDY</x:t>
   </x:si>
   <x:si>
     <x:t>JSK</x:t>
   </x:si>
   <x:si>
-    <x:t>ELTIMA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COYOTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WR</x:t>
+    <x:t>ZERO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WARIOR</x:t>
   </x:si>
   <x:si>
     <x:t>CVE</x:t>
   </x:si>
   <x:si>
-    <x:t>MEESH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIYS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IMPRO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TDK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EARTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IRIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOAH</x:t>
+    <x:t>BOIZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOVA</x:t>
   </x:si>
   <x:si>
     <x:t>RIES</x:t>
   </x:si>
   <x:si>
-    <x:t>GTA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>STAIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OWO</x:t>
+    <x:t>WHAMMM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SMILER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KILLIN</x:t>
   </x:si>
   <x:si>
     <x:t>FUTURE</x:t>
   </x:si>
   <x:si>
-    <x:t>BLESS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CRACKS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ARSNAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOVA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MERCX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DIDNOT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BRAVE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ARCEUS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JKRZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHAMMM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LESSGO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RG4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TANKE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DUMDUM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VIET</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PBTG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GOLD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>F35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1BOMB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOIZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3ANANA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MEX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZERO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FANART</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LATAM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GECKO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SUNS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JAGUAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WARIOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PIXEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TINY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SICK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BENDY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCHYPX</x:t>
+    <x:t>BOOM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -771,7 +786,7 @@
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="1" width="11" style="0" hidden="1" customWidth="1"/>
-    <x:col min="2" max="2" width="12.550625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="11.820625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="15.710938" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="15.425781" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="17.285156" style="0" customWidth="1"/>
@@ -793,46 +808,46 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1" s="9">
-        <x:v>44559</x:v>
+        <x:v>44568</x:v>
       </x:c>
       <x:c r="G1" s="9">
-        <x:v>44560</x:v>
+        <x:v>44569</x:v>
       </x:c>
       <x:c r="H1" s="9">
-        <x:v>44561</x:v>
+        <x:v>44570</x:v>
       </x:c>
       <x:c r="I1" s="9">
-        <x:v>44562</x:v>
+        <x:v>44571</x:v>
       </x:c>
       <x:c r="J1" s="9">
-        <x:v>44563</x:v>
+        <x:v>44572</x:v>
       </x:c>
       <x:c r="K1" s="9">
-        <x:v>44564</x:v>
+        <x:v>44573</x:v>
       </x:c>
       <x:c r="L1" s="9">
-        <x:v>44565</x:v>
+        <x:v>44574</x:v>
       </x:c>
       <x:c r="M1" s="9">
-        <x:v>44566</x:v>
+        <x:v>44575</x:v>
       </x:c>
       <x:c r="N1" s="9">
-        <x:v>44567</x:v>
+        <x:v>44576</x:v>
       </x:c>
       <x:c r="O1" s="9">
-        <x:v>44568</x:v>
+        <x:v>44577</x:v>
       </x:c>
       <x:c r="P1" s="9">
-        <x:v>44569</x:v>
+        <x:v>44578</x:v>
       </x:c>
       <x:c r="Q1" s="9">
-        <x:v>44570</x:v>
+        <x:v>44579</x:v>
       </x:c>
       <x:c r="R1" s="9">
-        <x:v>44571</x:v>
+        <x:v>44580</x:v>
       </x:c>
       <x:c r="S1" s="9">
-        <x:v>44572</x:v>
+        <x:v>44581</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:146" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -840,12 +855,14 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>105354.681546126</x:v>
       </x:c>
       <x:c r="D2" s="11" t="n">
-        <x:v>39494000.5671664</x:v>
-      </x:c>
-      <x:c r="E2" s="11" t="s"/>
+        <x:v>16168321.6226664</x:v>
+      </x:c>
+      <x:c r="E2" s="11" t="n">
+        <x:v>643.336152043395</x:v>
+      </x:c>
       <x:c r="F2" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -862,31 +879,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K2" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>222849.280416654</x:v>
       </x:c>
       <x:c r="L2" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>175043.613916649</x:v>
       </x:c>
       <x:c r="M2" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>118602.944854163</x:v>
       </x:c>
       <x:c r="N2" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>135914.768812478</x:v>
       </x:c>
       <x:c r="O2" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>47977.8439166658</x:v>
       </x:c>
       <x:c r="P2" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>81101.0021875016</x:v>
       </x:c>
       <x:c r="Q2" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R2" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>525544.506624989</x:v>
       </x:c>
       <x:c r="S2" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>167931.580916658</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -894,10 +911,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>68557.7047931589</x:v>
       </x:c>
       <x:c r="D3" s="11" t="n">
-        <x:v>33149894.9405418</x:v>
+        <x:v>40453808.4342707</x:v>
       </x:c>
       <x:c r="E3" s="11" t="s"/>
       <x:c r="F3" s="12" t="n">
@@ -916,31 +933,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K3" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>144283.255729079</x:v>
       </x:c>
       <x:c r="L3" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>145314.520020902</x:v>
       </x:c>
       <x:c r="M3" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>91591.8590625152</x:v>
       </x:c>
       <x:c r="N3" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>63066.8932083398</x:v>
       </x:c>
       <x:c r="O3" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>56504.8047708124</x:v>
       </x:c>
       <x:c r="P3" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>86918.4428333417</x:v>
       </x:c>
       <x:c r="Q3" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R3" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>228129.715270884</x:v>
       </x:c>
       <x:c r="S3" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>143998.37620835</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -948,12 +965,14 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>68082.3897008853</x:v>
       </x:c>
       <x:c r="D4" s="11" t="n">
-        <x:v>23848930.7235622</x:v>
-      </x:c>
-      <x:c r="E4" s="11" t="s"/>
+        <x:v>34103048.3963542</x:v>
+      </x:c>
+      <x:c r="E4" s="11" t="n">
+        <x:v>2094.17139541134</x:v>
+      </x:c>
       <x:c r="F4" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -970,31 +989,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K4" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>117795.709854174</x:v>
       </x:c>
       <x:c r="L4" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>174753.101687502</x:v>
       </x:c>
       <x:c r="M4" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>130182.42058336</x:v>
       </x:c>
       <x:c r="N4" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>94086.2677291855</x:v>
       </x:c>
       <x:c r="O4" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>82810.0410207585</x:v>
       </x:c>
       <x:c r="P4" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>77986.8538333476</x:v>
       </x:c>
       <x:c r="Q4" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R4" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>177334.471999936</x:v>
       </x:c>
       <x:c r="S4" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>98204.5891041309</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1002,10 +1021,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>40981.8051696418</x:v>
       </x:c>
       <x:c r="D5" s="11" t="n">
-        <x:v>20422678.3593541</x:v>
+        <x:v>5917256.39877079</x:v>
       </x:c>
       <x:c r="E5" s="11" t="s"/>
       <x:c r="F5" s="12" t="n">
@@ -1024,31 +1043,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K5" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>51954.5209583296</x:v>
       </x:c>
       <x:c r="L5" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>21277.1519999998</x:v>
       </x:c>
       <x:c r="M5" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>69104.6992499968</x:v>
       </x:c>
       <x:c r="N5" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>80601.5803541644</x:v>
       </x:c>
       <x:c r="O5" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>14102.4644583287</x:v>
       </x:c>
       <x:c r="P5" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>99434.4944791608</x:v>
       </x:c>
       <x:c r="Q5" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R5" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>154001.855541675</x:v>
       </x:c>
       <x:c r="S5" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>83268.5053333296</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1056,10 +1075,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C6" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>25181.0927053582</x:v>
       </x:c>
       <x:c r="D6" s="11" t="n">
-        <x:v>17422396.373229</x:v>
+        <x:v>7980448.99456253</x:v>
       </x:c>
       <x:c r="E6" s="11" t="s"/>
       <x:c r="F6" s="12" t="n">
@@ -1078,31 +1097,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K6" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>22484.8866041722</x:v>
       </x:c>
       <x:c r="L6" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>43463.0898541715</x:v>
       </x:c>
       <x:c r="M6" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>42199.0733541641</x:v>
       </x:c>
       <x:c r="N6" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>60112.623041667</x:v>
       </x:c>
       <x:c r="O6" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>15356.2527916683</x:v>
       </x:c>
       <x:c r="P6" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>34375.8115416626</x:v>
       </x:c>
       <x:c r="Q6" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R6" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>81099.9871458365</x:v>
       </x:c>
       <x:c r="S6" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>53443.573541672</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1110,10 +1129,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C7" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>24022.4894776776</x:v>
       </x:c>
       <x:c r="D7" s="11" t="n">
-        <x:v>16228045.6691667</x:v>
+        <x:v>4317394.88545832</x:v>
       </x:c>
       <x:c r="E7" s="11" t="s"/>
       <x:c r="F7" s="12" t="n">
@@ -1132,31 +1151,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K7" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>30721.5997500001</x:v>
       </x:c>
       <x:c r="L7" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>45949.4913125006</x:v>
       </x:c>
       <x:c r="M7" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>40204.6533541661</x:v>
       </x:c>
       <x:c r="N7" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>61598.3029375002</x:v>
       </x:c>
       <x:c r="O7" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>20932.2833333337</x:v>
       </x:c>
       <x:c r="P7" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>31051.0467916643</x:v>
       </x:c>
       <x:c r="Q7" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R7" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>59266.7812291533</x:v>
       </x:c>
       <x:c r="S7" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>46590.6939791683</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1164,10 +1183,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>23495.7221279747</x:v>
       </x:c>
       <x:c r="D8" s="11" t="n">
-        <x:v>14693356.0810206</x:v>
+        <x:v>6192704.58356251</x:v>
       </x:c>
       <x:c r="E8" s="11" t="s"/>
       <x:c r="F8" s="12" t="n">
@@ -1186,31 +1205,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K8" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>57036.4694166603</x:v>
       </x:c>
       <x:c r="L8" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>30049.3148541646</x:v>
       </x:c>
       <x:c r="M8" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>16469.1981666628</x:v>
       </x:c>
       <x:c r="N8" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>41948.710208334</x:v>
       </x:c>
       <x:c r="O8" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5719.45858333167</x:v>
       </x:c>
       <x:c r="P8" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>22406.2104374971</x:v>
       </x:c>
       <x:c r="Q8" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R8" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>126386.704083327</x:v>
       </x:c>
       <x:c r="S8" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>28924.0440416681</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1218,10 +1237,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>22470.0187619048</x:v>
       </x:c>
       <x:c r="D9" s="11" t="n">
-        <x:v>10902018.0545832</x:v>
+        <x:v>1054105.2485</x:v>
       </x:c>
       <x:c r="E9" s="11" t="s"/>
       <x:c r="F9" s="12" t="n">
@@ -1246,25 +1265,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M9" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>27157.9890625</x:v>
       </x:c>
       <x:c r="N9" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>40142.4274583334</x:v>
       </x:c>
       <x:c r="O9" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>49822.908604166</x:v>
       </x:c>
       <x:c r="P9" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>84444.0206458336</x:v>
       </x:c>
       <x:c r="Q9" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R9" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>79634.2746875</x:v>
       </x:c>
       <x:c r="S9" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>33378.6422083342</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1272,10 +1291,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>18770.4846979168</x:v>
       </x:c>
       <x:c r="D10" s="11" t="n">
-        <x:v>8311123.52631252</x:v>
+        <x:v>2545124.09327083</x:v>
       </x:c>
       <x:c r="E10" s="11" t="s"/>
       <x:c r="F10" s="12" t="n">
@@ -1294,31 +1313,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K10" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6232.04045833228</x:v>
       </x:c>
       <x:c r="L10" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2684.54550000001</x:v>
       </x:c>
       <x:c r="M10" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>9246.54174999939</x:v>
       </x:c>
       <x:c r="N10" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>10199.4167499994</x:v>
       </x:c>
       <x:c r="O10" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>9578.28693750175</x:v>
       </x:c>
       <x:c r="P10" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>78216.3716041693</x:v>
       </x:c>
       <x:c r="Q10" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R10" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>112173.995562502</x:v>
       </x:c>
       <x:c r="S10" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>34455.5872083311</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1326,10 +1345,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C11" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>18081.140235119</x:v>
       </x:c>
       <x:c r="D11" s="11" t="n">
-        <x:v>8159295.9892916</x:v>
+        <x:v>1269006.43652083</x:v>
       </x:c>
       <x:c r="E11" s="11" t="s"/>
       <x:c r="F11" s="12" t="n">
@@ -1348,31 +1367,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K11" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>17440.1775416663</x:v>
       </x:c>
       <x:c r="L11" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>31081.5130416674</x:v>
       </x:c>
       <x:c r="M11" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>25038.7742708335</x:v>
       </x:c>
       <x:c r="N11" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>41015.3565416657</x:v>
       </x:c>
       <x:c r="O11" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>27481.5699999998</x:v>
       </x:c>
       <x:c r="P11" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>23955.3903749995</x:v>
       </x:c>
       <x:c r="Q11" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R11" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>50579.7185625003</x:v>
       </x:c>
       <x:c r="S11" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>36543.4629583333</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1380,10 +1399,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C12" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>17719.0636875012</x:v>
       </x:c>
       <x:c r="D12" s="11" t="n">
-        <x:v>7627913.69668752</x:v>
+        <x:v>17670463.2648541</x:v>
       </x:c>
       <x:c r="E12" s="11" t="s"/>
       <x:c r="F12" s="12" t="n">
@@ -1402,31 +1421,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K12" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>22411.9596666768</x:v>
       </x:c>
       <x:c r="L12" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>30004.9063958228</x:v>
       </x:c>
       <x:c r="M12" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>23470.3681250066</x:v>
       </x:c>
       <x:c r="N12" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>33929.227000013</x:v>
       </x:c>
       <x:c r="O12" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>59115.2605833448</x:v>
       </x:c>
       <x:c r="P12" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>9859.82775000483</x:v>
       </x:c>
       <x:c r="Q12" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R12" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>45156.8846874908</x:v>
       </x:c>
       <x:c r="S12" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>24118.4574166574</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1434,10 +1453,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C13" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>17403.7674002965</x:v>
       </x:c>
       <x:c r="D13" s="11" t="n">
-        <x:v>6997016.33106248</x:v>
+        <x:v>6775939.61614578</x:v>
       </x:c>
       <x:c r="E13" s="11" t="s"/>
       <x:c r="F13" s="12" t="n">
@@ -1456,31 +1475,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K13" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>60139.4449791647</x:v>
       </x:c>
       <x:c r="L13" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>25878.3716666661</x:v>
       </x:c>
       <x:c r="M13" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>15052.9236458279</x:v>
       </x:c>
       <x:c r="N13" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>40101.7361250008</x:v>
       </x:c>
       <x:c r="O13" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>15714.8021249957</x:v>
       </x:c>
       <x:c r="P13" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>23388.2475208351</x:v>
       </x:c>
       <x:c r="Q13" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R13" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>42165.2629791629</x:v>
       </x:c>
       <x:c r="S13" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>21211.9545624983</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1488,10 +1507,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C14" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>17096.7666473203</x:v>
       </x:c>
       <x:c r="D14" s="11" t="n">
-        <x:v>6532286.87254163</x:v>
+        <x:v>5430223.7147916</x:v>
       </x:c>
       <x:c r="E14" s="11" t="s"/>
       <x:c r="F14" s="12" t="n">
@@ -1510,31 +1529,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K14" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>19033.4874374969</x:v>
       </x:c>
       <x:c r="L14" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8088.62393749785</x:v>
       </x:c>
       <x:c r="M14" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>36547.1967499992</x:v>
       </x:c>
       <x:c r="N14" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>30321.1844791695</x:v>
       </x:c>
       <x:c r="O14" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>20609.9751249952</x:v>
       </x:c>
       <x:c r="P14" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>30155.206708339</x:v>
       </x:c>
       <x:c r="Q14" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R14" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>69950.9259166559</x:v>
       </x:c>
       <x:c r="S14" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>24648.1327083306</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1542,10 +1561,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C15" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>17048.813269346</x:v>
       </x:c>
       <x:c r="D15" s="11" t="n">
-        <x:v>5863764.47377087</x:v>
+        <x:v>11140701.4403541</x:v>
       </x:c>
       <x:c r="E15" s="11" t="s"/>
       <x:c r="F15" s="12" t="n">
@@ -1564,31 +1583,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K15" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>39022.0777291767</x:v>
       </x:c>
       <x:c r="L15" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>23242.6292291656</x:v>
       </x:c>
       <x:c r="M15" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>13697.4411041662</x:v>
       </x:c>
       <x:c r="N15" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>24749.3556458354</x:v>
       </x:c>
       <x:c r="O15" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2976.37441666611</x:v>
       </x:c>
       <x:c r="P15" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>20348.8464374952</x:v>
       </x:c>
       <x:c r="Q15" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R15" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>75011.6650833376</x:v>
       </x:c>
       <x:c r="S15" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>39634.9961250015</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1596,10 +1615,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C16" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>16417.2056651793</x:v>
       </x:c>
       <x:c r="D16" s="11" t="n">
-        <x:v>5566351.94933336</x:v>
+        <x:v>8540964.40562503</x:v>
       </x:c>
       <x:c r="E16" s="11" t="s"/>
       <x:c r="F16" s="12" t="n">
@@ -1618,31 +1637,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K16" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>30314.8939374993</x:v>
       </x:c>
       <x:c r="L16" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>23004.1418541642</x:v>
       </x:c>
       <x:c r="M16" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>31250.5653124964</x:v>
       </x:c>
       <x:c r="N16" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>11806.064624995</x:v>
       </x:c>
       <x:c r="O16" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3973.55820833519</x:v>
       </x:c>
       <x:c r="P16" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5591.10662500188</x:v>
       </x:c>
       <x:c r="Q16" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R16" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>85706.6800416876</x:v>
       </x:c>
       <x:c r="S16" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>38193.8687083311</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1650,10 +1669,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C17" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>15732.1137113064</x:v>
       </x:c>
       <x:c r="D17" s="11" t="n">
-        <x:v>5499604.3203542</x:v>
+        <x:v>16448295.261125</x:v>
       </x:c>
       <x:c r="E17" s="11" t="s"/>
       <x:c r="F17" s="12" t="n">
@@ -1672,31 +1691,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K17" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>37798.7209791485</x:v>
       </x:c>
       <x:c r="L17" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>43474.3726249784</x:v>
       </x:c>
       <x:c r="M17" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>15322.0243333373</x:v>
       </x:c>
       <x:c r="N17" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>22436.9684583414</x:v>
       </x:c>
       <x:c r="O17" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>13975.0464374963</x:v>
       </x:c>
       <x:c r="P17" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6735.57291666977</x:v>
       </x:c>
       <x:c r="Q17" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R17" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>64631.5849999879</x:v>
       </x:c>
       <x:c r="S17" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>15875.3012083303</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1704,10 +1723,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C18" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>12708.2233244045</x:v>
       </x:c>
       <x:c r="D18" s="11" t="n">
-        <x:v>5343511.12639581</x:v>
+        <x:v>24026845.8501039</x:v>
       </x:c>
       <x:c r="E18" s="11" t="s"/>
       <x:c r="F18" s="12" t="n">
@@ -1726,31 +1745,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K18" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>18089.2283125073</x:v>
       </x:c>
       <x:c r="L18" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3363.55266667157</x:v>
       </x:c>
       <x:c r="M18" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>14183.8927500173</x:v>
       </x:c>
       <x:c r="N18" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>24956.0919583291</x:v>
       </x:c>
       <x:c r="O18" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>23565.9699374996</x:v>
       </x:c>
       <x:c r="P18" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>28316.5063333251</x:v>
       </x:c>
       <x:c r="Q18" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R18" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>57024.9449166507</x:v>
       </x:c>
       <x:c r="S18" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8414.93966666237</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1758,10 +1777,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C19" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>12665.5645967262</x:v>
       </x:c>
       <x:c r="D19" s="11" t="n">
-        <x:v>5332394.41777082</x:v>
+        <x:v>3411881.53375</x:v>
       </x:c>
       <x:c r="E19" s="11" t="s"/>
       <x:c r="F19" s="12" t="n">
@@ -1780,31 +1799,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K19" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>33900.2335624993</x:v>
       </x:c>
       <x:c r="L19" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>29826.1513749985</x:v>
       </x:c>
       <x:c r="M19" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>23054.6920416658</x:v>
       </x:c>
       <x:c r="N19" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>39685.5138958348</x:v>
       </x:c>
       <x:c r="O19" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1630.65404166654</x:v>
       </x:c>
       <x:c r="P19" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>820.680666667409</x:v>
       </x:c>
       <x:c r="Q19" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R19" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>37993.4099791665</x:v>
       </x:c>
       <x:c r="S19" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>10406.5687916684</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1812,10 +1831,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C20" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>11718.4065312498</x:v>
       </x:c>
       <x:c r="D20" s="11" t="n">
-        <x:v>5225103.55829171</x:v>
+        <x:v>1786488.53535416</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s"/>
       <x:c r="F20" s="12" t="n">
@@ -1834,31 +1853,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K20" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>19325.4726249992</x:v>
       </x:c>
       <x:c r="L20" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>12421.3493958337</x:v>
       </x:c>
       <x:c r="M20" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>14194.0565000006</x:v>
       </x:c>
       <x:c r="N20" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>16887.8525833327</x:v>
       </x:c>
       <x:c r="O20" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>14447.9898124998</x:v>
       </x:c>
       <x:c r="P20" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>21569.2623750004</x:v>
       </x:c>
       <x:c r="Q20" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R20" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>45965.5601874986</x:v>
       </x:c>
       <x:c r="S20" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>19246.1479583317</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1866,10 +1885,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C21" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>11423.2036830357</x:v>
       </x:c>
       <x:c r="D21" s="11" t="n">
-        <x:v>5190868.98172911</x:v>
+        <x:v>947082.643624999</x:v>
       </x:c>
       <x:c r="E21" s="11" t="s"/>
       <x:c r="F21" s="12" t="n">
@@ -1888,31 +1907,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K21" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>16722.0789583335</x:v>
       </x:c>
       <x:c r="L21" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6759.92791666661</x:v>
       </x:c>
       <x:c r="M21" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>10333.2583124997</x:v>
       </x:c>
       <x:c r="N21" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>17548.8327291666</x:v>
       </x:c>
       <x:c r="O21" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>12070.7303124999</x:v>
       </x:c>
       <x:c r="P21" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>16567.7977291668</x:v>
       </x:c>
       <x:c r="Q21" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R21" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>63992.2025624999</x:v>
       </x:c>
       <x:c r="S21" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>15930.0230416667</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1920,10 +1939,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C22" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>10890.8881517857</x:v>
       </x:c>
       <x:c r="D22" s="11" t="n">
-        <x:v>5071982.62660416</x:v>
+        <x:v>4808110.92429166</x:v>
       </x:c>
       <x:c r="E22" s="11" t="s"/>
       <x:c r="F22" s="12" t="n">
@@ -1942,31 +1961,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K22" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>23106.9959374992</x:v>
       </x:c>
       <x:c r="L22" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>25511.0971041648</x:v>
       </x:c>
       <x:c r="M22" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>16677.3476249976</x:v>
       </x:c>
       <x:c r="N22" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>17012.6241041692</x:v>
       </x:c>
       <x:c r="O22" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5190.00620833319</x:v>
       </x:c>
       <x:c r="P22" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6250.74808333162</x:v>
       </x:c>
       <x:c r="Q22" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R22" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>39640.9078750024</x:v>
       </x:c>
       <x:c r="S22" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>19082.7071875017</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -1974,10 +1993,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C23" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>9148.23513095334</x:v>
       </x:c>
       <x:c r="D23" s="11" t="n">
-        <x:v>5031860.79922913</x:v>
+        <x:v>5460469.70960416</x:v>
       </x:c>
       <x:c r="E23" s="11" t="s"/>
       <x:c r="F23" s="12" t="n">
@@ -1996,31 +2015,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K23" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>10668.372458335</x:v>
       </x:c>
       <x:c r="L23" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>25501.7459583385</x:v>
       </x:c>
       <x:c r="M23" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>29654.7169166673</x:v>
       </x:c>
       <x:c r="N23" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>12035.0042916695</x:v>
       </x:c>
       <x:c r="O23" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4905.64720833395</x:v>
       </x:c>
       <x:c r="P23" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5567.72162499931</x:v>
       </x:c>
       <x:c r="Q23" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R23" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>26247.7472500019</x:v>
       </x:c>
       <x:c r="S23" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>13494.3361250013</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2028,10 +2047,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C24" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>8745.06647172616</x:v>
       </x:c>
       <x:c r="D24" s="11" t="n">
-        <x:v>4783631.0046666</x:v>
+        <x:v>1220296.1225</x:v>
       </x:c>
       <x:c r="E24" s="11" t="s"/>
       <x:c r="F24" s="12" t="n">
@@ -2050,31 +2069,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K24" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>28921.079770833</x:v>
       </x:c>
       <x:c r="L24" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>16863.2221458338</x:v>
       </x:c>
       <x:c r="M24" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>15404.1532291658</x:v>
       </x:c>
       <x:c r="N24" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>12276.2589583336</x:v>
       </x:c>
       <x:c r="O24" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6888.97570833331</x:v>
       </x:c>
       <x:c r="P24" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3462.8056874997</x:v>
       </x:c>
       <x:c r="Q24" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R24" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>27295.1214999997</x:v>
       </x:c>
       <x:c r="S24" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>11319.3136041674</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2082,10 +2101,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C25" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>5518.77386755947</x:v>
       </x:c>
       <x:c r="D25" s="11" t="n">
-        <x:v>4655638.49016666</x:v>
+        <x:v>1312794.95322916</x:v>
       </x:c>
       <x:c r="E25" s="11" t="s"/>
       <x:c r="F25" s="12" t="n">
@@ -2104,31 +2123,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K25" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>11056.5915416665</x:v>
       </x:c>
       <x:c r="L25" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5264.1053958328</x:v>
       </x:c>
       <x:c r="M25" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5623.41824999987</x:v>
       </x:c>
       <x:c r="N25" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2563.43470833357</x:v>
       </x:c>
       <x:c r="O25" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3963.76183333318</x:v>
       </x:c>
       <x:c r="P25" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3122.72720833309</x:v>
       </x:c>
       <x:c r="Q25" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R25" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>24705.6197291659</x:v>
       </x:c>
       <x:c r="S25" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>20963.1754791676</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2136,10 +2155,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C26" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>5416.55470089296</x:v>
       </x:c>
       <x:c r="D26" s="11" t="n">
-        <x:v>4172165.46427085</x:v>
+        <x:v>8235127.7551041</x:v>
       </x:c>
       <x:c r="E26" s="11" t="s"/>
       <x:c r="F26" s="12" t="n">
@@ -2158,31 +2177,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K26" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>20906.1506458344</x:v>
       </x:c>
       <x:c r="L26" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6073.33054166753</x:v>
       </x:c>
       <x:c r="M26" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8545.29712500237</x:v>
       </x:c>
       <x:c r="N26" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2412.28308333177</x:v>
       </x:c>
       <x:c r="O26" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>499.840166666545</x:v>
       </x:c>
       <x:c r="P26" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5935.2592916647</x:v>
       </x:c>
       <x:c r="Q26" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R26" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>24801.8067500005</x:v>
       </x:c>
       <x:c r="S26" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6657.79820833355</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2190,10 +2209,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C27" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>5395.413532738</x:v>
       </x:c>
       <x:c r="D27" s="11" t="n">
-        <x:v>4016298.24308331</x:v>
+        <x:v>2756202.02074999</x:v>
       </x:c>
       <x:c r="E27" s="11" t="s"/>
       <x:c r="F27" s="12" t="n">
@@ -2212,31 +2231,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K27" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>10237.8441250008</x:v>
       </x:c>
       <x:c r="L27" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>18088.2377708321</x:v>
       </x:c>
       <x:c r="M27" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5010.71377083287</x:v>
       </x:c>
       <x:c r="N27" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>13468.1925208326</x:v>
       </x:c>
       <x:c r="O27" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5245.3836458344</x:v>
       </x:c>
       <x:c r="P27" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4212.34393750038</x:v>
       </x:c>
       <x:c r="Q27" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R27" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>15864.5070208334</x:v>
       </x:c>
       <x:c r="S27" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3408.56666666549</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2244,10 +2263,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C28" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>5320.58339136879</x:v>
       </x:c>
       <x:c r="D28" s="11" t="n">
-        <x:v>3981080.03277083</x:v>
+        <x:v>5574092.48783336</x:v>
       </x:c>
       <x:c r="E28" s="11" t="s"/>
       <x:c r="F28" s="12" t="n">
@@ -2266,31 +2285,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K28" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8853.834770835</x:v>
       </x:c>
       <x:c r="L28" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5915.23654166888</x:v>
       </x:c>
       <x:c r="M28" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>12897.2599791633</x:v>
       </x:c>
       <x:c r="N28" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5227.65341666713</x:v>
       </x:c>
       <x:c r="O28" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P28" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>12145.6777083324</x:v>
       </x:c>
       <x:c r="Q28" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R28" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>17669.3428333299</x:v>
       </x:c>
       <x:c r="S28" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>11779.1622291664</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2298,10 +2317,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C29" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>5175.2722678573</x:v>
       </x:c>
       <x:c r="D29" s="11" t="n">
-        <x:v>3936766.68585415</x:v>
+        <x:v>3615445.65085415</x:v>
       </x:c>
       <x:c r="E29" s="11" t="s"/>
       <x:c r="F29" s="12" t="n">
@@ -2320,31 +2339,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K29" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>19098.3331458331</x:v>
       </x:c>
       <x:c r="L29" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>11097.317229168</x:v>
       </x:c>
       <x:c r="M29" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>9817.81541666714</x:v>
       </x:c>
       <x:c r="N29" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>11194.7290208335</x:v>
       </x:c>
       <x:c r="O29" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1608.31418749969</x:v>
       </x:c>
       <x:c r="P29" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1480.19675000058</x:v>
       </x:c>
       <x:c r="Q29" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R29" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>13654.0981249991</x:v>
       </x:c>
       <x:c r="S29" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4503.00787500106</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2352,10 +2371,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C30" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>5033.57476934529</x:v>
       </x:c>
       <x:c r="D30" s="11" t="n">
-        <x:v>3657475.30581248</x:v>
+        <x:v>1297749.966375</x:v>
       </x:c>
       <x:c r="E30" s="11" t="s"/>
       <x:c r="F30" s="12" t="n">
@@ -2374,31 +2393,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K30" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>14694.7634375002</x:v>
       </x:c>
       <x:c r="L30" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>11219.544125</x:v>
       </x:c>
       <x:c r="M30" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>14343.1757916673</x:v>
       </x:c>
       <x:c r="N30" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>914.981499999762</x:v>
       </x:c>
       <x:c r="O30" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3445.37962499959</x:v>
       </x:c>
       <x:c r="P30" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3553.55820833286</x:v>
       </x:c>
       <x:c r="Q30" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R30" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>18183.6072083339</x:v>
       </x:c>
       <x:c r="S30" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4115.03687500046</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2406,10 +2425,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C31" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>4768.00023065475</x:v>
       </x:c>
       <x:c r="D31" s="11" t="n">
-        <x:v>3542991.83910415</x:v>
+        <x:v>1163623.61741667</x:v>
       </x:c>
       <x:c r="E31" s="11" t="s"/>
       <x:c r="F31" s="12" t="n">
@@ -2434,25 +2453,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M31" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>41.6963333333842</x:v>
       </x:c>
       <x:c r="N31" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>30773.8210833333</x:v>
       </x:c>
       <x:c r="O31" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>15978.0525416664</x:v>
       </x:c>
       <x:c r="P31" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7633.05716666672</x:v>
       </x:c>
       <x:c r="Q31" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R31" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6215.61487500044</x:v>
       </x:c>
       <x:c r="S31" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6109.7612291663</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2460,10 +2479,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C32" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>4680.38261309529</x:v>
       </x:c>
       <x:c r="D32" s="11" t="n">
-        <x:v>3234563.62939583</x:v>
+        <x:v>3723000.66239581</x:v>
       </x:c>
       <x:c r="E32" s="11" t="s"/>
       <x:c r="F32" s="12" t="n">
@@ -2482,31 +2501,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K32" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>16047.0233124993</x:v>
       </x:c>
       <x:c r="L32" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8585.0183541663</x:v>
       </x:c>
       <x:c r="M32" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3055.99320833245</x:v>
       </x:c>
       <x:c r="N32" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6007.73647916643</x:v>
       </x:c>
       <x:c r="O32" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3338.44702083338</x:v>
       </x:c>
       <x:c r="P32" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8136.11441666819</x:v>
       </x:c>
       <x:c r="Q32" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R32" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>17630.2926666676</x:v>
       </x:c>
       <x:c r="S32" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2724.7311250004</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2514,10 +2533,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C33" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>4396.49090029762</x:v>
       </x:c>
       <x:c r="D33" s="11" t="n">
-        <x:v>2945710.91912499</x:v>
+        <x:v>1999857.42283333</x:v>
       </x:c>
       <x:c r="E33" s="11" t="s"/>
       <x:c r="F33" s="12" t="n">
@@ -2539,16 +2558,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L33" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5045.09877083334</x:v>
       </x:c>
       <x:c r="M33" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>15052.5828541662</x:v>
       </x:c>
       <x:c r="N33" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>13113.2632916667</x:v>
       </x:c>
       <x:c r="O33" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3124.00150000025</x:v>
       </x:c>
       <x:c r="P33" s="12" t="n">
         <x:v>0</x:v>
@@ -2557,10 +2576,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R33" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>15220.1832083331</x:v>
       </x:c>
       <x:c r="S33" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>9995.74297916703</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2568,10 +2587,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C34" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>4359.55583333327</x:v>
       </x:c>
       <x:c r="D34" s="11" t="n">
-        <x:v>2932973.0800625</x:v>
+        <x:v>1696844.38858333</x:v>
       </x:c>
       <x:c r="E34" s="11" t="s"/>
       <x:c r="F34" s="12" t="n">
@@ -2590,13 +2609,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K34" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3088.43925000005</x:v>
       </x:c>
       <x:c r="L34" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>273.854791666614</x:v>
       </x:c>
       <x:c r="M34" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7893.4897708334</x:v>
       </x:c>
       <x:c r="N34" s="12" t="n">
         <x:v>0</x:v>
@@ -2605,16 +2624,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P34" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>9543.91622916656</x:v>
       </x:c>
       <x:c r="Q34" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R34" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>27651.3832291658</x:v>
       </x:c>
       <x:c r="S34" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>12582.6983958334</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2622,10 +2641,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C35" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>4352.9442008928</x:v>
       </x:c>
       <x:c r="D35" s="11" t="n">
-        <x:v>2857616.09672915</x:v>
+        <x:v>1851891.10822917</x:v>
       </x:c>
       <x:c r="E35" s="11" t="s"/>
       <x:c r="F35" s="12" t="n">
@@ -2644,31 +2663,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K35" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7555.42831249977</x:v>
       </x:c>
       <x:c r="L35" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7598.58779166685</x:v>
       </x:c>
       <x:c r="M35" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4512.58358333353</x:v>
       </x:c>
       <x:c r="N35" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1611.03914583335</x:v>
       </x:c>
       <x:c r="O35" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P35" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6106.05239583319</x:v>
       </x:c>
       <x:c r="Q35" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R35" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>33350.0387499991</x:v>
       </x:c>
       <x:c r="S35" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>207.488833333366</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2676,10 +2695,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C36" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>4190.92054315475</x:v>
       </x:c>
       <x:c r="D36" s="11" t="n">
-        <x:v>2680666.23129165</x:v>
+        <x:v>839654.702833331</x:v>
       </x:c>
       <x:c r="E36" s="11" t="s"/>
       <x:c r="F36" s="12" t="n">
@@ -2698,31 +2717,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K36" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3467.61062499986</x:v>
       </x:c>
       <x:c r="L36" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5534.4879166669</x:v>
       </x:c>
       <x:c r="M36" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N36" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4299.67104166688</x:v>
       </x:c>
       <x:c r="O36" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3932.25816666672</x:v>
       </x:c>
       <x:c r="P36" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>10524.5244791666</x:v>
       </x:c>
       <x:c r="Q36" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R36" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>23074.1449583333</x:v>
       </x:c>
       <x:c r="S36" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7840.19041666621</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2730,10 +2749,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C37" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>3587.59972916676</x:v>
       </x:c>
       <x:c r="D37" s="11" t="n">
-        <x:v>2562990.2824375</x:v>
+        <x:v>2085834.0194375</x:v>
       </x:c>
       <x:c r="E37" s="11" t="s"/>
       <x:c r="F37" s="12" t="n">
@@ -2752,31 +2771,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K37" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>9206.52385416743</x:v>
       </x:c>
       <x:c r="L37" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8621.25370833417</x:v>
       </x:c>
       <x:c r="M37" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6021.48283333331</x:v>
       </x:c>
       <x:c r="N37" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2576.39629166666</x:v>
       </x:c>
       <x:c r="O37" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P37" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>207.286083333427</x:v>
       </x:c>
       <x:c r="Q37" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R37" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>14295.3030625004</x:v>
       </x:c>
       <x:c r="S37" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>9298.15037499927</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2784,10 +2803,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C38" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>3501.64155803571</x:v>
       </x:c>
       <x:c r="D38" s="11" t="n">
-        <x:v>2318919.2809375</x:v>
+        <x:v>2994733.90093749</x:v>
       </x:c>
       <x:c r="E38" s="11" t="s"/>
       <x:c r="F38" s="12" t="n">
@@ -2806,13 +2825,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K38" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>25103.4978749999</x:v>
       </x:c>
       <x:c r="L38" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3675.17729166662</x:v>
       </x:c>
       <x:c r="M38" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2465.77741666744</x:v>
       </x:c>
       <x:c r="N38" s="12" t="n">
         <x:v>0</x:v>
@@ -2821,16 +2840,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P38" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6237.57814583275</x:v>
       </x:c>
       <x:c r="Q38" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R38" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4926.8427500003</x:v>
       </x:c>
       <x:c r="S38" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6614.10833333293</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2838,10 +2857,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C39" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>3472.53578571435</x:v>
       </x:c>
       <x:c r="D39" s="11" t="n">
-        <x:v>2282337.30749999</x:v>
+        <x:v>1258839.73358333</x:v>
       </x:c>
       <x:c r="E39" s="11" t="s"/>
       <x:c r="F39" s="12" t="n">
@@ -2860,22 +2879,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K39" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>17552.7418750015</x:v>
       </x:c>
       <x:c r="L39" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8656.97345833317</x:v>
       </x:c>
       <x:c r="M39" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>674.052875000052</x:v>
       </x:c>
       <x:c r="N39" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>219.632958333241</x:v>
       </x:c>
       <x:c r="O39" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7364.28304166649</x:v>
       </x:c>
       <x:c r="P39" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>11061.8734166664</x:v>
       </x:c>
       <x:c r="Q39" s="12" t="n">
         <x:v>0</x:v>
@@ -2884,7 +2903,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S39" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3085.94337500003</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2892,10 +2911,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C40" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>3462.96572619078</x:v>
       </x:c>
       <x:c r="D40" s="11" t="n">
-        <x:v>2221167.23352084</x:v>
+        <x:v>5080342.3193958</x:v>
       </x:c>
       <x:c r="E40" s="11" t="s"/>
       <x:c r="F40" s="12" t="n">
@@ -2914,31 +2933,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2405.15079166833</x:v>
       </x:c>
       <x:c r="L40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>12742.1107083326</x:v>
       </x:c>
       <x:c r="M40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1513.92604166735</x:v>
       </x:c>
       <x:c r="N40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>136.450708333403</x:v>
       </x:c>
       <x:c r="O40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4708.38787500095</x:v>
       </x:c>
       <x:c r="P40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>990.199375000782</x:v>
       </x:c>
       <x:c r="Q40" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>14370.4198749997</x:v>
       </x:c>
       <x:c r="S40" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>11614.8747916678</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -2946,10 +2965,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C41" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>3277.7333273809</x:v>
       </x:c>
       <x:c r="D41" s="11" t="n">
-        <x:v>2192442.4530625</x:v>
+        <x:v>1253858.11477083</x:v>
       </x:c>
       <x:c r="E41" s="11" t="s"/>
       <x:c r="F41" s="12" t="n">
@@ -2968,31 +2987,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K41" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6429.27141666668</x:v>
       </x:c>
       <x:c r="L41" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6033.51066666655</x:v>
       </x:c>
       <x:c r="M41" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8265.24718750012</x:v>
       </x:c>
       <x:c r="N41" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5215.67212499958</x:v>
       </x:c>
       <x:c r="O41" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8221.40433333325</x:v>
       </x:c>
       <x:c r="P41" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2921.31475000014</x:v>
       </x:c>
       <x:c r="Q41" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R41" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7535.83685416635</x:v>
       </x:c>
       <x:c r="S41" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1266.00924999989</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -3000,10 +3019,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C42" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>3196.27277232121</x:v>
       </x:c>
       <x:c r="D42" s="11" t="n">
-        <x:v>2130483.77974999</x:v>
+        <x:v>3981514.50466664</x:v>
       </x:c>
       <x:c r="E42" s="11" t="s"/>
       <x:c r="F42" s="12" t="n">
@@ -3022,31 +3041,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K42" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8389.01364583289</x:v>
       </x:c>
       <x:c r="L42" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3061.72162499931</x:v>
       </x:c>
       <x:c r="M42" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2840.0515416679</x:v>
       </x:c>
       <x:c r="N42" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5533.36097916635</x:v>
       </x:c>
       <x:c r="O42" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2212.3013333329</x:v>
       </x:c>
       <x:c r="P42" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1987.23491666652</x:v>
       </x:c>
       <x:c r="Q42" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R42" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>14191.5019999975</x:v>
       </x:c>
       <x:c r="S42" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6532.63277083356</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -3054,10 +3073,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="C43" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>2836.78272916662</x:v>
       </x:c>
       <x:c r="D43" s="11" t="n">
-        <x:v>2090882.34897917</x:v>
+        <x:v>1679374.57041666</x:v>
       </x:c>
       <x:c r="E43" s="11" t="s"/>
       <x:c r="F43" s="12" t="n">
@@ -3076,31 +3095,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3243.52358333324</x:v>
       </x:c>
       <x:c r="L43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5454.06499999971</x:v>
       </x:c>
       <x:c r="M43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3785.55389583367</x:v>
       </x:c>
       <x:c r="N43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4837.17618749989</x:v>
       </x:c>
       <x:c r="O43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3831.45733333332</x:v>
       </x:c>
       <x:c r="P43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3838.91650000005</x:v>
       </x:c>
       <x:c r="Q43" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>11465.9641249999</x:v>
       </x:c>
       <x:c r="S43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3258.30158333294</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -3108,10 +3127,10 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C44" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>2794.12397321406</x:v>
       </x:c>
       <x:c r="D44" s="11" t="n">
-        <x:v>2080459.81825</x:v>
+        <x:v>7036134.06668747</x:v>
       </x:c>
       <x:c r="E44" s="11" t="s"/>
       <x:c r="F44" s="12" t="n">
@@ -3130,7 +3149,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K44" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>39117.7356249969</x:v>
       </x:c>
       <x:c r="L44" s="12" t="n">
         <x:v>0</x:v>
@@ -3162,10 +3181,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="C45" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>2602.97874107145</x:v>
       </x:c>
       <x:c r="D45" s="11" t="n">
-        <x:v>2035607.62322917</x:v>
+        <x:v>2355360.9833125</x:v>
       </x:c>
       <x:c r="E45" s="11" t="s"/>
       <x:c r="F45" s="12" t="n">
@@ -3184,31 +3203,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K45" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6784.82649999997</x:v>
       </x:c>
       <x:c r="L45" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5398.5931250006</x:v>
       </x:c>
       <x:c r="M45" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2285.28358333325</x:v>
       </x:c>
       <x:c r="N45" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1144.10541666718</x:v>
       </x:c>
       <x:c r="O45" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P45" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3062.80412500026</x:v>
       </x:c>
       <x:c r="Q45" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R45" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>13116.9333333331</x:v>
       </x:c>
       <x:c r="S45" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4649.15629166598</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -3216,10 +3235,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C46" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>2581.96184523809</x:v>
       </x:c>
       <x:c r="D46" s="11" t="n">
-        <x:v>2022819.56935416</x:v>
+        <x:v>2893763.56256248</x:v>
       </x:c>
       <x:c r="E46" s="11" t="s"/>
       <x:c r="F46" s="12" t="n">
@@ -3238,31 +3257,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K46" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5665.92322916677</x:v>
       </x:c>
       <x:c r="L46" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>694.808833333664</x:v>
       </x:c>
       <x:c r="M46" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6650.57150000054</x:v>
       </x:c>
       <x:c r="N46" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1156.6395833334</x:v>
       </x:c>
       <x:c r="O46" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3866.79872916639</x:v>
       </x:c>
       <x:c r="P46" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5141.50897916732</x:v>
       </x:c>
       <x:c r="Q46" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R46" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6482.626520833</x:v>
       </x:c>
       <x:c r="S46" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6488.58845833223</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -3270,10 +3289,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="C47" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>2254.68249999998</x:v>
       </x:c>
       <x:c r="D47" s="11" t="n">
-        <x:v>1938306.55022917</x:v>
+        <x:v>827157.896520829</x:v>
       </x:c>
       <x:c r="E47" s="11" t="s"/>
       <x:c r="F47" s="12" t="n">
@@ -3292,28 +3311,28 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K47" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2543.18754166656</x:v>
       </x:c>
       <x:c r="L47" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>10790.647</x:v>
       </x:c>
       <x:c r="M47" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5255.86381250003</x:v>
       </x:c>
       <x:c r="N47" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3723.46425000008</x:v>
       </x:c>
       <x:c r="O47" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1581.31804166653</x:v>
       </x:c>
       <x:c r="P47" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3757.72966666659</x:v>
       </x:c>
       <x:c r="Q47" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R47" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3913.34468749992</x:v>
       </x:c>
       <x:c r="S47" s="12" t="n">
         <x:v>0</x:v>
@@ -3324,10 +3343,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C48" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>2253.66714732139</x:v>
       </x:c>
       <x:c r="D48" s="11" t="n">
-        <x:v>1897517.77725</x:v>
+        <x:v>1058003.14727083</x:v>
       </x:c>
       <x:c r="E48" s="11" t="s"/>
       <x:c r="F48" s="12" t="n">
@@ -3346,28 +3365,28 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K48" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>10249.9825833335</x:v>
       </x:c>
       <x:c r="L48" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8098.8599583332</x:v>
       </x:c>
       <x:c r="M48" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4946.33829166659</x:v>
       </x:c>
       <x:c r="N48" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O48" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>26.8306666666176</x:v>
       </x:c>
       <x:c r="P48" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3615.92793749995</x:v>
       </x:c>
       <x:c r="Q48" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R48" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4613.40062499954</x:v>
       </x:c>
       <x:c r="S48" s="12" t="n">
         <x:v>0</x:v>
@@ -3378,10 +3397,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C49" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>2157.30678422626</x:v>
       </x:c>
       <x:c r="D49" s="11" t="n">
-        <x:v>1867123.24952084</x:v>
+        <x:v>1233238.83183333</x:v>
       </x:c>
       <x:c r="E49" s="11" t="s"/>
       <x:c r="F49" s="12" t="n">
@@ -3400,31 +3419,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K49" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1115.29012500006</x:v>
       </x:c>
       <x:c r="L49" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M49" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5540.73460416682</x:v>
       </x:c>
       <x:c r="N49" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1380.3450000002</x:v>
       </x:c>
       <x:c r="O49" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>310.042499999981</x:v>
       </x:c>
       <x:c r="P49" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>13211.383583334</x:v>
       </x:c>
       <x:c r="Q49" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R49" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8229.75349999988</x:v>
       </x:c>
       <x:c r="S49" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>414.745666666655</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -3432,10 +3451,10 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C50" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>2011.45420684524</x:v>
       </x:c>
       <x:c r="D50" s="11" t="n">
-        <x:v>1790949.88941667</x:v>
+        <x:v>1456466.18939583</x:v>
       </x:c>
       <x:c r="E50" s="11" t="s"/>
       <x:c r="F50" s="12" t="n">
@@ -3454,16 +3473,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K50" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8231.89041666687</x:v>
       </x:c>
       <x:c r="L50" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5139.39141666656</x:v>
       </x:c>
       <x:c r="M50" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5424.30135416635</x:v>
       </x:c>
       <x:c r="N50" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>28.5736666666344</x:v>
       </x:c>
       <x:c r="O50" s="12" t="n">
         <x:v>0</x:v>
@@ -3475,10 +3494,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R50" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4586.71181250014</x:v>
       </x:c>
       <x:c r="S50" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4749.49022916681</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -3486,10 +3505,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="C51" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>1988.83531547684</x:v>
       </x:c>
       <x:c r="D51" s="11" t="n">
-        <x:v>1740505.16270833</x:v>
+        <x:v>20450522.0537708</x:v>
       </x:c>
       <x:c r="E51" s="11" t="s"/>
       <x:c r="F51" s="12" t="n">
@@ -3508,31 +3527,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K51" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1354.56425000355</x:v>
       </x:c>
       <x:c r="L51" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M51" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>837.125375006348</x:v>
       </x:c>
       <x:c r="N51" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3478.59904166311</x:v>
       </x:c>
       <x:c r="O51" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2224.53985416144</x:v>
       </x:c>
       <x:c r="P51" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>9449.32135417685</x:v>
       </x:c>
       <x:c r="Q51" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R51" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2619.84324999526</x:v>
       </x:c>
       <x:c r="S51" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7879.70129166916</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -3540,10 +3559,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C52" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>1963.31955059545</x:v>
       </x:c>
       <x:c r="D52" s="11" t="n">
-        <x:v>1650664.25364583</x:v>
+        <x:v>5593838.4230417</x:v>
       </x:c>
       <x:c r="E52" s="11" t="s"/>
       <x:c r="F52" s="12" t="n">
@@ -3562,13 +3581,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K52" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2985.53083333373</x:v>
       </x:c>
       <x:c r="L52" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M52" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>24432.9878750015</x:v>
       </x:c>
       <x:c r="N52" s="12" t="n">
         <x:v>0</x:v>
@@ -3586,7 +3605,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S52" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>67.9550000010058</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -3594,10 +3613,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C53" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>1953.91227232138</x:v>
       </x:c>
       <x:c r="D53" s="11" t="n">
-        <x:v>1639659.61220833</x:v>
+        <x:v>1364348.6360625</x:v>
       </x:c>
       <x:c r="E53" s="11" t="s"/>
       <x:c r="F53" s="12" t="n">
@@ -3616,31 +3635,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K53" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8415.82185416645</x:v>
       </x:c>
       <x:c r="L53" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>288.047541666543</x:v>
       </x:c>
       <x:c r="M53" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4534.71752083325</x:v>
       </x:c>
       <x:c r="N53" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>651.405375000089</x:v>
       </x:c>
       <x:c r="O53" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P53" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>312.661708333064</x:v>
       </x:c>
       <x:c r="Q53" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R53" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5275.37414583354</x:v>
       </x:c>
       <x:c r="S53" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7876.74366666633</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -3648,10 +3667,10 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C54" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>1934.83354613092</x:v>
       </x:c>
       <x:c r="D54" s="11" t="n">
-        <x:v>1635810.60691666</x:v>
+        <x:v>1252487.3889375</x:v>
       </x:c>
       <x:c r="E54" s="11" t="s"/>
       <x:c r="F54" s="12" t="n">
@@ -3670,31 +3689,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K54" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1324.27666666661</x:v>
       </x:c>
       <x:c r="L54" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>0.849833333399147</x:v>
       </x:c>
       <x:c r="M54" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>667.512958333362</x:v>
       </x:c>
       <x:c r="N54" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2725.91812499985</x:v>
       </x:c>
       <x:c r="O54" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1285.58883333346</x:v>
       </x:c>
       <x:c r="P54" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>258.657249999698</x:v>
       </x:c>
       <x:c r="Q54" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R54" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>16507.9333124997</x:v>
       </x:c>
       <x:c r="S54" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4316.93266666681</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -3702,10 +3721,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C55" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>1547.49146875005</x:v>
       </x:c>
       <x:c r="D55" s="11" t="n">
-        <x:v>1622430.84391666</x:v>
+        <x:v>960264.204791664</x:v>
       </x:c>
       <x:c r="E55" s="11" t="s"/>
       <x:c r="F55" s="12" t="n">
@@ -3724,31 +3743,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K55" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>873.27416666667</x:v>
       </x:c>
       <x:c r="L55" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1819.95779166662</x:v>
       </x:c>
       <x:c r="M55" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3092.78833333345</x:v>
       </x:c>
       <x:c r="N55" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1294.53912499989</x:v>
       </x:c>
       <x:c r="O55" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2494.38147916668</x:v>
       </x:c>
       <x:c r="P55" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>40.6222500000149</x:v>
       </x:c>
       <x:c r="Q55" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R55" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8711.27483333379</x:v>
       </x:c>
       <x:c r="S55" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3338.04258333356</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -3756,10 +3775,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C56" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>1504.94852380958</x:v>
       </x:c>
       <x:c r="D56" s="11" t="n">
-        <x:v>1585679.66310416</x:v>
+        <x:v>889386.840979164</x:v>
       </x:c>
       <x:c r="E56" s="11" t="s"/>
       <x:c r="F56" s="12" t="n">
@@ -3778,31 +3797,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K56" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1370.6301666667</x:v>
       </x:c>
       <x:c r="L56" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1421.47629166674</x:v>
       </x:c>
       <x:c r="M56" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2904.3352083338</x:v>
       </x:c>
       <x:c r="N56" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2008.16045833344</x:v>
       </x:c>
       <x:c r="O56" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1201.18316666665</x:v>
       </x:c>
       <x:c r="P56" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3494.3210416669</x:v>
       </x:c>
       <x:c r="Q56" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R56" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4407.1844583333</x:v>
       </x:c>
       <x:c r="S56" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4261.98854166665</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -3810,10 +3829,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="C57" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>1435.78150148823</x:v>
       </x:c>
       <x:c r="D57" s="11" t="n">
-        <x:v>1476052.10902084</x:v>
+        <x:v>5092083.567625</x:v>
       </x:c>
       <x:c r="E57" s="11" t="s"/>
       <x:c r="F57" s="12" t="n">
@@ -3832,19 +3851,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K57" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2999.15679166652</x:v>
       </x:c>
       <x:c r="L57" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>71.0938333328813</x:v>
       </x:c>
       <x:c r="M57" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2150.81054166798</x:v>
       </x:c>
       <x:c r="N57" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1415.55899999943</x:v>
       </x:c>
       <x:c r="O57" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1703.39924999978</x:v>
       </x:c>
       <x:c r="P57" s="12" t="n">
         <x:v>0</x:v>
@@ -3853,10 +3872,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R57" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7021.34420833457</x:v>
       </x:c>
       <x:c r="S57" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4739.57739583403</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -3864,10 +3883,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="C58" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>1119.80356547621</x:v>
       </x:c>
       <x:c r="D58" s="11" t="n">
-        <x:v>1428305.8305</x:v>
+        <x:v>764901.107499996</x:v>
       </x:c>
       <x:c r="E58" s="11" t="s"/>
       <x:c r="F58" s="12" t="n">
@@ -3886,31 +3905,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K58" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>811.676999999909</x:v>
       </x:c>
       <x:c r="L58" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1635.70583333343</x:v>
       </x:c>
       <x:c r="M58" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2124.40370833338</x:v>
       </x:c>
       <x:c r="N58" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3713.8633333334</x:v>
       </x:c>
       <x:c r="O58" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P58" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1180.1385</x:v>
       </x:c>
       <x:c r="Q58" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R58" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4991.13158333336</x:v>
       </x:c>
       <x:c r="S58" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1220.3299583334</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -3918,10 +3937,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C59" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>1064.44517857146</x:v>
       </x:c>
       <x:c r="D59" s="11" t="n">
-        <x:v>1406681.38127084</x:v>
+        <x:v>1251842.10466666</x:v>
       </x:c>
       <x:c r="E59" s="11" t="s"/>
       <x:c r="F59" s="12" t="n">
@@ -3940,16 +3959,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K59" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3012.0864583333</x:v>
       </x:c>
       <x:c r="L59" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6032.22789583332</x:v>
       </x:c>
       <x:c r="M59" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2412.82083333354</x:v>
       </x:c>
       <x:c r="N59" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>472.640833333367</x:v>
       </x:c>
       <x:c r="O59" s="12" t="n">
         <x:v>0</x:v>
@@ -3961,10 +3980,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R59" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1422.90666666673</x:v>
       </x:c>
       <x:c r="S59" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1549.54981250013</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -3972,10 +3991,10 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C60" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>1049.29664136895</x:v>
       </x:c>
       <x:c r="D60" s="11" t="n">
-        <x:v>1349356.40358332</x:v>
+        <x:v>5239793.71127087</x:v>
       </x:c>
       <x:c r="E60" s="11" t="s"/>
       <x:c r="F60" s="12" t="n">
@@ -3994,31 +4013,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K60" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>112.849333332852</x:v>
       </x:c>
       <x:c r="L60" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2314.63683333341</x:v>
       </x:c>
       <x:c r="M60" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>563.297583334148</x:v>
       </x:c>
       <x:c r="N60" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1157.27087500039</x:v>
       </x:c>
       <x:c r="O60" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P60" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>982.497999999672</x:v>
       </x:c>
       <x:c r="Q60" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R60" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1654.0693124989</x:v>
       </x:c>
       <x:c r="S60" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7905.53104166593</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -4026,10 +4045,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C61" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>848.610202380971</x:v>
       </x:c>
       <x:c r="D61" s="11" t="n">
-        <x:v>1336993.86425</x:v>
+        <x:v>758357.219854165</x:v>
       </x:c>
       <x:c r="E61" s="11" t="s"/>
       <x:c r="F61" s="12" t="n">
@@ -4072,7 +4091,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S61" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>11880.5428333336</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -4080,10 +4099,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C62" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>838.535802083323</x:v>
       </x:c>
       <x:c r="D62" s="11" t="n">
-        <x:v>1236990.05518749</x:v>
+        <x:v>1487791.61025</x:v>
       </x:c>
       <x:c r="E62" s="11" t="s"/>
       <x:c r="F62" s="12" t="n">
@@ -4102,31 +4121,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K62" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>847.119916666998</x:v>
       </x:c>
       <x:c r="L62" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>416.368333333405</x:v>
       </x:c>
       <x:c r="M62" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1957.18856249959</x:v>
       </x:c>
       <x:c r="N62" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O62" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>47.1718333333265</x:v>
       </x:c>
       <x:c r="P62" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1037.47295833332</x:v>
       </x:c>
       <x:c r="Q62" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R62" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4014.70500000031</x:v>
       </x:c>
       <x:c r="S62" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3419.47462499957</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -4134,10 +4153,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="C63" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>777.726523809534</x:v>
       </x:c>
       <x:c r="D63" s="11" t="n">
-        <x:v>1236939.87216666</x:v>
+        <x:v>767053.040166669</x:v>
       </x:c>
       <x:c r="E63" s="11" t="s"/>
       <x:c r="F63" s="12" t="n">
@@ -4156,7 +4175,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K63" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6.71100000001024</x:v>
       </x:c>
       <x:c r="L63" s="12" t="n">
         <x:v>0</x:v>
@@ -4171,16 +4190,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P63" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>35.593833333347</x:v>
       </x:c>
       <x:c r="Q63" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R63" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>7249.40870833315</x:v>
       </x:c>
       <x:c r="S63" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3596.45779166697</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -4188,10 +4207,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="C64" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>717.492563988148</x:v>
       </x:c>
       <x:c r="D64" s="11" t="n">
-        <x:v>1235532.11908333</x:v>
+        <x:v>2100927.244875</x:v>
       </x:c>
       <x:c r="E64" s="11" t="s"/>
       <x:c r="F64" s="12" t="n">
@@ -4210,13 +4229,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K64" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>108.335833333433</x:v>
       </x:c>
       <x:c r="L64" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>129.652916666819</x:v>
       </x:c>
       <x:c r="M64" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>104.697166666854</x:v>
       </x:c>
       <x:c r="N64" s="12" t="n">
         <x:v>0</x:v>
@@ -4225,16 +4244,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P64" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>36.3661666666158</x:v>
       </x:c>
       <x:c r="Q64" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R64" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>9189.31997916684</x:v>
       </x:c>
       <x:c r="S64" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>476.523833333515</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -4242,10 +4261,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="C65" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>683.507818452381</x:v>
       </x:c>
       <x:c r="D65" s="11" t="n">
-        <x:v>1229622.96056249</x:v>
+        <x:v>2202011.56252083</x:v>
       </x:c>
       <x:c r="E65" s="11" t="s"/>
       <x:c r="F65" s="12" t="n">
@@ -4264,22 +4283,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K65" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1826.64316666638</x:v>
       </x:c>
       <x:c r="L65" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5493.56966666691</x:v>
       </x:c>
       <x:c r="M65" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N65" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>129.747083333321</x:v>
       </x:c>
       <x:c r="O65" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P65" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1285.01933333324</x:v>
       </x:c>
       <x:c r="Q65" s="12" t="n">
         <x:v>0</x:v>
@@ -4288,7 +4307,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S65" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>834.130208333489</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -4296,10 +4315,10 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C66" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>677.884717261893</x:v>
       </x:c>
       <x:c r="D66" s="11" t="n">
-        <x:v>1227279.91960417</x:v>
+        <x:v>928384.66575</x:v>
       </x:c>
       <x:c r="E66" s="11" t="s"/>
       <x:c r="F66" s="12" t="n">
@@ -4318,28 +4337,28 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K66" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1355.85941666656</x:v>
       </x:c>
       <x:c r="L66" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>381.527833333355</x:v>
       </x:c>
       <x:c r="M66" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5358.90041666664</x:v>
       </x:c>
       <x:c r="N66" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>163.483000000007</x:v>
       </x:c>
       <x:c r="O66" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>434.829083333258</x:v>
       </x:c>
       <x:c r="P66" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>372.249749999959</x:v>
       </x:c>
       <x:c r="Q66" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R66" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1423.53654166672</x:v>
       </x:c>
       <x:c r="S66" s="12" t="n">
         <x:v>0</x:v>
@@ -4350,10 +4369,10 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="C67" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>670.378059523828</x:v>
       </x:c>
       <x:c r="D67" s="11" t="n">
-        <x:v>1225399.71929167</x:v>
+        <x:v>1906903.07008334</x:v>
       </x:c>
       <x:c r="E67" s="11" t="s"/>
       <x:c r="F67" s="12" t="n">
@@ -4372,16 +4391,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K67" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1081.6885416666</x:v>
       </x:c>
       <x:c r="L67" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1676.9293125004</x:v>
       </x:c>
       <x:c r="M67" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>35.5733333332464</x:v>
       </x:c>
       <x:c r="N67" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>98.8221666666213</x:v>
       </x:c>
       <x:c r="O67" s="12" t="n">
         <x:v>0</x:v>
@@ -4393,10 +4412,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R67" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5239.21656249999</x:v>
       </x:c>
       <x:c r="S67" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1253.06291666673</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -4404,10 +4423,10 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C68" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>603.406886904833</x:v>
       </x:c>
       <x:c r="D68" s="11" t="n">
-        <x:v>1210224.23258333</x:v>
+        <x:v>1197600.96191666</x:v>
       </x:c>
       <x:c r="E68" s="11" t="s"/>
       <x:c r="F68" s="12" t="n">
@@ -4426,13 +4445,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K68" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6245.50845833402</x:v>
       </x:c>
       <x:c r="L68" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M68" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2202.18795833364</x:v>
       </x:c>
       <x:c r="N68" s="12" t="n">
         <x:v>0</x:v>
@@ -4458,10 +4477,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C69" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>600.516660714256</x:v>
       </x:c>
       <x:c r="D69" s="11" t="n">
-        <x:v>1207969.8481875</x:v>
+        <x:v>734099.18964583</x:v>
       </x:c>
       <x:c r="E69" s="11" t="s"/>
       <x:c r="F69" s="12" t="n">
@@ -4480,10 +4499,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K69" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4192.17395833298</x:v>
       </x:c>
       <x:c r="L69" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1617.45293750009</x:v>
       </x:c>
       <x:c r="M69" s="12" t="n">
         <x:v>0</x:v>
@@ -4492,10 +4511,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O69" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>856.53424999991</x:v>
       </x:c>
       <x:c r="P69" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1741.07210416661</x:v>
       </x:c>
       <x:c r="Q69" s="12" t="n">
         <x:v>0</x:v>
@@ -4512,10 +4531,10 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="C70" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>545.480348214283</x:v>
       </x:c>
       <x:c r="D70" s="11" t="n">
-        <x:v>1203036.53685417</x:v>
+        <x:v>772132.652874997</x:v>
       </x:c>
       <x:c r="E70" s="11" t="s"/>
       <x:c r="F70" s="12" t="n">
@@ -4534,13 +4553,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K70" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>791.751541666687</x:v>
       </x:c>
       <x:c r="L70" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>76.7704999999842</x:v>
       </x:c>
       <x:c r="M70" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6768.20283333329</x:v>
       </x:c>
       <x:c r="N70" s="12" t="n">
         <x:v>0</x:v>
@@ -4566,10 +4585,10 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="C71" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>535.868483630973</x:v>
       </x:c>
       <x:c r="D71" s="11" t="n">
-        <x:v>1189153.26549999</x:v>
+        <x:v>1874625.40829167</x:v>
       </x:c>
       <x:c r="E71" s="11" t="s"/>
       <x:c r="F71" s="12" t="n">
@@ -4597,22 +4616,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N71" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>493.151958333328</x:v>
       </x:c>
       <x:c r="O71" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>112.281666666735</x:v>
       </x:c>
       <x:c r="P71" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>59.533000000054</x:v>
       </x:c>
       <x:c r="Q71" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R71" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1368.44922916684</x:v>
       </x:c>
       <x:c r="S71" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5468.74291666667</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -4620,10 +4639,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="C72" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>469.854828869051</x:v>
       </x:c>
       <x:c r="D72" s="11" t="n">
-        <x:v>1135433.74620833</x:v>
+        <x:v>922051.94385416</x:v>
       </x:c>
       <x:c r="E72" s="11" t="s"/>
       <x:c r="F72" s="12" t="n">
@@ -4657,13 +4676,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P72" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1015.37454166648</x:v>
       </x:c>
       <x:c r="Q72" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R72" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5562.59306250024</x:v>
       </x:c>
       <x:c r="S72" s="12" t="n">
         <x:v>0</x:v>
@@ -4674,10 +4693,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="C73" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>348.064831845363</x:v>
       </x:c>
       <x:c r="D73" s="11" t="n">
-        <x:v>1099423.69022916</x:v>
+        <x:v>4177038.37191669</x:v>
       </x:c>
       <x:c r="E73" s="11" t="s"/>
       <x:c r="F73" s="12" t="n">
@@ -4696,16 +4715,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K73" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1420.77116666688</x:v>
       </x:c>
       <x:c r="L73" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>350.036020833068</x:v>
       </x:c>
       <x:c r="M73" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1102.04320833413</x:v>
       </x:c>
       <x:c r="N73" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2000.057250001</x:v>
       </x:c>
       <x:c r="O73" s="12" t="n">
         <x:v>0</x:v>
@@ -4728,10 +4747,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="C74" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>335.298418154765</x:v>
       </x:c>
       <x:c r="D74" s="11" t="n">
-        <x:v>1097865.19189583</x:v>
+        <x:v>1026477.18516666</x:v>
       </x:c>
       <x:c r="E74" s="11" t="s"/>
       <x:c r="F74" s="12" t="n">
@@ -4750,16 +4769,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K74" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>948.977166666649</x:v>
       </x:c>
       <x:c r="L74" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>102.871500000008</x:v>
       </x:c>
       <x:c r="M74" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>363.447249999968</x:v>
       </x:c>
       <x:c r="N74" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3055.88577083347</x:v>
       </x:c>
       <x:c r="O74" s="12" t="n">
         <x:v>0</x:v>
@@ -4771,10 +4790,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R74" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>62.815833333414</x:v>
       </x:c>
       <x:c r="S74" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>160.180333333206</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -4782,10 +4801,10 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="C75" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>320.217369047592</x:v>
       </x:c>
       <x:c r="D75" s="11" t="n">
-        <x:v>1096871.6141875</x:v>
+        <x:v>2567473.32560416</x:v>
       </x:c>
       <x:c r="E75" s="11" t="s"/>
       <x:c r="F75" s="12" t="n">
@@ -4804,31 +4823,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K75" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1482.97112499969</x:v>
       </x:c>
       <x:c r="L75" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>437.444000000134</x:v>
       </x:c>
       <x:c r="M75" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1121.25554166641</x:v>
       </x:c>
       <x:c r="N75" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>224.213749999646</x:v>
       </x:c>
       <x:c r="O75" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1139.25441666692</x:v>
       </x:c>
       <x:c r="P75" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3.05300000030547</x:v>
       </x:c>
       <x:c r="Q75" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R75" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>51.4801666666754</x:v>
       </x:c>
       <x:c r="S75" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>23.371166666504</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -4836,10 +4855,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="C76" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>303.798754464352</x:v>
       </x:c>
       <x:c r="D76" s="11" t="n">
-        <x:v>1026451.80720833</x:v>
+        <x:v>1744758.34527083</x:v>
       </x:c>
       <x:c r="E76" s="11" t="s"/>
       <x:c r="F76" s="12" t="n">
@@ -4858,31 +4877,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K76" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>640.46016666689</x:v>
       </x:c>
       <x:c r="L76" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M76" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1651.7310625005</x:v>
       </x:c>
       <x:c r="N76" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>103.183083333308</x:v>
       </x:c>
       <x:c r="O76" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>724.851625000127</x:v>
       </x:c>
       <x:c r="P76" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>30.7661666667555</x:v>
       </x:c>
       <x:c r="Q76" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R76" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>811.475791666657</x:v>
       </x:c>
       <x:c r="S76" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>290.714666666696</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -4890,10 +4909,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="C77" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>299.845633928531</x:v>
       </x:c>
       <x:c r="D77" s="11" t="n">
-        <x:v>1021783.0073125</x:v>
+        <x:v>4787828.8435416</x:v>
       </x:c>
       <x:c r="E77" s="11" t="s"/>
       <x:c r="F77" s="12" t="n">
@@ -4912,16 +4931,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K77" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>682.121875000186</x:v>
       </x:c>
       <x:c r="L77" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M77" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1864.64016666729</x:v>
       </x:c>
       <x:c r="N77" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>838.955083331093</x:v>
       </x:c>
       <x:c r="O77" s="12" t="n">
         <x:v>0</x:v>
@@ -4933,7 +4952,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R77" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>812.121750000864</x:v>
       </x:c>
       <x:c r="S77" s="12" t="n">
         <x:v>0</x:v>
@@ -4944,10 +4963,10 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="C78" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>262.490044642872</x:v>
       </x:c>
       <x:c r="D78" s="11" t="n">
-        <x:v>1015870.47322916</x:v>
+        <x:v>854660.343729166</x:v>
       </x:c>
       <x:c r="E78" s="11" t="s"/>
       <x:c r="F78" s="12" t="n">
@@ -4966,7 +4985,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K78" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>626.666666666628</x:v>
       </x:c>
       <x:c r="L78" s="12" t="n">
         <x:v>0</x:v>
@@ -4975,22 +4994,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N78" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>291.298833333421</x:v>
       </x:c>
       <x:c r="O78" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P78" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>931.34766666661</x:v>
       </x:c>
       <x:c r="Q78" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R78" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>593.404583333409</x:v>
       </x:c>
       <x:c r="S78" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1232.14287500014</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -4998,10 +5017,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="C79" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>203.631903273801</x:v>
       </x:c>
       <x:c r="D79" s="11" t="n">
-        <x:v>1005241.56795833</x:v>
+        <x:v>974544.314854164</x:v>
       </x:c>
       <x:c r="E79" s="11" t="s"/>
       <x:c r="F79" s="12" t="n">
@@ -5020,10 +5039,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K79" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1077.78733333328</x:v>
       </x:c>
       <x:c r="L79" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1367.55764583335</x:v>
       </x:c>
       <x:c r="M79" s="12" t="n">
         <x:v>0</x:v>
@@ -5035,13 +5054,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P79" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>92.9721666666446</x:v>
       </x:c>
       <x:c r="Q79" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R79" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>312.529499999946</x:v>
       </x:c>
       <x:c r="S79" s="12" t="n">
         <x:v>0</x:v>
@@ -5052,10 +5071,10 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="C80" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>153.70907589286</x:v>
       </x:c>
       <x:c r="D80" s="11" t="n">
-        <x:v>1004165.66989583</x:v>
+        <x:v>1006317.59695833</x:v>
       </x:c>
       <x:c r="E80" s="11" t="s"/>
       <x:c r="F80" s="12" t="n">
@@ -5080,7 +5099,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M80" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>118.301875000005</x:v>
       </x:c>
       <x:c r="N80" s="12" t="n">
         <x:v>0</x:v>
@@ -5095,7 +5114,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R80" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2033.62518750003</x:v>
       </x:c>
       <x:c r="S80" s="12" t="n">
         <x:v>0</x:v>
@@ -5106,10 +5125,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="C81" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>148.886235119077</x:v>
       </x:c>
       <x:c r="D81" s="11" t="n">
-        <x:v>971693.468208331</x:v>
+        <x:v>2223251.6408125</x:v>
       </x:c>
       <x:c r="E81" s="11" t="s"/>
       <x:c r="F81" s="12" t="n">
@@ -5128,7 +5147,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K81" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>263.182500000112</x:v>
       </x:c>
       <x:c r="L81" s="12" t="n">
         <x:v>0</x:v>
@@ -5140,7 +5159,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O81" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1821.22479166696</x:v>
       </x:c>
       <x:c r="P81" s="12" t="n">
         <x:v>0</x:v>
@@ -5160,10 +5179,10 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="C82" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>135.991863095234</x:v>
       </x:c>
       <x:c r="D82" s="11" t="n">
-        <x:v>952995.331562494</x:v>
+        <x:v>2082363.70433334</x:v>
       </x:c>
       <x:c r="E82" s="11" t="s"/>
       <x:c r="F82" s="12" t="n">
@@ -5182,13 +5201,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K82" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>592.282499999972</x:v>
       </x:c>
       <x:c r="L82" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1072.65083333314</x:v>
       </x:c>
       <x:c r="M82" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>159.700083333533</x:v>
       </x:c>
       <x:c r="N82" s="12" t="n">
         <x:v>0</x:v>
@@ -5206,7 +5225,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S82" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>79.2526666666381</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -5214,10 +5233,10 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="C83" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>133.112226190478</x:v>
       </x:c>
       <x:c r="D83" s="11" t="n">
-        <x:v>938599.324229163</x:v>
+        <x:v>1652527.8248125</x:v>
       </x:c>
       <x:c r="E83" s="11" t="s"/>
       <x:c r="F83" s="12" t="n">
@@ -5248,7 +5267,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O83" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>113.462083333405</x:v>
       </x:c>
       <x:c r="P83" s="12" t="n">
         <x:v>0</x:v>
@@ -5257,10 +5276,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R83" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>684.341874999925</x:v>
       </x:c>
       <x:c r="S83" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1065.76720833336</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -5268,10 +5287,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C84" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>118.037702380946</x:v>
       </x:c>
       <x:c r="D84" s="11" t="n">
-        <x:v>926443.188291661</x:v>
+        <x:v>1238642.58302083</x:v>
       </x:c>
       <x:c r="E84" s="11" t="s"/>
       <x:c r="F84" s="12" t="n">
@@ -5302,7 +5321,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O84" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>215.467291666428</x:v>
       </x:c>
       <x:c r="P84" s="12" t="n">
         <x:v>0</x:v>
@@ -5314,7 +5333,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S84" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1437.06054166681</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -5322,10 +5341,10 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="C85" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>110.969973214304</x:v>
       </x:c>
       <x:c r="D85" s="11" t="n">
-        <x:v>918894.279708333</x:v>
+        <x:v>2934526.6596875</x:v>
       </x:c>
       <x:c r="E85" s="11" t="s"/>
       <x:c r="F85" s="12" t="n">
@@ -5365,7 +5384,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R85" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1553.57962500025</x:v>
       </x:c>
       <x:c r="S85" s="12" t="n">
         <x:v>0</x:v>
@@ -5376,10 +5395,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="C86" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>88.9527440476231</x:v>
       </x:c>
       <x:c r="D86" s="11" t="n">
-        <x:v>915473.976249994</x:v>
+        <x:v>1006486.906375</x:v>
       </x:c>
       <x:c r="E86" s="11" t="s"/>
       <x:c r="F86" s="12" t="n">
@@ -5401,16 +5420,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L86" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>78.6688333333004</x:v>
       </x:c>
       <x:c r="M86" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N86" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>8.96958333335351</x:v>
       </x:c>
       <x:c r="O86" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>278.228750000126</x:v>
       </x:c>
       <x:c r="P86" s="12" t="n">
         <x:v>0</x:v>
@@ -5419,7 +5438,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R86" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>879.471249999944</x:v>
       </x:c>
       <x:c r="S86" s="12" t="n">
         <x:v>0</x:v>
@@ -5430,10 +5449,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="C87" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>78.4874077380767</x:v>
       </x:c>
       <x:c r="D87" s="11" t="n">
-        <x:v>904485.444791668</x:v>
+        <x:v>1407780.20497917</x:v>
       </x:c>
       <x:c r="E87" s="11" t="s"/>
       <x:c r="F87" s="12" t="n">
@@ -5452,10 +5471,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K87" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>16.1661666666623</x:v>
       </x:c>
       <x:c r="L87" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>76.3385000000708</x:v>
       </x:c>
       <x:c r="M87" s="12" t="n">
         <x:v>0</x:v>
@@ -5467,7 +5486,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P87" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1006.31904166634</x:v>
       </x:c>
       <x:c r="Q87" s="12" t="n">
         <x:v>0</x:v>
@@ -5484,10 +5503,10 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="C88" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>60.6504375000118</x:v>
       </x:c>
       <x:c r="D88" s="11" t="n">
-        <x:v>879830.670499997</x:v>
+        <x:v>1100272.79635416</x:v>
       </x:c>
       <x:c r="E88" s="11" t="s"/>
       <x:c r="F88" s="12" t="n">
@@ -5509,7 +5528,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L88" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>64.1750000000466</x:v>
       </x:c>
       <x:c r="M88" s="12" t="n">
         <x:v>0</x:v>
@@ -5518,10 +5537,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O88" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>372.095375000266</x:v>
       </x:c>
       <x:c r="P88" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>412.835749999853</x:v>
       </x:c>
       <x:c r="Q88" s="12" t="n">
         <x:v>0</x:v>
@@ -5538,10 +5557,10 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="C89" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>60.3652232142631</x:v>
       </x:c>
       <x:c r="D89" s="11" t="n">
-        <x:v>868317.561645829</x:v>
+        <x:v>4017143.35620831</x:v>
       </x:c>
       <x:c r="E89" s="11" t="s"/>
       <x:c r="F89" s="12" t="n">
@@ -5569,7 +5588,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N89" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>109.194999999832</x:v>
       </x:c>
       <x:c r="O89" s="12" t="n">
         <x:v>0</x:v>
@@ -5581,10 +5600,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R89" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>332.474500000011</x:v>
       </x:c>
       <x:c r="S89" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>403.44362499984</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -5592,10 +5611,10 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="C90" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>53.7311517857015</x:v>
       </x:c>
       <x:c r="D90" s="11" t="n">
-        <x:v>850985.483104166</x:v>
+        <x:v>757493.681500001</x:v>
       </x:c>
       <x:c r="E90" s="11" t="s"/>
       <x:c r="F90" s="12" t="n">
@@ -5614,10 +5633,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K90" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>414.742791666533</x:v>
       </x:c>
       <x:c r="L90" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>297.72266666661</x:v>
       </x:c>
       <x:c r="M90" s="12" t="n">
         <x:v>0</x:v>
@@ -5635,7 +5654,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R90" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>39.7706666666782</x:v>
       </x:c>
       <x:c r="S90" s="12" t="n">
         <x:v>0</x:v>
@@ -5646,10 +5665,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="C91" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>52.8142380952403</x:v>
       </x:c>
       <x:c r="D91" s="11" t="n">
-        <x:v>795592.341520829</x:v>
+        <x:v>794901.01858333</x:v>
       </x:c>
       <x:c r="E91" s="11" t="s"/>
       <x:c r="F91" s="12" t="n">
@@ -5668,7 +5687,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K91" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>739.399333333364</x:v>
       </x:c>
       <x:c r="L91" s="12" t="n">
         <x:v>0</x:v>
@@ -5700,10 +5719,10 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="C92" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>46.8432857142844</x:v>
       </x:c>
       <x:c r="D92" s="11" t="n">
-        <x:v>794161.619249997</x:v>
+        <x:v>880486.476499997</x:v>
       </x:c>
       <x:c r="E92" s="11" t="s"/>
       <x:c r="F92" s="12" t="n">
@@ -5746,7 +5765,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S92" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>655.805999999982</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -5754,10 +5773,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="C93" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>46.8336249999869</x:v>
       </x:c>
       <x:c r="D93" s="11" t="n">
-        <x:v>787157.7920625</x:v>
+        <x:v>749074.134979165</x:v>
       </x:c>
       <x:c r="E93" s="11" t="s"/>
       <x:c r="F93" s="12" t="n">
@@ -5776,10 +5795,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K93" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>521.435916666524</x:v>
       </x:c>
       <x:c r="L93" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>122.452666666592</x:v>
       </x:c>
       <x:c r="M93" s="12" t="n">
         <x:v>0</x:v>
@@ -5797,7 +5816,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R93" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>11.7821666667005</x:v>
       </x:c>
       <x:c r="S93" s="12" t="n">
         <x:v>0</x:v>
@@ -5808,10 +5827,10 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="C94" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>45.023413690439</x:v>
       </x:c>
       <x:c r="D94" s="11" t="n">
-        <x:v>780981.815229165</x:v>
+        <x:v>2131114.10754165</x:v>
       </x:c>
       <x:c r="E94" s="11" t="s"/>
       <x:c r="F94" s="12" t="n">
@@ -5833,10 +5852,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L94" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>117.669000000227</x:v>
       </x:c>
       <x:c r="M94" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>161.467333333101</x:v>
       </x:c>
       <x:c r="N94" s="12" t="n">
         <x:v>0</x:v>
@@ -5851,10 +5870,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R94" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>22.9368333332241</x:v>
       </x:c>
       <x:c r="S94" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>328.254624999594</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -5862,10 +5881,10 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="C95" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>12.9466726190461</x:v>
       </x:c>
       <x:c r="D95" s="11" t="n">
-        <x:v>764495.927999997</x:v>
+        <x:v>904666.698208335</x:v>
       </x:c>
       <x:c r="E95" s="11" t="s"/>
       <x:c r="F95" s="12" t="n">
@@ -5887,7 +5906,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L95" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>37.720166666666</x:v>
       </x:c>
       <x:c r="M95" s="12" t="n">
         <x:v>0</x:v>
@@ -5905,7 +5924,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R95" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>143.533249999979</x:v>
       </x:c>
       <x:c r="S95" s="12" t="n">
         <x:v>0</x:v>
@@ -5973,7 +5992,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D97" s="11" t="n">
-        <x:v>756741.445375002</x:v>
+        <x:v>2022819.56935416</x:v>
       </x:c>
       <x:c r="E97" s="11" t="s"/>
       <x:c r="F97" s="12" t="n">
@@ -6027,7 +6046,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D98" s="11" t="n">
-        <x:v>756164.868833335</x:v>
+        <x:v>926443.188291661</x:v>
       </x:c>
       <x:c r="E98" s="11" t="s"/>
       <x:c r="F98" s="12" t="n">
@@ -6081,7 +6100,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D99" s="11" t="n">
-        <x:v>749223.857583329</x:v>
+        <x:v>1229622.96056249</x:v>
       </x:c>
       <x:c r="E99" s="11" t="s"/>
       <x:c r="F99" s="12" t="n">
@@ -6135,7 +6154,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D100" s="11" t="n">
-        <x:v>748418.464229165</x:v>
+        <x:v>1585679.66310416</x:v>
       </x:c>
       <x:c r="E100" s="11" t="s"/>
       <x:c r="F100" s="12" t="n">
@@ -6189,7 +6208,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D101" s="11" t="n">
-        <x:v>725691.956395831</x:v>
+        <x:v>1135433.74620833</x:v>
       </x:c>
       <x:c r="E101" s="11" t="s"/>
       <x:c r="F101" s="12" t="n">
@@ -6235,10 +6254,280 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:146" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="102" spans="1:146" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B102" s="10" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C102" s="11" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D102" s="11" t="n">
+        <x:v>952995.331562494</x:v>
+      </x:c>
+      <x:c r="E102" s="11" t="s"/>
+      <x:c r="F102" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G102" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H102" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I102" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J102" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K102" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L102" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M102" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N102" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O102" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P102" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q102" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R102" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S102" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:146" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B103" s="10" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C103" s="11" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D103" s="11" t="n">
+        <x:v>723446.820729164</x:v>
+      </x:c>
+      <x:c r="E103" s="11" t="s"/>
+      <x:c r="F103" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G103" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H103" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I103" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J103" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K103" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L103" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M103" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N103" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O103" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P103" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q103" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R103" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S103" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:146" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B104" s="10" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C104" s="11" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D104" s="11" t="n">
+        <x:v>740245.823958333</x:v>
+      </x:c>
+      <x:c r="E104" s="11" t="s"/>
+      <x:c r="F104" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G104" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H104" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I104" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J104" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K104" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L104" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M104" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N104" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O104" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P104" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q104" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R104" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S104" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:146" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B105" s="10" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C105" s="11" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D105" s="11" t="n">
+        <x:v>1349356.40358332</x:v>
+      </x:c>
+      <x:c r="E105" s="11" t="s"/>
+      <x:c r="F105" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G105" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H105" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I105" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J105" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K105" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L105" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M105" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N105" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O105" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P105" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q105" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R105" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S105" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:146" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B106" s="10" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C106" s="11" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D106" s="11" t="n">
+        <x:v>735383.601541668</x:v>
+      </x:c>
+      <x:c r="E106" s="11" t="s"/>
+      <x:c r="F106" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G106" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H106" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I106" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J106" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K106" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L106" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M106" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N106" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O106" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P106" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q106" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R106" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S106" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:146" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:dataConsolidate/>
-  <x:conditionalFormatting sqref="E2:E101">
+  <x:conditionalFormatting sqref="E2:E106">
     <x:cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <x:formula>LEN(TRIM(E2))&gt;0</x:formula>
     </x:cfRule>
